--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1121,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F79" activeCellId="0" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3475,14 +3475,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>67</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3496,14 +3496,14 @@
         <v>42</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G79" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>67</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5253,7 +5253,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>15593.47</v>
+        <v>16732.47</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1121,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F79" activeCellId="0" sqref="F79"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1565,14 +1565,14 @@
         <v>14</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" s="15" t="n">
         <v>2.35</v>
       </c>
       <c r="H10" s="16" t="n">
         <f aca="false">F10*G10</f>
-        <v>117.5</v>
+        <v>94</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -3655,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3676,7 +3676,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="16" t="n">
@@ -5253,7 +5253,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>16732.47</v>
+        <v>16708.97</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guide magnetiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey  jeans blu</t>
   </si>
   <si>
     <t xml:space="preserve">Jersey azzurro acqua</t>
@@ -1119,10 +1116,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI160"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3363,7 +3360,9 @@
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="D73" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
       </c>
@@ -3380,25 +3379,23 @@
     </row>
     <row r="74" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="24" t="s">
-        <v>100</v>
-      </c>
+      <c r="D74" s="24"/>
       <c r="E74" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G74" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3412,14 +3409,14 @@
         <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3433,14 +3430,14 @@
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>21</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="77" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3451,17 +3448,17 @@
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>210.7</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="78" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3475,14 +3472,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>301.5</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3496,14 +3493,14 @@
         <v>42</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>971.5</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3512,42 +3509,44 @@
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="D80" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="E80" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>73.1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3557,20 +3556,20 @@
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="83" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3580,20 +3579,20 @@
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G83" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3603,20 +3602,20 @@
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G84" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3626,17 +3625,15 @@
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="20" t="n">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" s="20"/>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
         <v>0</v>
@@ -3655,7 +3652,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3670,18 +3667,20 @@
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>70</v>
-      </c>
-      <c r="G87" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="G87" s="20" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="88" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3697,14 +3696,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3720,14 +3719,14 @@
         <v>42</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="90" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3743,14 +3742,14 @@
         <v>42</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3766,14 +3765,14 @@
         <v>42</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G91" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="92" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3786,17 +3785,17 @@
         <v>41</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="93" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3809,17 +3808,17 @@
         <v>41</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3838,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
@@ -3881,14 +3880,14 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G96" s="34" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H96" s="35" t="n">
         <f aca="false">F96*G96</f>
-        <v>0</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="97" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3903,15 +3902,15 @@
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G97" s="34" t="n">
+      <c r="F97" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="37" t="n">
         <v>0.19</v>
       </c>
-      <c r="H97" s="35" t="n">
+      <c r="H97" s="38" t="n">
         <f aca="false">F97*G97</f>
-        <v>4.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3926,13 +3925,13 @@
       <c r="E98" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="36" t="n">
+      <c r="F98" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G98" s="37" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H98" s="38" t="n">
+      <c r="G98" s="39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H98" s="40" t="n">
         <f aca="false">F98*G98</f>
         <v>0</v>
       </c>
@@ -3950,14 +3949,14 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H99" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H99" s="35" t="n">
         <f aca="false">F99*G99</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3973,15 +3972,16 @@
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H100" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" s="38" t="n">
         <f aca="false">F100*G100</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
@@ -3990,44 +3990,44 @@
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G101" s="41" t="n">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="42"/>
+        <v>313.95</v>
+      </c>
+      <c r="I101" s="43"/>
     </row>
     <row r="102" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G102" s="41" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>313.95</v>
+        <v>191.4</v>
       </c>
       <c r="I102" s="43"/>
     </row>
@@ -4038,20 +4038,20 @@
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G103" s="41" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>191.4</v>
+        <v>292.8</v>
       </c>
       <c r="I103" s="43"/>
     </row>
@@ -4062,20 +4062,20 @@
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G104" s="41" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>292.8</v>
+        <v>0</v>
       </c>
       <c r="I104" s="43"/>
     </row>
@@ -4086,20 +4086,20 @@
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G105" s="41" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H105" s="38" t="n">
         <f aca="false">F105*G105</f>
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="I105" s="43"/>
     </row>
@@ -4110,20 +4110,20 @@
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G106" s="41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>157.5</v>
+        <v>48</v>
       </c>
       <c r="I106" s="43"/>
     </row>
@@ -4140,14 +4140,14 @@
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G107" s="41" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H107" s="38" t="n">
         <f aca="false">F107*G107</f>
-        <v>48</v>
+        <v>19.2</v>
       </c>
       <c r="I107" s="43"/>
     </row>
@@ -4158,44 +4158,43 @@
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G108" s="41" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
-        <v>19.2</v>
-      </c>
-      <c r="I108" s="43"/>
+        <v>35.1</v>
+      </c>
     </row>
     <row r="109" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="G109" s="41" t="n">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>35.1</v>
+        <v>573.5</v>
       </c>
     </row>
     <row r="110" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4205,20 +4204,20 @@
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>185</v>
-      </c>
-      <c r="G110" s="41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H110" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="G110" s="20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H110" s="40" t="n">
         <f aca="false">F110*G110</f>
-        <v>573.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4228,20 +4227,20 @@
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H111" s="40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>16.6</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="112" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4251,43 +4250,41 @@
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>305.5</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="113" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="24" t="s">
-        <v>143</v>
-      </c>
+      <c r="D113" s="44"/>
       <c r="E113" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G113" s="20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>117.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4296,19 +4293,19 @@
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4317,19 +4314,21 @@
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="D115" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="E115" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4339,89 +4338,89 @@
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>41.34</v>
+        <v>2.7</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24" t="s">
+      <c r="A117" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F117" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G117" s="20" t="n">
-        <v>2.7</v>
+      <c r="B117" s="19"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" s="12" t="s">
+      <c r="A118" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F118" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G118" s="16" t="n">
-        <v>6</v>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="25" t="n">
+        <v>730</v>
+      </c>
+      <c r="G118" s="20" t="n">
+        <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>72</v>
+        <v>481.8</v>
       </c>
     </row>
     <row r="119" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>730</v>
+        <v>12</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>481.8</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="120" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4437,14 +4436,14 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>34.2</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="121" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4460,14 +4459,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>5.16</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4483,14 +4482,14 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>34.8</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4499,21 +4498,19 @@
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D123" s="45"/>
       <c r="E123" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4522,19 +4519,19 @@
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="45"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4543,19 +4540,21 @@
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E125" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>9</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4571,14 +4570,14 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>269</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4587,21 +4586,19 @@
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D127" s="24"/>
       <c r="E127" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>247.5</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4610,42 +4607,42 @@
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="D128" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E128" s="24" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>8.61</v>
-      </c>
-    </row>
-    <row r="129" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D129" s="24"/>
       <c r="E129" s="24" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4659,56 +4656,58 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="s">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="20" t="n">
-        <v>1.96</v>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" s="30" t="n">
+        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>1.96</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24" t="s">
+        <v>147</v>
+      </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="29" t="n">
+      <c r="F132" s="25" t="n">
+        <v>195</v>
+      </c>
+      <c r="G132" s="20" t="n">
         <v>7</v>
-      </c>
-      <c r="G132" s="30" t="n">
-        <v>1.97</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>13.79</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4718,20 +4717,20 @@
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>1365</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4747,58 +4746,56 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>672.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="25" t="n">
-        <v>150</v>
-      </c>
-      <c r="G135" s="20" t="n">
-        <v>2.21</v>
+      <c r="F135" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" s="30" t="n">
+        <v>1.43</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>331.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G136" s="30" t="n">
-        <v>1.43</v>
+      <c r="F136" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" s="20" t="n">
+        <v>8.5</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4812,14 +4809,14 @@
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4828,86 +4825,86 @@
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="D138" s="24" t="s">
+        <v>174</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24" t="s">
+      <c r="A139" s="28" t="s">
         <v>175</v>
       </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G139" s="20" t="n">
-        <v>47</v>
+      <c r="F139" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" s="30" t="n">
+        <v>2.97</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>564</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="G140" s="30" t="n">
-        <v>2.97</v>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="25" t="n">
+        <v>140</v>
+      </c>
+      <c r="G140" s="20" t="n">
+        <v>1.07</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>65.34</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24" t="s">
+      <c r="A141" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E141" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="25" t="n">
-        <v>140</v>
-      </c>
-      <c r="G141" s="20" t="n">
-        <v>1.07</v>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="G141" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>149.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4918,17 +4915,17 @@
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F142" s="29" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G142" s="30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4942,35 +4939,35 @@
         <v>42</v>
       </c>
       <c r="F143" s="29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G143" s="30" t="n">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F144" s="29" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G144" s="30" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>10.88</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4984,14 +4981,14 @@
         <v>42</v>
       </c>
       <c r="F145" s="29" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G145" s="30" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>114.4</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5005,56 +5002,56 @@
         <v>42</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G146" s="30" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>269.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B147" s="19"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="29" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G147" s="30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>22.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F148" s="29" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G148" s="30" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>9.5</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5068,14 +5065,14 @@
         <v>42</v>
       </c>
       <c r="F149" s="29" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G149" s="30" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>45.1</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5089,14 +5086,14 @@
         <v>42</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G150" s="30" t="n">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>54.9</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5110,14 +5107,14 @@
         <v>42</v>
       </c>
       <c r="F151" s="29" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G151" s="30" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>125.4</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5127,137 +5124,117 @@
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G152" s="30" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F153" s="29" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G153" s="30" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
+      <c r="D154" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="E154" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="29" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G154" s="30" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>138</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="29" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G155" s="30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F156" s="29" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G156" s="30" t="n">
         <v>10</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="G157" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H157" s="16" t="n">
-        <f aca="false">F157*G157</f>
         <v>80</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="47" t="n">
-        <f aca="false">SUM(H3:H157)</f>
-        <v>16708.97</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H157" s="47" t="n">
+        <f aca="false">SUM(H3:H156)</f>
+        <v>16701.97</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -5282,53 +5259,48 @@
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
-    <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F99">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F104">
+    <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F108">
+    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F37">
-    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F42">
-    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F47">
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
-    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F97:F98">
+    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F104">
-    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F101:F103">
+    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F116">
-    <cfRule type="cellIs" priority="15" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F112:F115">
+    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1118,8 +1118,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3053,14 +3053,14 @@
         <v>42</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G59" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3451,14 +3451,14 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>301.5</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4020,14 +4020,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G102" s="41" t="n">
         <v>2.9</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>191.4</v>
+        <v>185.6</v>
       </c>
       <c r="I102" s="43"/>
     </row>
@@ -4044,14 +4044,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G103" s="41" t="n">
         <v>4.8</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>292.8</v>
+        <v>278.4</v>
       </c>
       <c r="I103" s="43"/>
     </row>
@@ -5229,7 +5229,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="47" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>16701.97</v>
+        <v>16706.27</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -215,6 +215,12 @@
     <t xml:space="preserve">Carta fotocopie fg  A4 80 GR</t>
   </si>
   <si>
+    <t xml:space="preserve">14/1/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carta Plotter</t>
   </si>
   <si>
@@ -392,6 +398,9 @@
     <t xml:space="preserve">Mine 0,5</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mine 0,7 mm</t>
   </si>
   <si>
@@ -462,6 +471,9 @@
   </si>
   <si>
     <t xml:space="preserve">Punti graffettatrice (x 1000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
   </si>
   <si>
     <t xml:space="preserve">Raccoglitori Dispense</t>
@@ -1118,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D100"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2504,8 +2516,12 @@
       <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="D35" s="24" t="s">
         <v>41</v>
       </c>
@@ -2525,7 +2541,7 @@
     </row>
     <row r="36" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -2548,15 +2564,15 @@
     </row>
     <row r="37" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F37" s="25" t="n">
         <v>50</v>
@@ -2571,12 +2587,12 @@
     </row>
     <row r="38" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>11</v>
@@ -2594,7 +2610,7 @@
     </row>
     <row r="39" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -2617,7 +2633,7 @@
     </row>
     <row r="40" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2640,7 +2656,7 @@
     </row>
     <row r="41" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2663,7 +2679,7 @@
     </row>
     <row r="42" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2686,7 +2702,7 @@
     </row>
     <row r="43" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2709,7 +2725,7 @@
     </row>
     <row r="44" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -2732,7 +2748,7 @@
     </row>
     <row r="45" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -2753,7 +2769,7 @@
     </row>
     <row r="46" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2774,7 +2790,7 @@
     </row>
     <row r="47" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2793,7 +2809,7 @@
     </row>
     <row r="48" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -2816,7 +2832,7 @@
     </row>
     <row r="49" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2839,7 +2855,7 @@
     </row>
     <row r="50" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2862,12 +2878,12 @@
     </row>
     <row r="51" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>14</v>
@@ -2885,7 +2901,7 @@
     </row>
     <row r="52" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2906,7 +2922,7 @@
     </row>
     <row r="53" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2927,12 +2943,12 @@
     </row>
     <row r="54" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>42</v>
@@ -2950,7 +2966,7 @@
     </row>
     <row r="55" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="24"/>
@@ -2973,7 +2989,7 @@
     </row>
     <row r="56" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2996,7 +3012,7 @@
     </row>
     <row r="57" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3004,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F57" s="25" t="n">
         <v>0</v>
@@ -3019,7 +3035,7 @@
     </row>
     <row r="58" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3042,7 +3058,7 @@
     </row>
     <row r="59" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -3065,7 +3081,7 @@
     </row>
     <row r="60" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -3088,7 +3104,7 @@
     </row>
     <row r="61" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3111,7 +3127,7 @@
     </row>
     <row r="62" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -3134,7 +3150,7 @@
     </row>
     <row r="63" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -3157,7 +3173,7 @@
     </row>
     <row r="64" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -3180,7 +3196,7 @@
     </row>
     <row r="65" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -3203,7 +3219,7 @@
     </row>
     <row r="66" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3226,7 +3242,7 @@
     </row>
     <row r="67" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -3249,7 +3265,7 @@
     </row>
     <row r="68" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3270,7 +3286,7 @@
     </row>
     <row r="69" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="12"/>
@@ -3291,7 +3307,7 @@
     </row>
     <row r="70" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -3312,7 +3328,7 @@
     </row>
     <row r="71" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -3333,7 +3349,7 @@
     </row>
     <row r="72" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -3356,12 +3372,12 @@
     </row>
     <row r="73" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
@@ -3379,7 +3395,7 @@
     </row>
     <row r="74" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3400,7 +3416,7 @@
     </row>
     <row r="75" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3421,7 +3437,7 @@
     </row>
     <row r="76" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3442,7 +3458,7 @@
     </row>
     <row r="77" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3463,7 +3479,7 @@
     </row>
     <row r="78" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3484,7 +3500,7 @@
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3505,12 +3521,12 @@
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
@@ -3528,12 +3544,12 @@
     </row>
     <row r="81" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
@@ -3551,12 +3567,12 @@
     </row>
     <row r="82" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
@@ -3574,12 +3590,12 @@
     </row>
     <row r="83" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
@@ -3597,12 +3613,12 @@
     </row>
     <row r="84" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
@@ -3620,7 +3636,7 @@
     </row>
     <row r="85" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -3641,7 +3657,7 @@
     </row>
     <row r="86" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3662,7 +3678,7 @@
     </row>
     <row r="87" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -3685,10 +3701,14 @@
     </row>
     <row r="88" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
+        <v>117</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="D88" s="24" t="s">
         <v>41</v>
       </c>
@@ -3708,7 +3728,7 @@
     </row>
     <row r="89" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -3731,7 +3751,7 @@
     </row>
     <row r="90" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3754,7 +3774,7 @@
     </row>
     <row r="91" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3777,7 +3797,7 @@
     </row>
     <row r="92" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3800,7 +3820,7 @@
     </row>
     <row r="93" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3823,7 +3843,7 @@
     </row>
     <row r="94" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3846,7 +3866,7 @@
     </row>
     <row r="95" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3869,7 +3889,7 @@
     </row>
     <row r="96" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3892,7 +3912,7 @@
     </row>
     <row r="97" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3915,7 +3935,7 @@
     </row>
     <row r="98" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -3938,7 +3958,7 @@
     </row>
     <row r="99" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -3961,7 +3981,7 @@
     </row>
     <row r="100" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -3985,12 +4005,12 @@
     </row>
     <row r="101" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
@@ -4009,12 +4029,12 @@
     </row>
     <row r="102" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
@@ -4033,12 +4053,12 @@
     </row>
     <row r="103" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
@@ -4057,12 +4077,12 @@
     </row>
     <row r="104" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
@@ -4081,12 +4101,12 @@
     </row>
     <row r="105" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
@@ -4105,7 +4125,7 @@
     </row>
     <row r="106" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4129,7 +4149,7 @@
     </row>
     <row r="107" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4153,12 +4173,12 @@
     </row>
     <row r="108" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
@@ -4176,7 +4196,7 @@
     </row>
     <row r="109" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -4199,10 +4219,14 @@
     </row>
     <row r="110" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
+        <v>142</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>143</v>
+      </c>
       <c r="D110" s="24" t="s">
         <v>41</v>
       </c>
@@ -4222,12 +4246,12 @@
     </row>
     <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
@@ -4245,12 +4269,12 @@
     </row>
     <row r="112" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
@@ -4268,7 +4292,7 @@
     </row>
     <row r="113" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
@@ -4289,7 +4313,7 @@
     </row>
     <row r="114" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
@@ -4310,12 +4334,12 @@
     </row>
     <row r="115" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>42</v>
@@ -4333,15 +4357,15 @@
     </row>
     <row r="116" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F116" s="25" t="n">
         <v>30</v>
@@ -4356,15 +4380,15 @@
     </row>
     <row r="117" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F117" s="14" t="n">
         <v>12</v>
@@ -4379,12 +4403,12 @@
     </row>
     <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>42</v>
@@ -4402,7 +4426,7 @@
     </row>
     <row r="119" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -4425,7 +4449,7 @@
     </row>
     <row r="120" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4448,7 +4472,7 @@
     </row>
     <row r="121" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4471,7 +4495,7 @@
     </row>
     <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4494,7 +4518,7 @@
     </row>
     <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4515,7 +4539,7 @@
     </row>
     <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4536,7 +4560,7 @@
     </row>
     <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4559,7 +4583,7 @@
     </row>
     <row r="126" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4582,7 +4606,7 @@
     </row>
     <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -4603,7 +4627,7 @@
     </row>
     <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -4611,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F128" s="25" t="n">
         <v>0</v>
@@ -4626,7 +4650,7 @@
     </row>
     <row r="129" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
@@ -4647,7 +4671,7 @@
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -4668,7 +4692,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4689,12 +4713,12 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
@@ -4712,7 +4736,7 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -4735,7 +4759,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4758,7 +4782,7 @@
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4779,7 +4803,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -4800,7 +4824,7 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4821,12 +4845,12 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
@@ -4844,7 +4868,7 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4865,12 +4889,12 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E140" s="24" t="s">
         <v>42</v>
@@ -4888,7 +4912,7 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -4909,7 +4933,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4930,7 +4954,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4951,7 +4975,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="12"/>
@@ -4972,7 +4996,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -4993,7 +5017,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5014,7 +5038,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5035,7 +5059,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="12"/>
@@ -5056,7 +5080,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5077,7 +5101,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5098,7 +5122,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5119,7 +5143,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5138,7 +5162,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5159,12 +5183,12 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>42</v>
@@ -5182,12 +5206,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
@@ -5205,12 +5229,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -209,15 +209,18 @@
     <t xml:space="preserve">Carta A3 100 gr  MONDI’</t>
   </si>
   <si>
+    <t xml:space="preserve">14/1/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carta fotocopie 100 gr A4</t>
   </si>
   <si>
     <t xml:space="preserve">Carta fotocopie fg  A4 80 GR</t>
   </si>
   <si>
-    <t xml:space="preserve">14/1/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -236,6 +239,12 @@
     <t xml:space="preserve">Carta Velina Rotoli</t>
   </si>
   <si>
+    <t xml:space="preserve">15/1/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartella progetti</t>
   </si>
   <si>
@@ -344,19 +353,22 @@
     <t xml:space="preserve">Guide magnetiche</t>
   </si>
   <si>
-    <t xml:space="preserve">Jersey azzurro acqua</t>
+    <t xml:space="preserve">jersey bianco (mancuso)</t>
   </si>
   <si>
     <t xml:space="preserve">Mancuso</t>
   </si>
   <si>
-    <t xml:space="preserve">jersey bianco (mancuso)</t>
-  </si>
-  <si>
     <t xml:space="preserve">jersey nero mancuso</t>
   </si>
   <si>
     <t xml:space="preserve">Jersey grigio (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey beige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jersey bianco </t>
   </si>
   <si>
     <t xml:space="preserve">Kit  Macchina cucire USATI</t>
@@ -1130,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C158" activeCellId="0" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,14 +1486,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="16" t="n">
         <f aca="false">F8*G8</f>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1524,14 +1536,14 @@
         <v>14</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G9" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="false">F9*G9</f>
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2470,8 +2482,12 @@
       <c r="A33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="D33" s="24" t="s">
         <v>41</v>
       </c>
@@ -2479,19 +2495,19 @@
         <v>51</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="20" t="n">
         <v>17</v>
       </c>
       <c r="H33" s="16" t="n">
         <f aca="false">F33*G33</f>
-        <v>170</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -2514,13 +2530,13 @@
     </row>
     <row r="35" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>41</v>
@@ -2541,7 +2557,7 @@
     </row>
     <row r="36" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -2564,15 +2580,15 @@
     </row>
     <row r="37" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="25" t="n">
         <v>50</v>
@@ -2587,30 +2603,34 @@
     </row>
     <row r="38" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="D38" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G38" s="20" t="n">
         <v>2.7</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="39" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -2633,7 +2653,7 @@
     </row>
     <row r="40" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2656,7 +2676,7 @@
     </row>
     <row r="41" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2679,7 +2699,7 @@
     </row>
     <row r="42" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2702,7 +2722,7 @@
     </row>
     <row r="43" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2725,7 +2745,7 @@
     </row>
     <row r="44" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -2748,7 +2768,7 @@
     </row>
     <row r="45" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -2769,7 +2789,7 @@
     </row>
     <row r="46" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2790,7 +2810,7 @@
     </row>
     <row r="47" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
@@ -2809,7 +2829,7 @@
     </row>
     <row r="48" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -2832,7 +2852,7 @@
     </row>
     <row r="49" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2855,7 +2875,7 @@
     </row>
     <row r="50" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2878,12 +2898,12 @@
     </row>
     <row r="51" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>14</v>
@@ -2901,7 +2921,7 @@
     </row>
     <row r="52" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2922,7 +2942,7 @@
     </row>
     <row r="53" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2943,12 +2963,12 @@
     </row>
     <row r="54" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>42</v>
@@ -2966,7 +2986,7 @@
     </row>
     <row r="55" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="24"/>
@@ -2989,7 +3009,7 @@
     </row>
     <row r="56" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3012,7 +3032,7 @@
     </row>
     <row r="57" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3020,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F57" s="25" t="n">
         <v>0</v>
@@ -3035,7 +3055,7 @@
     </row>
     <row r="58" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3058,7 +3078,7 @@
     </row>
     <row r="59" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -3081,7 +3101,7 @@
     </row>
     <row r="60" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -3104,7 +3124,7 @@
     </row>
     <row r="61" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3127,7 +3147,7 @@
     </row>
     <row r="62" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -3150,7 +3170,7 @@
     </row>
     <row r="63" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -3173,7 +3193,7 @@
     </row>
     <row r="64" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -3196,7 +3216,7 @@
     </row>
     <row r="65" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -3219,7 +3239,7 @@
     </row>
     <row r="66" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3242,7 +3262,7 @@
     </row>
     <row r="67" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -3265,7 +3285,7 @@
     </row>
     <row r="68" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -3286,7 +3306,7 @@
     </row>
     <row r="69" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="12"/>
@@ -3307,7 +3327,7 @@
     </row>
     <row r="70" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -3328,7 +3348,7 @@
     </row>
     <row r="71" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -3349,7 +3369,7 @@
     </row>
     <row r="72" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
@@ -3372,51 +3392,53 @@
     </row>
     <row r="73" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G73" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="D74" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="E74" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G74" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3425,19 +3447,19 @@
         <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G75" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>21</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="76" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3446,40 +3468,40 @@
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>43</v>
+        <v>49.3</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>210.7</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="77" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>10</v>
+        <v>49.3</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>335</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="78" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3488,19 +3510,19 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>971.5</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3509,147 +3531,147 @@
         <v>42</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>73.1</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
-      <c r="D80" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="D80" s="24"/>
       <c r="E80" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>204</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="81" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>7.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G83" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="84" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G84" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>25</v>
-      </c>
-      <c r="G85" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="20" t="n">
+        <v>5</v>
+      </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
         <v>0</v>
@@ -3657,7 +3679,7 @@
     </row>
     <row r="86" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3668,7 +3690,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3678,37 +3700,31 @@
     </row>
     <row r="87" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="G87" s="20" t="n">
-        <v>0.8</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G87" s="20"/>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="24" t="s">
         <v>41</v>
       </c>
@@ -3716,22 +3732,26 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="89" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="D89" s="24" t="s">
         <v>41</v>
       </c>
@@ -3739,19 +3759,19 @@
         <v>42</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="90" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3762,19 +3782,19 @@
         <v>42</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="91" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3785,19 +3805,19 @@
         <v>42</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G91" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3805,22 +3825,22 @@
         <v>41</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3828,22 +3848,22 @@
         <v>41</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="94" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3857,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
@@ -3866,7 +3886,7 @@
     </row>
     <row r="95" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3889,7 +3909,7 @@
     </row>
     <row r="96" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3900,19 +3920,19 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G96" s="34" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H96" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="16" t="n">
         <f aca="false">F96*G96</f>
-        <v>4.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3922,20 +3942,20 @@
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="37" t="n">
+      <c r="F97" s="25" t="n">
+        <v>24</v>
+      </c>
+      <c r="G97" s="34" t="n">
         <v>0.19</v>
       </c>
-      <c r="H97" s="38" t="n">
+      <c r="H97" s="35" t="n">
         <f aca="false">F97*G97</f>
-        <v>0</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="98" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -3945,20 +3965,20 @@
       <c r="E98" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="25" t="n">
+      <c r="F98" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="G98" s="39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H98" s="40" t="n">
+      <c r="G98" s="37" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H98" s="38" t="n">
         <f aca="false">F98*G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -3969,19 +3989,19 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G99" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H99" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H99" s="40" t="n">
         <f aca="false">F99*G99</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -3992,164 +4012,163 @@
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H100" s="35" t="n">
+        <f aca="false">F100*G100</f>
         <v>1</v>
       </c>
-      <c r="H100" s="38" t="n">
-        <f aca="false">F100*G100</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="42"/>
     </row>
     <row r="101" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="G101" s="41" t="n">
-        <v>3.45</v>
+        <v>1</v>
       </c>
       <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
-        <v>313.95</v>
-      </c>
-      <c r="I101" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="42"/>
     </row>
     <row r="102" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G102" s="41" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>185.6</v>
+        <v>313.95</v>
       </c>
       <c r="I102" s="43"/>
     </row>
     <row r="103" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G103" s="41" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>278.4</v>
+        <v>185.6</v>
       </c>
       <c r="I103" s="43"/>
     </row>
     <row r="104" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G104" s="41" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>0</v>
+        <v>278.4</v>
       </c>
       <c r="I104" s="43"/>
     </row>
     <row r="105" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G105" s="41" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H105" s="38" t="n">
         <f aca="false">F105*G105</f>
-        <v>157.5</v>
+        <v>0</v>
       </c>
       <c r="I105" s="43"/>
     </row>
     <row r="106" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G106" s="41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>48</v>
+        <v>157.5</v>
       </c>
       <c r="I106" s="43"/>
     </row>
     <row r="107" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4160,296 +4179,297 @@
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G107" s="41" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H107" s="38" t="n">
         <f aca="false">F107*G107</f>
-        <v>19.2</v>
+        <v>48</v>
       </c>
       <c r="I107" s="43"/>
     </row>
     <row r="108" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G108" s="41" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
-        <v>35.1</v>
-      </c>
+        <v>19.2</v>
+      </c>
+      <c r="I108" s="43"/>
     </row>
     <row r="109" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="G109" s="41" t="n">
-        <v>3.1</v>
+        <v>11.7</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>573.5</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="110" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="24" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="G110" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H110" s="40" t="n">
+        <v>185</v>
+      </c>
+      <c r="G110" s="41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
-        <v>16.6</v>
+        <v>573.5</v>
       </c>
     </row>
     <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
+        <v>146</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>147</v>
+      </c>
       <c r="D111" s="24" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H111" s="16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H111" s="40" t="n">
         <f aca="false">F111*G111</f>
-        <v>305.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="112" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>117.5</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="113" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="E113" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="G113" s="20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>30</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="114" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
-      <c r="D115" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="D115" s="24"/>
       <c r="E115" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>41.34</v>
+        <v>2</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>2.7</v>
+        <v>41.34</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="A117" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F117" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G117" s="16" t="n">
-        <v>6</v>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="25" t="n">
+        <v>30</v>
+      </c>
+      <c r="G117" s="20" t="n">
+        <v>2.7</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24" t="s">
+      <c r="A118" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E118" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="25" t="n">
-        <v>730</v>
-      </c>
-      <c r="G118" s="20" t="n">
-        <v>0.66</v>
+      <c r="B118" s="19"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F118" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G118" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>481.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>12</v>
+        <v>730</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>34.2</v>
+        <v>481.8</v>
       </c>
     </row>
     <row r="120" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4460,19 +4480,19 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>5.16</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="121" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4483,19 +4503,19 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>34.8</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4506,84 +4526,84 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>5.16</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="45"/>
+      <c r="D123" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E123" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>0</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="D124" s="45"/>
       <c r="E124" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D125" s="24"/>
       <c r="E125" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>2.69</v>
+        <v>1</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4594,84 +4614,86 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>247.5</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="D127" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E127" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>8.61</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
-      <c r="D128" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D128" s="24"/>
       <c r="E128" s="24" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>7</v>
+        <v>2.87</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="129" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="D129" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E129" s="24" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -4680,86 +4702,84 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="20" t="n">
         <v>1.96</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G131" s="30" t="n">
-        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>13.79</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24" t="s">
-        <v>151</v>
-      </c>
+      <c r="A132" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="25" t="n">
-        <v>195</v>
-      </c>
-      <c r="G132" s="20" t="n">
+      <c r="F132" s="29" t="n">
         <v>7</v>
+      </c>
+      <c r="G132" s="30" t="n">
+        <v>1.97</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>1365</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>672.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4770,61 +4790,63 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>331.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="A135" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" s="30" t="n">
-        <v>1.43</v>
+      <c r="F135" s="25" t="n">
+        <v>150</v>
+      </c>
+      <c r="G135" s="20" t="n">
+        <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>143</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="A136" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G136" s="20" t="n">
-        <v>8.5</v>
+      <c r="F136" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" s="30" t="n">
+        <v>1.43</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4833,128 +4855,128 @@
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
-      <c r="D138" s="24" t="s">
-        <v>178</v>
-      </c>
+      <c r="D138" s="24"/>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24" t="s">
+        <v>182</v>
+      </c>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="G139" s="30" t="n">
-        <v>2.97</v>
+      <c r="F139" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G139" s="20" t="n">
+        <v>47</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>65.34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140" s="25" t="n">
-        <v>140</v>
-      </c>
-      <c r="G140" s="20" t="n">
-        <v>1.07</v>
+      <c r="A140" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G140" s="30" t="n">
+        <v>2.97</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>149.8</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="G141" s="30" t="n">
-        <v>5</v>
+      <c r="A141" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="25" t="n">
+        <v>140</v>
+      </c>
+      <c r="G141" s="20" t="n">
+        <v>1.07</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>125</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F142" s="29" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G142" s="30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4963,40 +4985,40 @@
         <v>42</v>
       </c>
       <c r="F143" s="29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G143" s="30" t="n">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B144" s="19"/>
+        <v>188</v>
+      </c>
+      <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F144" s="29" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G144" s="30" t="n">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>114.4</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5005,19 +5027,19 @@
         <v>42</v>
       </c>
       <c r="F145" s="29" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G145" s="30" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>269.5</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5026,61 +5048,61 @@
         <v>42</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G146" s="30" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>22.8</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B147" s="12"/>
+        <v>191</v>
+      </c>
+      <c r="B147" s="19"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="29" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="G147" s="30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>9.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B148" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F148" s="29" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G148" s="30" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>45.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5089,19 +5111,19 @@
         <v>42</v>
       </c>
       <c r="F149" s="29" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G149" s="30" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>54.9</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5110,19 +5132,19 @@
         <v>42</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G150" s="30" t="n">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>125.4</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5131,133 +5153,154 @@
         <v>42</v>
       </c>
       <c r="F151" s="29" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G151" s="30" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>136</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="E152" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F152" s="29" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G152" s="30" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>68</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B153" s="12"/>
+        <v>197</v>
+      </c>
+      <c r="B153" s="19"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E153" s="12"/>
       <c r="F153" s="29" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G153" s="30" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B154" s="19"/>
+        <v>198</v>
+      </c>
+      <c r="B154" s="12"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12" t="s">
-        <v>196</v>
-      </c>
+      <c r="D154" s="12"/>
       <c r="E154" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="29" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G154" s="30" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>357</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="29" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G155" s="30" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F156" s="29" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G156" s="30" t="n">
         <v>10</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G157" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H157" s="16" t="n">
+        <f aca="false">F157*G157</f>
         <v>80</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H157" s="47" t="n">
-        <f aca="false">SUM(H3:H156)</f>
-        <v>16706.27</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H158" s="47" t="n">
+        <f aca="false">SUM(H3:H157)</f>
+        <v>17263.51</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -5283,17 +5326,17 @@
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F105">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
+  <conditionalFormatting sqref="F109">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>30</formula>
     </cfRule>
@@ -5313,17 +5356,17 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98">
+  <conditionalFormatting sqref="F98:F99">
     <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F103">
+  <conditionalFormatting sqref="F102:F104">
     <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F115">
+  <conditionalFormatting sqref="F113:F116">
     <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="210">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -500,9 +500,21 @@
     <t xml:space="preserve">Rocche fili nero</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucirini</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rocche filo bianco</t>
   </si>
   <si>
+    <t xml:space="preserve">14/1/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotoli Cartone plotter rotoli da 10,6 kg</t>
   </si>
   <si>
@@ -555,6 +567,12 @@
   </si>
   <si>
     <t xml:space="preserve">spilli 250gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/1/209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">scatole</t>
@@ -1142,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C158" activeCellId="0" sqref="C158"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2798,14 +2816,14 @@
         <v>42</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G46" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>124.95</v>
+        <v>123.55</v>
       </c>
     </row>
     <row r="47" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4083,14 +4101,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G103" s="41" t="n">
         <v>2.9</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>185.6</v>
+        <v>182.7</v>
       </c>
       <c r="I103" s="43"/>
     </row>
@@ -4250,14 +4268,14 @@
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G110" s="41" t="n">
         <v>3.1</v>
       </c>
       <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
-        <v>573.5</v>
+        <v>561.1</v>
       </c>
     </row>
     <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4337,47 +4355,59 @@
       <c r="A114" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="44"/>
+      <c r="B114" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>153</v>
+      </c>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+        <v>154</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>153</v>
+      </c>
       <c r="E115" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -4400,12 +4430,12 @@
     </row>
     <row r="117" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>63</v>
@@ -4423,15 +4453,15 @@
     </row>
     <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F118" s="14" t="n">
         <v>12</v>
@@ -4446,30 +4476,30 @@
     </row>
     <row r="119" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>481.8</v>
+        <v>479.16</v>
       </c>
     </row>
     <row r="120" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4492,7 +4522,7 @@
     </row>
     <row r="121" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4515,7 +4545,7 @@
     </row>
     <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4538,7 +4568,7 @@
     </row>
     <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4561,7 +4591,7 @@
     </row>
     <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4582,7 +4612,7 @@
     </row>
     <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4603,7 +4633,7 @@
     </row>
     <row r="126" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4626,7 +4656,7 @@
     </row>
     <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -4649,7 +4679,7 @@
     </row>
     <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -4670,30 +4700,34 @@
     </row>
     <row r="129" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
+        <v>174</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>176</v>
+      </c>
       <c r="D129" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G129" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -4702,19 +4736,19 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -4735,7 +4769,7 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4756,12 +4790,12 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
@@ -4779,7 +4813,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4802,7 +4836,7 @@
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -4825,7 +4859,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4846,7 +4880,7 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4867,7 +4901,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -4888,12 +4922,12 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="23" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>14</v>
@@ -4911,7 +4945,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -4932,12 +4966,12 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="23" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>42</v>
@@ -4955,7 +4989,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4976,7 +5010,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -4997,7 +5031,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5018,7 +5052,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5039,7 +5073,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5060,7 +5094,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="12"/>
@@ -5081,7 +5115,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5102,7 +5136,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5123,7 +5157,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5144,7 +5178,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5165,7 +5199,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5186,7 +5220,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5205,7 +5239,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5226,12 +5260,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
@@ -5249,12 +5283,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
@@ -5272,12 +5306,12 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="28" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>42</v>
@@ -5296,7 +5330,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17263.51</v>
+        <v>17334.17</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1073,13 +1073,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1160,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1160,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4268,14 +4268,14 @@
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G110" s="41" t="n">
         <v>3.1</v>
       </c>
       <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
-        <v>561.1</v>
+        <v>554.9</v>
       </c>
     </row>
     <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5330,7 +5330,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17334.17</v>
+        <v>17327.97</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1073,13 +1074,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1158,13 +1159,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1048576"/>
+  <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C108" activeCellId="0" sqref="C108"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24"/>
@@ -2669,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
         <v>68</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
         <v>69</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
         <v>70</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="43" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
         <v>71</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
         <v>72</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
         <v>73</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>200.6</v>
       </c>
     </row>
-    <row r="46" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
         <v>74</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>123.55</v>
       </c>
     </row>
-    <row r="47" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>75</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
         <v>76</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
         <v>77</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="50" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
         <v>78</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="51" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
         <v>79</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
         <v>81</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
         <v>82</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
         <v>83</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
         <v>85</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
         <v>87</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
         <v>88</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
         <v>89</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
         <v>90</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
         <v>91</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
         <v>92</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="63" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
         <v>93</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
         <v>94</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="65" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
         <v>95</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>43.56</v>
       </c>
     </row>
-    <row r="66" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
         <v>96</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>19.6</v>
       </c>
     </row>
-    <row r="67" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
         <v>97</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="68" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
         <v>98</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="69" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
         <v>99</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>151.2</v>
       </c>
     </row>
-    <row r="70" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
         <v>100</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
         <v>101</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
         <v>102</v>
       </c>
@@ -3398,17 +3399,17 @@
         <v>42</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
         <v>103</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
         <v>105</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
         <v>106</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>210.7</v>
       </c>
     </row>
-    <row r="76" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
         <v>107</v>
       </c>
@@ -3486,17 +3487,17 @@
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>49.3</v>
+        <v>44</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>241.57</v>
-      </c>
-    </row>
-    <row r="77" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>215.6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
         <v>108</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>241.57</v>
       </c>
     </row>
-    <row r="78" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
         <v>109</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
         <v>110</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>971.5</v>
       </c>
     </row>
-    <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
         <v>111</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>73.1</v>
       </c>
     </row>
-    <row r="81" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
         <v>112</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
         <v>114</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
         <v>115</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="84" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
         <v>116</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
         <v>117</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
         <v>118</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
         <v>119</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
         <v>120</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="89" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
         <v>121</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="90" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
         <v>123</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="91" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
         <v>124</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
         <v>125</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="93" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
         <v>126</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="94" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
         <v>127</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
         <v>128</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
         <v>129</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>4.56</v>
       </c>
     </row>
-    <row r="98" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
         <v>131</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
         <v>132</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
         <v>133</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
         <v>134</v>
       </c>
@@ -4064,7 +4065,7 @@
       </c>
       <c r="I101" s="42"/>
     </row>
-    <row r="102" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
         <v>135</v>
       </c>
@@ -4077,18 +4078,18 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G102" s="41" t="n">
         <v>3.45</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>313.95</v>
+        <v>310.5</v>
       </c>
       <c r="I102" s="43"/>
     </row>
-    <row r="103" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
         <v>137</v>
       </c>
@@ -4112,7 +4113,7 @@
       </c>
       <c r="I103" s="43"/>
     </row>
-    <row r="104" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
         <v>138</v>
       </c>
@@ -4136,7 +4137,7 @@
       </c>
       <c r="I104" s="43"/>
     </row>
-    <row r="105" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
         <v>139</v>
       </c>
@@ -4160,7 +4161,7 @@
       </c>
       <c r="I105" s="43"/>
     </row>
-    <row r="106" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
         <v>140</v>
       </c>
@@ -4184,7 +4185,7 @@
       </c>
       <c r="I106" s="43"/>
     </row>
-    <row r="107" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
         <v>141</v>
       </c>
@@ -4208,7 +4209,7 @@
       </c>
       <c r="I107" s="43"/>
     </row>
-    <row r="108" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4233,7 @@
       </c>
       <c r="I108" s="43"/>
     </row>
-    <row r="109" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
         <v>143</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="110" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
         <v>145</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>554.9</v>
       </c>
     </row>
-    <row r="111" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
         <v>146</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>16.6</v>
       </c>
     </row>
-    <row r="112" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
         <v>148</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>305.5</v>
       </c>
     </row>
-    <row r="113" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
         <v>149</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="114" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
         <v>151</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
         <v>154</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
         <v>157</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
         <v>158</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="s">
         <v>160</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
         <v>163</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>479.16</v>
       </c>
     </row>
-    <row r="120" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
         <v>165</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>34.2</v>
       </c>
     </row>
-    <row r="121" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
         <v>166</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
         <v>167</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>34.8</v>
       </c>
     </row>
-    <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
         <v>168</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
         <v>169</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
         <v>170</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
         <v>171</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
         <v>172</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
         <v>173</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="129" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
         <v>174</v>
       </c>
@@ -4847,14 +4848,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>331.5</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5330,7 +5331,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17327.97</v>
+        <v>17516.55</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5407,7 +5408,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="8" scale="70" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="8" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1161,8 +1162,8 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2430,7 +2431,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
         <v>49</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="31" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
         <v>50</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
         <v>52</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>274.4</v>
       </c>
     </row>
-    <row r="33" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
         <v>57</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="35" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="36" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
         <v>64</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="39" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
         <v>67</v>
       </c>
@@ -3399,14 +3400,14 @@
         <v>42</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5331,7 +5332,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17516.55</v>
+        <v>17513.55</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -15,6 +15,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1162,8 +1164,8 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2362,7 +2364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
         <v>47</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
         <v>48</v>
       </c>
@@ -3530,14 +3532,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>335</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4079,14 +4081,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G102" s="41" t="n">
         <v>3.45</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>310.5</v>
+        <v>303.6</v>
       </c>
       <c r="I102" s="43"/>
     </row>
@@ -4103,14 +4105,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G103" s="41" t="n">
         <v>2.9</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>182.7</v>
+        <v>174</v>
       </c>
       <c r="I103" s="43"/>
     </row>
@@ -5332,7 +5334,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17513.55</v>
+        <v>17732.45</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -17,6 +17,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1164,8 +1167,8 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2331,14 +2334,14 @@
         <v>44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>0.98</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3490,14 +3493,14 @@
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>215.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3532,14 +3535,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>569.5</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4345,14 +4348,14 @@
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>117.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5334,7 +5337,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17732.45</v>
+        <v>17288.35</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -20,6 +20,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1167,23 +1169,23 @@
   </sheetPr>
   <dimension ref="A1:AI65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="23.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1511,14 +1513,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="16" t="n">
         <f aca="false">F8*G8</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1561,14 +1563,14 @@
         <v>14</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="false">F9*G9</f>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3405,14 +3407,14 @@
         <v>42</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3535,14 +3537,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>368.5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5131,14 +5133,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G148" s="30" t="n">
         <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5215,14 +5217,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" s="30" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>132.6</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5324,20 +5326,20 @@
         <v>42</v>
       </c>
       <c r="F157" s="29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G157" s="30" t="n">
         <v>10</v>
       </c>
       <c r="H157" s="16" t="n">
         <f aca="false">F157*G157</f>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17288.35</v>
+        <v>17143.95</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,17 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="214">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -212,6 +203,9 @@
     <t xml:space="preserve">Carta 70x 100 fedrigoni</t>
   </si>
   <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fedrigoni</t>
   </si>
   <si>
@@ -221,16 +215,13 @@
     <t xml:space="preserve">14/1/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carta fotocopie 100 gr A4</t>
   </si>
   <si>
     <t xml:space="preserve">Carta fotocopie fg  A4 80 GR</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">35</t>
   </si>
   <si>
     <t xml:space="preserve">Carta Plotter</t>
@@ -257,15 +248,15 @@
     <t xml:space="preserve">Cartella progetti</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartellette  leggere</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cartellette  rigide con elastico</t>
   </si>
   <si>
     <t xml:space="preserve">Cartellette leggere con alette</t>
   </si>
   <si>
+    <t xml:space="preserve">15/2/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartuccia toner per sig Tiziana</t>
   </si>
   <si>
@@ -317,6 +308,9 @@
     <t xml:space="preserve">Elastici</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evidenziatori</t>
   </si>
   <si>
@@ -494,7 +488,7 @@
     <t xml:space="preserve">Punti graffettatrice (x 1000)</t>
   </si>
   <si>
-    <t xml:space="preserve">10000</t>
+    <t xml:space="preserve">20000</t>
   </si>
   <si>
     <t xml:space="preserve">Raccoglitori Dispense</t>
@@ -521,9 +515,6 @@
     <t xml:space="preserve">14/1/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rotoli Cartone plotter rotoli da 10,6 kg</t>
   </si>
   <si>
@@ -551,6 +542,9 @@
     <t xml:space="preserve">Scotch da Pacchi Avana</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scotch in Carta</t>
   </si>
   <si>
@@ -560,6 +554,9 @@
     <t xml:space="preserve">Scotch rotolo grande</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Separatori alfabetici</t>
   </si>
   <si>
@@ -581,13 +578,19 @@
     <t xml:space="preserve">16/1/209</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">scatole</t>
   </si>
   <si>
     <t xml:space="preserve">Squadrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/2/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigulio</t>
   </si>
   <si>
     <t xml:space="preserve">Strisce forate</t>
@@ -1082,13 +1085,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1167,22 +1170,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI65536"/>
+  <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="32.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.47"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2487,9 +2490,11 @@
         <v>52</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="D32" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>51</v>
@@ -2507,13 +2512,13 @@
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>41</v>
@@ -2560,7 +2565,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>59</v>
@@ -2691,22 +2696,26 @@
         <v>42</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="D41" s="24" t="s">
         <v>41</v>
       </c>
@@ -2714,19 +2723,19 @@
         <v>42</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
-        <v>45</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2737,19 +2746,19 @@
         <v>42</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G42" s="20" t="n">
-        <v>0.25</v>
+        <v>177</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2763,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="20" t="n">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
@@ -2772,30 +2781,28 @@
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D44" s="24"/>
       <c r="E44" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G44" s="20" t="n">
-        <v>110</v>
+        <v>1.18</v>
       </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -2804,59 +2811,61 @@
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>200.6</v>
+        <v>123.55</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="33" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>353</v>
-      </c>
-      <c r="G46" s="20" t="n">
-        <v>0.35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" s="20"/>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>123.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="D47" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E47" s="33" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -2867,19 +2876,19 @@
         <v>42</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>6</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2890,65 +2899,63 @@
         <v>42</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>8.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F50" s="25" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G50" s="20" t="n">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>0.72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="33" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2957,66 +2964,68 @@
         <v>14</v>
       </c>
       <c r="F52" s="25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24" t="s">
-        <v>14</v>
+      <c r="D53" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F53" s="25" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="24"/>
+      <c r="A54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F54" s="25" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="24"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="24" t="s">
         <v>41</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>0.22</v>
+        <v>2.13</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
@@ -3035,31 +3044,35 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="D56" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>2.13</v>
+        <v>5.95</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
-        <v>0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3067,22 +3080,22 @@
         <v>41</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57" s="20" t="n">
-        <v>5.95</v>
+        <v>0.7</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3093,19 +3106,19 @@
         <v>42</v>
       </c>
       <c r="F58" s="25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -3116,19 +3129,19 @@
         <v>42</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -3139,19 +3152,19 @@
         <v>42</v>
       </c>
       <c r="F60" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3165,16 +3178,16 @@
         <v>1</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -3188,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="G62" s="20" t="n">
-        <v>5.35</v>
+        <v>2</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>5.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -3211,62 +3224,62 @@
         <v>1</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F64" s="25" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>1.5</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F65" s="25" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G65" s="20" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>43.56</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3274,198 +3287,196 @@
         <v>41</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="20" t="n">
-        <v>4.9</v>
+        <v>0.44</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>19.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="A67" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G67" s="20" t="n">
-        <v>0.44</v>
+        <v>14</v>
+      </c>
+      <c r="F67" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G67" s="30" t="n">
+        <v>4.85</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>2.2</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B68" s="19"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="29" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G68" s="30" t="n">
-        <v>4.85</v>
+        <v>5.04</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>53.35</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="A69" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="G69" s="30" t="n">
-        <v>5.04</v>
+      <c r="F69" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" s="20" t="n">
+        <v>8.3</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>151.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
-      <c r="E70" s="12" t="s">
-        <v>14</v>
+      <c r="E70" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="20" t="n">
-        <v>8.3</v>
+        <v>0.75</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="D71" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E71" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G71" s="20" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G73" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
-      <c r="D74" s="24" t="s">
-        <v>104</v>
-      </c>
+      <c r="D74" s="24"/>
       <c r="E74" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G74" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>21</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3474,19 +3485,19 @@
         <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>210.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3495,40 +3506,40 @@
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>10</v>
+        <v>49.3</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>49</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>49.3</v>
+        <v>9</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>241.57</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3537,19 +3548,19 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>268</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3558,147 +3569,147 @@
         <v>42</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>971.5</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="D80" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="E80" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>73.1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G83" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G84" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" s="20" t="n">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" s="20"/>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
         <v>0</v>
@@ -3706,7 +3717,7 @@
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3717,7 +3728,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3727,31 +3738,37 @@
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>70</v>
-      </c>
-      <c r="G87" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="G87" s="20" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
+        <v>122</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="D88" s="24" t="s">
         <v>41</v>
       </c>
@@ -3759,26 +3776,22 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="24" t="s">
         <v>41</v>
       </c>
@@ -3786,19 +3799,19 @@
         <v>42</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3809,19 +3822,19 @@
         <v>42</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3832,19 +3845,19 @@
         <v>42</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G91" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3852,22 +3865,22 @@
         <v>41</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3875,22 +3888,22 @@
         <v>41</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3904,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
@@ -3913,7 +3926,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3936,7 +3949,7 @@
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3947,19 +3960,19 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G96" s="34" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H96" s="35" t="n">
         <f aca="false">F96*G96</f>
-        <v>0</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3969,20 +3982,20 @@
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G97" s="34" t="n">
+      <c r="F97" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="37" t="n">
         <v>0.19</v>
       </c>
-      <c r="H97" s="35" t="n">
+      <c r="H97" s="38" t="n">
         <f aca="false">F97*G97</f>
-        <v>4.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -3992,20 +4005,20 @@
       <c r="E98" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="36" t="n">
+      <c r="F98" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G98" s="37" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H98" s="38" t="n">
+      <c r="G98" s="39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H98" s="40" t="n">
         <f aca="false">F98*G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4016,19 +4029,19 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H99" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H99" s="35" t="n">
         <f aca="false">F99*G99</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -4039,163 +4052,164 @@
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G100" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H100" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" s="38" t="n">
         <f aca="false">F100*G100</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G101" s="41" t="n">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="42"/>
+        <v>303.6</v>
+      </c>
+      <c r="I101" s="43"/>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G102" s="41" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
-        <v>303.6</v>
+        <v>174</v>
       </c>
       <c r="I102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G103" s="41" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>174</v>
+        <v>278.4</v>
       </c>
       <c r="I103" s="43"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G104" s="41" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>278.4</v>
+        <v>0</v>
       </c>
       <c r="I104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G105" s="41" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H105" s="38" t="n">
         <f aca="false">F105*G105</f>
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="I105" s="43"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G106" s="41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>157.5</v>
+        <v>48</v>
       </c>
       <c r="I106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4206,309 +4220,312 @@
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G107" s="41" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H107" s="38" t="n">
         <f aca="false">F107*G107</f>
-        <v>48</v>
+        <v>19.2</v>
       </c>
       <c r="I107" s="43"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G108" s="41" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
-        <v>19.2</v>
-      </c>
-      <c r="I108" s="43"/>
+        <v>35.1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G109" s="41" t="n">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>35.1</v>
+        <v>554.9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="D110" s="24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>179</v>
-      </c>
-      <c r="G110" s="41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H110" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G110" s="20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H110" s="40" t="n">
         <f aca="false">F110*G110</f>
-        <v>554.9</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
       <c r="D111" s="24" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H111" s="40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>16.6</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>305.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G113" s="20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D114" s="44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>41.34</v>
+        <v>2.7</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G117" s="20" t="n">
-        <v>2.7</v>
+      <c r="A117" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F118" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G118" s="16" t="n">
-        <v>6</v>
+      <c r="A118" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="25" t="n">
+        <v>700</v>
+      </c>
+      <c r="G118" s="20" t="n">
+        <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>72</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D119" s="24" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>479.16</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4519,19 +4536,19 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>34.2</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4542,22 +4559,26 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>5.16</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="D122" s="24" t="s">
         <v>41</v>
       </c>
@@ -4565,84 +4586,84 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>34.8</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D123" s="45"/>
       <c r="E123" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="45"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E125" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>9</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4653,90 +4674,94 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>269</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D127" s="24"/>
       <c r="E127" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>247.5</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+        <v>176</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E128" s="24" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>8.61</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>42</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -4745,84 +4770,86 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="20" t="n">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" s="30" t="n">
+        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>1.96</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="A132" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="29" t="n">
+      <c r="F132" s="25" t="n">
+        <v>195</v>
+      </c>
+      <c r="G132" s="20" t="n">
         <v>7</v>
-      </c>
-      <c r="G132" s="30" t="n">
-        <v>1.97</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>13.79</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>1365</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4836,60 +4863,58 @@
         <v>250</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>672.5</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A135" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="25" t="n">
-        <v>250</v>
-      </c>
-      <c r="G135" s="20" t="n">
-        <v>2.21</v>
+      <c r="F135" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" s="30" t="n">
+        <v>1.43</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>552.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="A136" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G136" s="30" t="n">
-        <v>1.43</v>
+      <c r="F136" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" s="20" t="n">
+        <v>8.5</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4898,128 +4923,128 @@
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="D138" s="24" t="s">
+        <v>192</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24" t="s">
-        <v>188</v>
-      </c>
+      <c r="A139" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G139" s="20" t="n">
-        <v>47</v>
+      <c r="F139" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" s="30" t="n">
+        <v>2.97</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>564</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="G140" s="30" t="n">
-        <v>2.97</v>
+      <c r="A140" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="25" t="n">
+        <v>140</v>
+      </c>
+      <c r="G140" s="20" t="n">
+        <v>1.07</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>65.34</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="25" t="n">
-        <v>140</v>
-      </c>
-      <c r="G141" s="20" t="n">
-        <v>1.07</v>
+      <c r="A141" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="G141" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>149.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F142" s="29" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G142" s="30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5028,40 +5053,40 @@
         <v>42</v>
       </c>
       <c r="F143" s="29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G143" s="30" t="n">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B144" s="12"/>
+        <v>199</v>
+      </c>
+      <c r="B144" s="19"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F144" s="29" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G144" s="30" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>10.88</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5070,19 +5095,19 @@
         <v>42</v>
       </c>
       <c r="F145" s="29" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G145" s="30" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>114.4</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5091,61 +5116,61 @@
         <v>42</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G146" s="30" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>269.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="29" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G147" s="30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>22.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B148" s="12"/>
+        <v>203</v>
+      </c>
+      <c r="B148" s="19"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F148" s="29" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G148" s="30" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>9</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5154,19 +5179,19 @@
         <v>42</v>
       </c>
       <c r="F149" s="29" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G149" s="30" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>45.1</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5175,19 +5200,19 @@
         <v>42</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G150" s="30" t="n">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>54.9</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5196,190 +5221,170 @@
         <v>42</v>
       </c>
       <c r="F151" s="29" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G151" s="30" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>125.4</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="29" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G152" s="30" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>129.2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B153" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F153" s="29" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G153" s="30" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B154" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="B154" s="19"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
+      <c r="D154" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="E154" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="29" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G154" s="30" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>138</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F155" s="29" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G155" s="30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F156" s="29" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G156" s="30" t="n">
         <v>10</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G157" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H157" s="16" t="n">
-        <f aca="false">F157*G157</f>
         <v>70</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="47" t="n">
-        <f aca="false">SUM(H3:H157)</f>
-        <v>17143.95</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H157" s="47" t="n">
+        <f aca="false">SUM(H3:H156)</f>
+        <v>20045.76</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F55">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" priority="5" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F99">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="F104">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
+  <conditionalFormatting sqref="F108">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>30</formula>
     </cfRule>
@@ -5389,27 +5394,27 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F42">
+  <conditionalFormatting sqref="F40:F41">
     <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:F47">
+  <conditionalFormatting sqref="F45:F46">
     <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
+  <conditionalFormatting sqref="F97:F98">
     <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F104">
+  <conditionalFormatting sqref="F101:F103">
     <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:F116">
+  <conditionalFormatting sqref="F112:F115">
     <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="217">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -164,25 +164,7 @@
     <t xml:space="preserve">Buste Plastica forate f.toA3 buste  da 10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">locco lavagna</t>
-    </r>
+    <t xml:space="preserve">Blocco lavagna</t>
   </si>
   <si>
     <t xml:space="preserve">Canetè  25 mm</t>
@@ -350,6 +332,9 @@
     <t xml:space="preserve">Gommina Pangomma</t>
   </si>
   <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grucce in legno</t>
   </si>
   <si>
@@ -561,6 +546,12 @@
   </si>
   <si>
     <t xml:space="preserve">Separatori numerici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separatori Neuri</t>
   </si>
   <si>
     <t xml:space="preserve">Silesia bianca</t>
@@ -698,7 +689,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -764,21 +755,6 @@
     <font>
       <sz val="14"/>
       <name val="Droid Sans"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF669933"/>
-      <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -890,7 +866,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -999,10 +975,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1071,15 +1043,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,7 +1083,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF669933"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1172,20 +1140,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="32.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="31.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.24"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2339,14 +2307,14 @@
         <v>44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>0.98</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2373,7 +2341,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="24"/>
@@ -2385,14 +2353,14 @@
         <v>42</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="20" t="n">
         <v>3.5</v>
       </c>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>14</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2442,7 +2410,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="12"/>
@@ -2451,10 +2419,10 @@
       <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="29" t="n">
+      <c r="F30" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="G30" s="30" t="n">
+      <c r="G30" s="29" t="n">
         <v>1.14</v>
       </c>
       <c r="H30" s="16" t="n">
@@ -2588,15 +2556,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="14" t="n">
@@ -2661,15 +2629,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F39" s="14" t="n">
@@ -2692,18 +2660,18 @@
       <c r="D40" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G40" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2719,7 +2687,7 @@
       <c r="D41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="25" t="n">
@@ -2742,7 +2710,7 @@
       <c r="D42" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F42" s="25" t="n">
@@ -2765,7 +2733,7 @@
       <c r="D43" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="25" t="n">
@@ -2786,7 +2754,7 @@
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="25" t="n">
@@ -2807,7 +2775,7 @@
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
@@ -2828,7 +2796,7 @@
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="25" t="n">
@@ -2849,7 +2817,7 @@
       <c r="D47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F47" s="25" t="n">
@@ -2872,7 +2840,7 @@
       <c r="D48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="25" t="n">
@@ -2895,7 +2863,7 @@
       <c r="D49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="25" t="n">
@@ -2918,7 +2886,7 @@
       <c r="D50" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="25" t="n">
@@ -3301,7 +3269,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B67" s="12"/>
@@ -3310,10 +3278,10 @@
       <c r="E67" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="29" t="n">
+      <c r="F67" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="G67" s="30" t="n">
+      <c r="G67" s="29" t="n">
         <v>4.85</v>
       </c>
       <c r="H67" s="16" t="n">
@@ -3322,7 +3290,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B68" s="19"/>
@@ -3331,10 +3299,10 @@
       <c r="E68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="29" t="n">
+      <c r="F68" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="G68" s="30" t="n">
+      <c r="G68" s="29" t="n">
         <v>5.04</v>
       </c>
       <c r="H68" s="16" t="n">
@@ -3348,7 +3316,9 @@
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="D69" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="E69" s="12" t="s">
         <v>14</v>
       </c>
@@ -3365,7 +3335,7 @@
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -3386,7 +3356,7 @@
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -3397,24 +3367,24 @@
         <v>42</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>14</v>
@@ -3432,12 +3402,12 @@
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
@@ -3455,7 +3425,7 @@
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3476,7 +3446,7 @@
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3497,7 +3467,7 @@
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3518,7 +3488,7 @@
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3539,7 +3509,7 @@
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3560,7 +3530,7 @@
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3581,12 +3551,12 @@
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
@@ -3604,12 +3574,12 @@
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
@@ -3627,12 +3597,12 @@
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
@@ -3650,12 +3620,12 @@
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
@@ -3673,12 +3643,12 @@
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
@@ -3696,7 +3666,7 @@
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -3717,7 +3687,7 @@
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3738,7 +3708,7 @@
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -3761,13 +3731,13 @@
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>41</v>
@@ -3788,7 +3758,7 @@
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -3811,7 +3781,7 @@
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3834,7 +3804,7 @@
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3857,7 +3827,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3880,7 +3850,7 @@
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3903,7 +3873,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3926,7 +3896,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3949,7 +3919,7 @@
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3960,19 +3930,19 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G96" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="G96" s="33" t="n">
         <v>0.19</v>
       </c>
-      <c r="H96" s="35" t="n">
+      <c r="H96" s="34" t="n">
         <f aca="false">F96*G96</f>
-        <v>4.56</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3982,20 +3952,20 @@
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="37" t="n">
+      <c r="F97" s="35" t="n">
+        <v>40</v>
+      </c>
+      <c r="G97" s="36" t="n">
         <v>0.19</v>
       </c>
-      <c r="H97" s="38" t="n">
+      <c r="H97" s="37" t="n">
         <f aca="false">F97*G97</f>
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -4008,17 +3978,17 @@
       <c r="F98" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G98" s="39" t="n">
+      <c r="G98" s="38" t="n">
         <v>1.2</v>
       </c>
-      <c r="H98" s="40" t="n">
+      <c r="H98" s="39" t="n">
         <f aca="false">F98*G98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4029,19 +3999,19 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G99" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="H99" s="35" t="n">
+      <c r="H99" s="34" t="n">
         <f aca="false">F99*G99</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -4052,25 +4022,25 @@
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="H100" s="38" t="n">
+      <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="42"/>
+        <v>9</v>
+      </c>
+      <c r="I100" s="41"/>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
@@ -4078,23 +4048,23 @@
       <c r="F101" s="25" t="n">
         <v>88</v>
       </c>
-      <c r="G101" s="41" t="n">
+      <c r="G101" s="40" t="n">
         <v>3.45</v>
       </c>
-      <c r="H101" s="38" t="n">
+      <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
         <v>303.6</v>
       </c>
-      <c r="I101" s="43"/>
+      <c r="I101" s="42"/>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
@@ -4102,23 +4072,23 @@
       <c r="F102" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="G102" s="41" t="n">
+      <c r="G102" s="40" t="n">
         <v>2.9</v>
       </c>
-      <c r="H102" s="38" t="n">
+      <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
         <v>174</v>
       </c>
-      <c r="I102" s="43"/>
+      <c r="I102" s="42"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
@@ -4126,23 +4096,23 @@
       <c r="F103" s="25" t="n">
         <v>58</v>
       </c>
-      <c r="G103" s="41" t="n">
+      <c r="G103" s="40" t="n">
         <v>4.8</v>
       </c>
-      <c r="H103" s="38" t="n">
+      <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
         <v>278.4</v>
       </c>
-      <c r="I103" s="43"/>
+      <c r="I103" s="42"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
@@ -4150,23 +4120,23 @@
       <c r="F104" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G104" s="41" t="n">
+      <c r="G104" s="40" t="n">
         <v>3.45</v>
       </c>
-      <c r="H104" s="38" t="n">
+      <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
         <v>0</v>
       </c>
-      <c r="I104" s="43"/>
+      <c r="I104" s="42"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
@@ -4174,18 +4144,18 @@
       <c r="F105" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="G105" s="41" t="n">
+      <c r="G105" s="40" t="n">
         <v>3.75</v>
       </c>
-      <c r="H105" s="38" t="n">
+      <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
         <v>157.5</v>
       </c>
-      <c r="I105" s="43"/>
+      <c r="I105" s="42"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4198,18 +4168,18 @@
       <c r="F106" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="G106" s="41" t="n">
+      <c r="G106" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="H106" s="38" t="n">
+      <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
         <v>48</v>
       </c>
-      <c r="I106" s="43"/>
+      <c r="I106" s="42"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4222,23 +4192,23 @@
       <c r="F107" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="G107" s="41" t="n">
+      <c r="G107" s="40" t="n">
         <v>0.8</v>
       </c>
-      <c r="H107" s="38" t="n">
+      <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
         <v>19.2</v>
       </c>
-      <c r="I107" s="43"/>
+      <c r="I107" s="42"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
@@ -4246,17 +4216,17 @@
       <c r="F108" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="G108" s="41" t="n">
+      <c r="G108" s="40" t="n">
         <v>11.7</v>
       </c>
-      <c r="H108" s="38" t="n">
+      <c r="H108" s="37" t="n">
         <f aca="false">F108*G108</f>
         <v>35.1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -4269,23 +4239,23 @@
       <c r="F109" s="25" t="n">
         <v>179</v>
       </c>
-      <c r="G109" s="41" t="n">
+      <c r="G109" s="40" t="n">
         <v>3.1</v>
       </c>
-      <c r="H109" s="38" t="n">
+      <c r="H109" s="37" t="n">
         <f aca="false">F109*G109</f>
         <v>554.9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>41</v>
@@ -4299,14 +4269,14 @@
       <c r="G110" s="20" t="n">
         <v>0.83</v>
       </c>
-      <c r="H110" s="40" t="n">
+      <c r="H110" s="39" t="n">
         <f aca="false">F110*G110</f>
         <v>8.3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -4329,12 +4299,12 @@
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
@@ -4352,16 +4322,16 @@
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D113" s="44" t="s">
         <v>154</v>
+      </c>
+      <c r="D113" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>42</v>
@@ -4379,16 +4349,16 @@
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="44" t="s">
-        <v>154</v>
+      <c r="D114" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>42</v>
@@ -4406,7 +4376,7 @@
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -4429,12 +4399,12 @@
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>63</v>
@@ -4451,16 +4421,16 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="28" t="s">
-        <v>160</v>
+      <c r="A117" s="27" t="s">
+        <v>161</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F117" s="14" t="n">
         <v>12</v>
@@ -4475,12 +4445,12 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>42</v>
@@ -4498,13 +4468,13 @@
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>41</v>
@@ -4513,19 +4483,19 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>2.85</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>19.95</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4536,19 +4506,19 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G120" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>5.16</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4559,25 +4529,25 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>34.8</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>41</v>
@@ -4598,11 +4568,13 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="45"/>
+      <c r="D123" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E123" s="24" t="s">
         <v>42</v>
       </c>
@@ -4619,51 +4591,53 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
+      <c r="D124" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E124" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F124" s="25" t="n">
-        <v>9</v>
+      <c r="F124" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" s="16" t="e">
         <f aca="false">F124*G124</f>
-        <v>9</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4674,65 +4648,61 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>247.5</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+      <c r="D127" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E127" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>8.61</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>26</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="24" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>7</v>
+        <v>2.87</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="129" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
         <v>179</v>
       </c>
@@ -4740,116 +4710,120 @@
         <v>180</v>
       </c>
       <c r="C129" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D129" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="F129" s="25" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
+      <c r="C130" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="E130" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>1</v>
+        <v>980</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="20" t="n">
         <v>1.96</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G131" s="30" t="n">
-        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>13.79</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="A132" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="25" t="n">
-        <v>195</v>
-      </c>
-      <c r="G132" s="20" t="n">
+      <c r="F132" s="28" t="n">
         <v>7</v>
+      </c>
+      <c r="G132" s="29" t="n">
+        <v>1.97</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>1365</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>672.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4863,58 +4837,60 @@
         <v>250</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>552.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="A135" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" s="30" t="n">
-        <v>1.43</v>
+      <c r="F135" s="25" t="n">
+        <v>250</v>
+      </c>
+      <c r="G135" s="20" t="n">
+        <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>143</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="A136" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G136" s="20" t="n">
-        <v>8.5</v>
+      <c r="F136" s="28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" s="29" t="n">
+        <v>1.43</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4923,128 +4899,128 @@
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
-      <c r="D138" s="24" t="s">
-        <v>192</v>
-      </c>
+      <c r="D138" s="24"/>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="G139" s="30" t="n">
-        <v>2.97</v>
+      <c r="F139" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G139" s="20" t="n">
+        <v>47</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>65.34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140" s="25" t="n">
-        <v>140</v>
-      </c>
-      <c r="G140" s="20" t="n">
-        <v>1.07</v>
+      <c r="A140" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G140" s="29" t="n">
+        <v>2.97</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>149.8</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="G141" s="30" t="n">
-        <v>5</v>
+      <c r="A141" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="25" t="n">
+        <v>140</v>
+      </c>
+      <c r="G141" s="20" t="n">
+        <v>1.07</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>125</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="28" t="s">
-        <v>197</v>
+      <c r="A142" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F142" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="30" t="n">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F142" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="G142" s="29" t="n">
+        <v>5</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="28" t="s">
-        <v>198</v>
+      <c r="A143" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5052,41 +5028,41 @@
       <c r="E143" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F143" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="G143" s="30" t="n">
-        <v>1.36</v>
+      <c r="F143" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="29" t="n">
+        <v>12</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B144" s="19"/>
+      <c r="A144" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F144" s="29" t="n">
-        <v>52</v>
-      </c>
-      <c r="G144" s="30" t="n">
-        <v>2.2</v>
+      <c r="F144" s="28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G144" s="29" t="n">
+        <v>1.36</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>114.4</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="28" t="s">
-        <v>200</v>
+      <c r="A145" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5094,20 +5070,20 @@
       <c r="E145" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F145" s="29" t="n">
-        <v>49</v>
-      </c>
-      <c r="G145" s="30" t="n">
-        <v>5.5</v>
+      <c r="F145" s="28" t="n">
+        <v>52</v>
+      </c>
+      <c r="G145" s="29" t="n">
+        <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>269.5</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="28" t="s">
-        <v>201</v>
+      <c r="A146" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5115,62 +5091,62 @@
       <c r="E146" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F146" s="29" t="n">
-        <v>57</v>
-      </c>
-      <c r="G146" s="30" t="n">
-        <v>0.4</v>
+      <c r="F146" s="28" t="n">
+        <v>49</v>
+      </c>
+      <c r="G146" s="29" t="n">
+        <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>22.8</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B147" s="12"/>
+      <c r="A147" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="19"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F147" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="G147" s="30" t="n">
-        <v>0.5</v>
+      <c r="F147" s="28" t="n">
+        <v>57</v>
+      </c>
+      <c r="G147" s="29" t="n">
+        <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B148" s="19"/>
+      <c r="A148" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F148" s="29" t="n">
-        <v>41</v>
-      </c>
-      <c r="G148" s="30" t="n">
-        <v>1.1</v>
+      <c r="F148" s="28" t="n">
+        <v>18</v>
+      </c>
+      <c r="G148" s="29" t="n">
+        <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>45.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="28" t="s">
-        <v>204</v>
+      <c r="A149" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5178,20 +5154,20 @@
       <c r="E149" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F149" s="29" t="n">
-        <v>61</v>
-      </c>
-      <c r="G149" s="30" t="n">
-        <v>0.9</v>
+      <c r="F149" s="28" t="n">
+        <v>41</v>
+      </c>
+      <c r="G149" s="29" t="n">
+        <v>1.1</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>54.9</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="28" t="s">
-        <v>205</v>
+      <c r="A150" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5199,20 +5175,20 @@
       <c r="E150" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F150" s="29" t="n">
-        <v>44</v>
-      </c>
-      <c r="G150" s="30" t="n">
-        <v>2.85</v>
+      <c r="F150" s="28" t="n">
+        <v>61</v>
+      </c>
+      <c r="G150" s="29" t="n">
+        <v>0.9</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>125.4</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="28" t="s">
-        <v>206</v>
+      <c r="A151" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5220,135 +5196,155 @@
       <c r="E151" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F151" s="29" t="n">
-        <v>38</v>
-      </c>
-      <c r="G151" s="30" t="n">
-        <v>3.4</v>
+      <c r="F151" s="28" t="n">
+        <v>44</v>
+      </c>
+      <c r="G151" s="29" t="n">
+        <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>129.2</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="28" t="s">
-        <v>207</v>
+      <c r="A152" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="G152" s="30" t="n">
+      <c r="E152" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="28" t="n">
+        <v>38</v>
+      </c>
+      <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>68</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B153" s="12"/>
+      <c r="A153" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B153" s="19"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="29" t="n">
-        <v>46</v>
-      </c>
-      <c r="G153" s="30" t="n">
-        <v>3</v>
+      <c r="E153" s="12"/>
+      <c r="F153" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" s="29" t="n">
+        <v>3.4</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B154" s="19"/>
+      <c r="A154" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B154" s="12"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12" t="s">
-        <v>210</v>
-      </c>
+      <c r="D154" s="12"/>
       <c r="E154" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F154" s="29" t="n">
-        <v>21</v>
-      </c>
-      <c r="G154" s="30" t="n">
-        <v>17</v>
+      <c r="F154" s="28" t="n">
+        <v>46</v>
+      </c>
+      <c r="G154" s="29" t="n">
+        <v>3</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>357</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="28" t="s">
-        <v>211</v>
+      <c r="A155" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F155" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G155" s="30" t="n">
-        <v>10</v>
+      <c r="F155" s="28" t="n">
+        <v>21</v>
+      </c>
+      <c r="G155" s="29" t="n">
+        <v>17</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="28" t="s">
-        <v>213</v>
+      <c r="A156" s="27" t="s">
+        <v>214</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F156" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G156" s="30" t="n">
+      <c r="F156" s="28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G156" s="29" t="n">
         <v>10</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H157" s="16" t="n">
+        <f aca="false">F157*G157</f>
         <v>70</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H157" s="47" t="n">
-        <f aca="false">SUM(H3:H156)</f>
-        <v>20045.76</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H158" s="45" t="e">
+        <f aca="false">SUM(H3:H157)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1140,20 +1140,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="31.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.01"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4456,14 +4456,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>462</v>
+        <v>461.34</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4746,14 +4746,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2940</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4834,14 +4834,14 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>672.5</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4857,14 +4857,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>552.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5218,14 +5218,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>129.2</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="218">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -506,91 +506,94 @@
     <t xml:space="preserve">Rotoli Cartone modelli</t>
   </si>
   <si>
+    <t xml:space="preserve">21/2/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapone lavamani per dispenser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cartemani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalimetri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fara Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch da Pacchi Avana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch in Carta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch rotolo grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separatori alfabetici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separatori numerici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separatori Neuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silesia bianca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silesia nera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spilli 250gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/1/209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scatole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squadrette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/2/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigulio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strisce forate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela 140 panna greggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela leggera adesivizzata</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapone lavamani per dispenser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cartemani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalimetri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fara Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotch da Pacchi Avana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotch in Carta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotch magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotch rotolo grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separatori alfabetici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separatori numerici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separatori Neuri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silesia bianca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silesia nera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spilli 250gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/1/209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scatole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squadrette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/2/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tigulio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strisce forate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tela 140 panna greggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tela leggera adesivizzata</t>
   </si>
   <si>
     <t xml:space="preserve">Tela Pesante </t>
@@ -1063,11 +1066,34 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="00FFFFFF"/>
+        <sz val="10"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFCF305"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1140,20 +1166,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B148" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K129" activeCellId="0" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4401,36 +4427,40 @@
       <c r="A116" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
+      <c r="B116" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>161</v>
+      </c>
       <c r="D116" s="24" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>2.7</v>
+        <v>33</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>81</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F117" s="14" t="n">
         <v>12</v>
@@ -4445,12 +4475,12 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>42</v>
@@ -4468,13 +4498,13 @@
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>41</v>
@@ -4495,7 +4525,7 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4518,7 +4548,7 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4541,13 +4571,13 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>41</v>
@@ -4568,7 +4598,7 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4591,7 +4621,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4601,15 +4631,15 @@
       <c r="E124" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F124" s="25" t="s">
-        <v>174</v>
+      <c r="F124" s="25" t="n">
+        <v>9</v>
       </c>
       <c r="G124" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H124" s="16" t="e">
+      <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>#VALUE!</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4710,7 +4740,7 @@
         <v>180</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>26</v>
@@ -4746,14 +4776,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2934</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4805,7 +4835,7 @@
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
@@ -4823,7 +4853,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4846,7 +4876,7 @@
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -4869,7 +4899,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4890,7 +4920,7 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4911,7 +4941,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -4932,12 +4962,12 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>14</v>
@@ -4955,7 +4985,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -4976,12 +5006,12 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>42</v>
@@ -4999,7 +5029,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5020,7 +5050,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5041,7 +5071,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5062,7 +5092,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5071,19 +5101,19 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G145" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>114.4</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5104,7 +5134,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="12"/>
@@ -5125,7 +5155,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5146,7 +5176,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5167,7 +5197,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5188,7 +5218,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5209,7 +5239,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5230,7 +5260,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5249,7 +5279,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5270,12 +5300,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
@@ -5293,12 +5323,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
@@ -5316,12 +5346,12 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>42</v>
@@ -5338,9 +5368,9 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="45" t="e">
+      <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>#VALUE!</v>
+        <v>20137.16</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="220">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tubi porta diplomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/2/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">Ratioform</t>
@@ -792,7 +798,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFCF305"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1075,17 +1081,16 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="10"/>
         <u val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -1093,7 +1098,6 @@
         <bottom/>
         <diagonal/>
       </border>
-      <protection locked="true" hidden="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1124,7 +1128,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFCF305"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1166,20 +1170,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B148" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K129" activeCellId="0" sqref="K129"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F130" activeCellId="0" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.34"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2870,14 +2874,14 @@
         <v>42</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>1.75</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>8.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3745,14 +3749,14 @@
         <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G87" s="20" t="n">
         <v>0.8</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4486,14 +4490,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>461.34</v>
+        <v>454.74</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4776,14 +4780,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2931</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5008,28 +5012,32 @@
       <c r="A141" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
+      <c r="B141" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>200</v>
+      </c>
       <c r="D141" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F141" s="25" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="G141" s="20" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>149.8</v>
+        <v>462.4</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5050,7 +5058,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5071,7 +5079,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5092,7 +5100,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5113,7 +5121,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5134,7 +5142,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="12"/>
@@ -5155,7 +5163,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5176,7 +5184,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5197,7 +5205,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5218,7 +5226,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5239,7 +5247,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5260,7 +5268,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5279,7 +5287,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5300,12 +5308,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
@@ -5323,12 +5331,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
@@ -5346,12 +5354,12 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>42</v>
@@ -5370,7 +5378,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20137.16</v>
+        <v>20402.81</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1170,20 +1170,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F130" activeCellId="0" sqref="F130"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.12"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2429,14 +2429,14 @@
         <v>14</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G29" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H29" s="16" t="n">
         <f aca="false">F29*G29</f>
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5378,7 +5378,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20402.81</v>
+        <v>20362.81</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="220">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -257,12 +257,18 @@
     <t xml:space="preserve">Colla in Stick</t>
   </si>
   <si>
+    <t xml:space="preserve">26/2/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Correttore  Topolino</t>
   </si>
   <si>
     <t xml:space="preserve">Correttore liquido</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cotone quadretti stock</t>
   </si>
   <si>
@@ -398,9 +404,6 @@
     <t xml:space="preserve">Mine 0,5</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mine 0,7 mm</t>
   </si>
   <si>
@@ -486,9 +489,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rocche fili nero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Cucirini</t>
@@ -1170,20 +1170,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D145" activeCellId="0" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="35.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="20.7"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2693,7 +2693,7 @@
       <c r="E40" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="14" t="n">
         <v>8</v>
       </c>
       <c r="G40" s="20" t="n">
@@ -2720,7 +2720,7 @@
       <c r="E41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="14" t="n">
         <v>50</v>
       </c>
       <c r="G41" s="20" t="n">
@@ -2842,8 +2842,12 @@
       <c r="A47" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="D47" s="24" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +2867,7 @@
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -2886,10 +2890,14 @@
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="D49" s="24" t="s">
         <v>41</v>
       </c>
@@ -2897,24 +2905,24 @@
         <v>42</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G49" s="20" t="n">
         <v>0.72</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>14</v>
@@ -2932,7 +2940,7 @@
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2953,7 +2961,7 @@
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2974,12 +2982,12 @@
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>42</v>
@@ -2997,7 +3005,7 @@
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="24"/>
@@ -3020,7 +3028,7 @@
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3043,13 +3051,13 @@
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>41</v>
@@ -3070,7 +3078,7 @@
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3093,7 +3101,7 @@
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3116,7 +3124,7 @@
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -3139,7 +3147,7 @@
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -3162,7 +3170,7 @@
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3185,7 +3193,7 @@
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -3208,7 +3216,7 @@
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -3231,7 +3239,7 @@
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -3254,7 +3262,7 @@
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -3277,7 +3285,7 @@
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3300,7 +3308,7 @@
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3321,7 +3329,7 @@
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="12"/>
@@ -3342,12 +3350,12 @@
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>14</v>
@@ -3365,7 +3373,7 @@
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -3386,7 +3394,7 @@
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -3409,12 +3417,12 @@
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>14</v>
@@ -3432,12 +3440,12 @@
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>14</v>
@@ -3455,7 +3463,7 @@
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3476,7 +3484,7 @@
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3497,7 +3505,7 @@
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3518,7 +3526,7 @@
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3539,7 +3547,7 @@
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3560,7 +3568,7 @@
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -3581,12 +3589,12 @@
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
@@ -3604,12 +3612,12 @@
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
@@ -3627,12 +3635,12 @@
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
@@ -3650,12 +3658,12 @@
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
@@ -3673,12 +3681,12 @@
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
@@ -3696,7 +3704,7 @@
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -3717,7 +3725,7 @@
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -3738,7 +3746,7 @@
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -3761,13 +3769,13 @@
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>41</v>
@@ -3788,7 +3796,7 @@
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -3811,7 +3819,7 @@
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3834,7 +3842,7 @@
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3857,7 +3865,7 @@
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3880,7 +3888,7 @@
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3903,7 +3911,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3926,7 +3934,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3949,7 +3957,7 @@
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3972,7 +3980,7 @@
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3995,7 +4003,7 @@
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -4018,7 +4026,7 @@
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -4041,7 +4049,7 @@
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
@@ -4065,12 +4073,12 @@
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
@@ -4089,12 +4097,12 @@
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
@@ -4113,12 +4121,12 @@
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
@@ -4137,12 +4145,12 @@
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
@@ -4161,12 +4169,12 @@
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
@@ -4185,7 +4193,7 @@
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4209,7 +4217,7 @@
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
@@ -4233,12 +4241,12 @@
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
@@ -4256,7 +4264,7 @@
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="24"/>
@@ -4279,13 +4287,13 @@
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D110" s="24" t="s">
         <v>41</v>
@@ -4306,12 +4314,12 @@
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
@@ -4329,12 +4337,12 @@
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
@@ -4352,13 +4360,13 @@
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="D113" s="43" t="s">
         <v>155</v>
@@ -5130,14 +5138,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>269.5</v>
+        <v>258.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5378,7 +5386,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20362.81</v>
+        <v>20358.29</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5428,28 +5436,23 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F41">
+  <conditionalFormatting sqref="F45:F46">
     <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F46">
-    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:F103">
-    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
-    <cfRule type="cellIs" priority="14" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1170,20 +1170,20 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D145" activeCellId="0" sqref="D145"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F129" activeCellId="0" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="35.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="20.49"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4084,14 +4084,14 @@
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G101" s="40" t="n">
         <v>3.45</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>303.6</v>
+        <v>296.7</v>
       </c>
       <c r="I101" s="42"/>
     </row>
@@ -4108,14 +4108,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G102" s="40" t="n">
         <v>2.9</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>174</v>
+        <v>171.1</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -4132,14 +4132,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G103" s="40" t="n">
         <v>4.8</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>278.4</v>
+        <v>273.6</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -4180,14 +4180,14 @@
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G105" s="40" t="n">
         <v>3.75</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>157.5</v>
+        <v>153.75</v>
       </c>
       <c r="I105" s="42"/>
     </row>
@@ -4498,14 +4498,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>454.74</v>
+        <v>454.08</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4761,14 +4761,14 @@
         <v>181</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G129" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5386,7 +5386,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20358.29</v>
+        <v>20325.28</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5421,38 +5421,33 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F108">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F37">
-    <cfRule type="cellIs" priority="9" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F46">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F103">
-    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F101:F104">
+    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
-    <cfRule type="cellIs" priority="13" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1170,15 +1170,15 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F129" activeCellId="0" sqref="F129"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.96"/>
@@ -4108,14 +4108,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G102" s="40" t="n">
         <v>2.9</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>171.1</v>
+        <v>165.3</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -4348,14 +4348,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>90</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5386,7 +5386,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20325.28</v>
+        <v>20316.98</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1170,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C128" activeCellId="0" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2164,14 +2164,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2214,14 +2214,14 @@
         <v>33</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H22" s="16" t="n">
         <f aca="false">F22*G22</f>
-        <v>1115.08</v>
+        <v>914</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2264,14 +2264,14 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2809,14 +2809,14 @@
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G45" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>123.55</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4275,14 +4275,14 @@
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G109" s="40" t="n">
         <v>3.1</v>
       </c>
       <c r="H109" s="37" t="n">
         <f aca="false">F109*G109</f>
-        <v>554.9</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,14 +4325,14 @@
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G111" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>305.5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4788,14 +4788,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>967</v>
+        <v>915</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2901</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5386,7 +5386,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="45" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20316.98</v>
+        <v>19811</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -431,9 +431,6 @@
     <t xml:space="preserve">Penne Bic nere</t>
   </si>
   <si>
-    <t xml:space="preserve">Pennarelli punta fine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Penne Bic Rosse</t>
   </si>
   <si>
@@ -458,10 +455,13 @@
     <t xml:space="preserve">Porta abiti sposa </t>
   </si>
   <si>
-    <t xml:space="preserve">Post-it grandi 76x76 pacchi da 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-it piccoli blocchetti</t>
+    <t xml:space="preserve">Post-it grandi 76x76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-it piccoli blocchetti medi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-it piccoli blocchetti piccoli</t>
   </si>
   <si>
     <t xml:space="preserve">profumo per bagno</t>
@@ -875,7 +875,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1028,14 +1028,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1046,6 +1038,10 @@
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1170,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C128" activeCellId="0" sqref="C128"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1714,14 +1710,14 @@
         <v>22</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G12" s="15" t="n">
         <v>0.5</v>
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">F12*G12</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2597,7 +2593,7 @@
       <c r="E36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="25" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="20" t="n">
@@ -2648,14 +2644,14 @@
         <v>11</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G38" s="20" t="n">
         <v>2.7</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
-        <v>67.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3296,14 +3292,14 @@
         <v>42</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G66" s="20" t="n">
         <v>0.44</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3757,14 +3753,14 @@
         <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G87" s="20" t="n">
         <v>0.8</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>4.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3784,14 +3780,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G88" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>5.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4014,14 +4010,14 @@
         <v>42</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H98" s="39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H98" s="34" t="n">
         <f aca="false">F98*G98</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4037,15 +4033,16 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G99" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H99" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
@@ -4054,46 +4051,46 @@
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="G100" s="40" t="n">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="G100" s="38" t="n">
+        <v>3.45</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>9</v>
-      </c>
-      <c r="I100" s="41"/>
+        <v>296.7</v>
+      </c>
+      <c r="I100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>86</v>
-      </c>
-      <c r="G101" s="40" t="n">
-        <v>3.45</v>
+        <v>57</v>
+      </c>
+      <c r="G101" s="38" t="n">
+        <v>2.9</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>296.7</v>
-      </c>
-      <c r="I101" s="42"/>
+        <v>165.3</v>
+      </c>
+      <c r="I101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
@@ -4102,7 +4099,7 @@
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
@@ -4110,14 +4107,14 @@
       <c r="F102" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="G102" s="40" t="n">
-        <v>2.9</v>
+      <c r="G102" s="38" t="n">
+        <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>165.3</v>
-      </c>
-      <c r="I102" s="42"/>
+        <v>273.6</v>
+      </c>
+      <c r="I102" s="40"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
@@ -4126,7 +4123,7 @@
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
@@ -4134,14 +4131,14 @@
       <c r="F103" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="G103" s="40" t="n">
-        <v>4.8</v>
+      <c r="G103" s="38" t="n">
+        <v>3.45</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>273.6</v>
-      </c>
-      <c r="I103" s="42"/>
+        <v>196.65</v>
+      </c>
+      <c r="I103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
@@ -4150,22 +4147,22 @@
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="40" t="n">
-        <v>3.45</v>
+        <v>41</v>
+      </c>
+      <c r="G104" s="38" t="n">
+        <v>3.75</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="42"/>
+        <v>153.75</v>
+      </c>
+      <c r="I104" s="40"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
@@ -4174,22 +4171,22 @@
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>41</v>
-      </c>
-      <c r="G105" s="40" t="n">
-        <v>3.75</v>
+        <v>43</v>
+      </c>
+      <c r="G105" s="38" t="n">
+        <v>4</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>153.75</v>
-      </c>
-      <c r="I105" s="42"/>
+        <v>172</v>
+      </c>
+      <c r="I105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
@@ -4204,16 +4201,16 @@
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G106" s="40" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="G106" s="38" t="n">
+        <v>0.8</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>48</v>
-      </c>
-      <c r="I106" s="42"/>
+        <v>5.6</v>
+      </c>
+      <c r="I106" s="40"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
@@ -4230,14 +4227,14 @@
       <c r="F107" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="G107" s="40" t="n">
-        <v>0.8</v>
+      <c r="G107" s="38" t="n">
+        <v>1.8</v>
       </c>
       <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>19.2</v>
-      </c>
-      <c r="I107" s="42"/>
+        <v>43.2</v>
+      </c>
+      <c r="I107" s="40"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
@@ -4252,14 +4249,14 @@
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="G108" s="38" t="n">
         <v>11.7</v>
       </c>
       <c r="H108" s="37" t="n">
         <f aca="false">F108*G108</f>
-        <v>35.1</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4277,7 +4274,7 @@
       <c r="F109" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="G109" s="40" t="n">
+      <c r="G109" s="38" t="n">
         <v>3.1</v>
       </c>
       <c r="H109" s="37" t="n">
@@ -4302,14 +4299,14 @@
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G110" s="20" t="n">
         <v>0.83</v>
       </c>
-      <c r="H110" s="39" t="n">
+      <c r="H110" s="41" t="n">
         <f aca="false">F110*G110</f>
-        <v>8.3</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4368,7 +4365,7 @@
       <c r="C113" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E113" s="24" t="s">
@@ -4395,7 +4392,7 @@
       <c r="C114" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="43" t="s">
+      <c r="D114" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E114" s="24" t="s">
@@ -4425,14 +4422,14 @@
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>41.34</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>0</v>
+        <v>620.1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4449,17 +4446,17 @@
         <v>62</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>33</v>
+        <v>2.4</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>495</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4734,14 +4731,14 @@
         <v>11</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G128" s="20" t="n">
         <v>2.87</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>8.61</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4771,7 +4768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
         <v>182</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="131" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
         <v>186</v>
       </c>
@@ -5054,14 +5051,14 @@
         <v>14</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G142" s="29" t="n">
         <v>5</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5138,14 +5135,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>258.5</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5384,9 +5381,9 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="45" t="n">
+      <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19811</v>
+        <v>20483.68</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5401,53 +5398,33 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" priority="5" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F37">
-    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F46">
-    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98">
-    <cfRule type="cellIs" priority="10" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F104">
-    <cfRule type="cellIs" priority="11" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="F100:F103">
+    <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112:F115">
-    <cfRule type="cellIs" priority="12" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3531,14 +3531,14 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>301.5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3552,14 +3552,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>971.5</v>
+        <v>703.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20483.68</v>
+        <v>20182.18</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5114,14 +5114,14 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G145" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>112.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5135,14 +5135,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>203.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,14 +5156,14 @@
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G147" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5198,14 +5198,14 @@
         <v>42</v>
       </c>
       <c r="F149" s="28" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G149" s="29" t="n">
         <v>1.1</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>45.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5240,14 +5240,14 @@
         <v>42</v>
       </c>
       <c r="F151" s="28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G151" s="29" t="n">
         <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>125.4</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5261,14 +5261,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>125.8</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20182.18</v>
+        <v>20199.48</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4345,14 +4345,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>87.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20199.48</v>
+        <v>20196.98</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C115" activeCellId="0" sqref="C115"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3085,14 +3085,14 @@
         <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G57" s="20" t="n">
         <v>0.7</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4081,14 +4081,14 @@
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G101" s="38" t="n">
         <v>2.9</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>165.3</v>
+        <v>156.6</v>
       </c>
       <c r="I101" s="40"/>
     </row>
@@ -4105,14 +4105,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>273.6</v>
+        <v>120</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4129,14 +4129,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G103" s="38" t="n">
         <v>3.45</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>196.65</v>
+        <v>0</v>
       </c>
       <c r="I103" s="40"/>
     </row>
@@ -4785,14 +4785,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2745</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5156,14 +5156,14 @@
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G147" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>22.4</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5177,14 +5177,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G148" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5240,14 +5240,14 @@
         <v>42</v>
       </c>
       <c r="F151" s="28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" s="29" t="n">
         <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>131.1</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5261,14 +5261,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>20196.98</v>
+        <v>19819.88</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4345,14 +4345,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>85</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4372,14 +4372,14 @@
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4399,14 +4399,14 @@
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19819.88</v>
+        <v>19701.38</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A114" activeCellId="0" sqref="A114"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4081,14 +4081,14 @@
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G101" s="38" t="n">
         <v>2.9</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>156.6</v>
+        <v>145</v>
       </c>
       <c r="I101" s="40"/>
     </row>
@@ -4345,14 +4345,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>82.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4422,14 +4422,14 @@
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>41.34</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>620.1</v>
+        <v>454.74</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5261,14 +5261,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>119</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19701.38</v>
+        <v>19518.52</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4105,14 +4105,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4345,14 +4345,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19518.52</v>
+        <v>19464.52</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D113" activeCellId="0" sqref="D113"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3780,14 +3780,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G88" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>11</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4105,14 +4105,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>96</v>
+        <v>86.4</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4299,14 +4299,14 @@
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G110" s="20" t="n">
         <v>0.83</v>
       </c>
       <c r="H110" s="41" t="n">
         <f aca="false">F110*G110</f>
-        <v>24.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4522,14 +4522,14 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>2.85</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>25.65</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4568,14 +4568,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G121" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>31.9</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4595,14 +4595,14 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>15.48</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19464.52</v>
+        <v>19418.61</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2617,14 +2617,14 @@
         <v>63</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G37" s="20" t="n">
         <v>2.6</v>
       </c>
       <c r="H37" s="16" t="n">
         <f aca="false">F37*G37</f>
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4057,14 +4057,14 @@
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G100" s="38" t="n">
         <v>3.45</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>296.7</v>
+        <v>293.25</v>
       </c>
       <c r="I100" s="40"/>
     </row>
@@ -4105,14 +4105,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>86.4</v>
+        <v>0</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4272,14 +4272,14 @@
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G109" s="38" t="n">
         <v>3.1</v>
       </c>
       <c r="H109" s="37" t="n">
         <f aca="false">F109*G109</f>
-        <v>496</v>
+        <v>492.9</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4449,14 +4449,14 @@
         <v>14</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G116" s="20" t="n">
         <v>2.4</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5383,7 +5383,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19418.61</v>
+        <v>19188.66</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="222">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t xml:space="preserve">Righelli metallici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/4/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">Ati</t>
@@ -1166,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B139" activeCellId="0" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,14 +1466,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G7" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="16" t="n">
         <f aca="false">F7*G7</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1510,14 +1516,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G8" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="16" t="n">
         <f aca="false">F8*G8</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2160,14 +2166,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -3531,14 +3537,14 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3552,14 +3558,14 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>703.5</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4104,9 +4110,7 @@
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F102" s="25"/>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
@@ -4128,9 +4132,7 @@
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F103" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F103" s="25"/>
       <c r="G103" s="38" t="n">
         <v>3.45</v>
       </c>
@@ -4336,28 +4338,32 @@
       <c r="A112" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
+      <c r="B112" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="D112" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>50</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>56</v>
@@ -4366,7 +4372,7 @@
         <v>80</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>42</v>
@@ -4384,23 +4390,21 @@
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F114" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F114" s="25"/>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
@@ -4411,7 +4415,7 @@
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
@@ -4434,13 +4438,13 @@
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D116" s="24" t="s">
         <v>62</v>
@@ -4461,15 +4465,15 @@
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F117" s="14" t="n">
         <v>12</v>
@@ -4484,12 +4488,12 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>42</v>
@@ -4507,13 +4511,13 @@
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D119" s="24" t="s">
         <v>41</v>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
@@ -4580,13 +4584,13 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D122" s="24" t="s">
         <v>41</v>
@@ -4607,7 +4611,7 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4630,7 +4634,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4653,7 +4657,7 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4676,7 +4680,7 @@
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4699,7 +4703,7 @@
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -4722,7 +4726,7 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
@@ -4743,19 +4747,19 @@
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F129" s="25" t="n">
         <v>4</v>
@@ -4770,16 +4774,16 @@
     </row>
     <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E130" s="24" t="s">
         <v>42</v>
@@ -4797,7 +4801,7 @@
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4839,12 +4843,12 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4873,19 +4877,19 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>403.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
@@ -4896,19 +4900,19 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>442</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4929,7 +4933,7 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4950,7 +4954,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
@@ -4971,12 +4975,12 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>14</v>
@@ -4994,7 +4998,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5015,16 +5019,16 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E141" s="24" t="s">
         <v>42</v>
@@ -5042,7 +5046,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5063,7 +5067,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5084,7 +5088,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5105,7 +5109,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5114,19 +5118,19 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G145" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>110</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5135,19 +5139,19 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="12"/>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5189,7 +5193,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5210,7 +5214,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5231,7 +5235,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5252,7 +5256,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5261,19 +5265,19 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>115.6</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5292,7 +5296,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5313,12 +5317,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>42</v>
@@ -5336,12 +5340,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
@@ -5359,12 +5363,12 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>42</v>
@@ -5383,7 +5387,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19188.66</v>
+        <v>18916.06</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B139" activeCellId="0" sqref="B139"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4351,14 +4351,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>212.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4499,14 +4499,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>454.08</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4789,14 +4789,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2739</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5118,14 +5118,14 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G145" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>107.8</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5139,14 +5139,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>143</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5387,7 +5387,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18916.06</v>
+        <v>18841.78</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,13 +1172,13 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="17.01"/>
@@ -2857,14 +2857,14 @@
         <v>42</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2880,14 +2880,14 @@
         <v>42</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>1.75</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3091,14 +3091,14 @@
         <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" s="20" t="n">
         <v>0.7</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3298,14 +3298,14 @@
         <v>42</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G66" s="20" t="n">
         <v>0.44</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>0</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3717,7 +3717,7 @@
         <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="16" t="n">
@@ -3738,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3855,14 +3855,14 @@
         <v>42</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G91" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>4.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3970,14 +3970,14 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G96" s="33" t="n">
         <v>0.19</v>
       </c>
       <c r="H96" s="34" t="n">
         <f aca="false">F96*G96</f>
-        <v>2.66</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3993,14 +3993,14 @@
         <v>42</v>
       </c>
       <c r="F97" s="35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G97" s="36" t="n">
         <v>0.19</v>
       </c>
       <c r="H97" s="37" t="n">
         <f aca="false">F97*G97</f>
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4016,14 +4016,14 @@
         <v>42</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" s="20" t="n">
         <v>0.2</v>
       </c>
       <c r="H98" s="34" t="n">
         <f aca="false">F98*G98</f>
-        <v>2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4179,14 +4179,14 @@
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G105" s="38" t="n">
         <v>4</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="I105" s="40"/>
     </row>
@@ -4203,14 +4203,14 @@
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G106" s="38" t="n">
         <v>0.8</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="I106" s="40"/>
     </row>
@@ -4499,14 +4499,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>429</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4572,14 +4572,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G121" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>17.4</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4789,14 +4789,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5387,7 +5387,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18841.78</v>
+        <v>18612.45</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1353,7 +1353,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -1816,14 +1816,14 @@
         <v>22</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H14" s="16" t="n">
         <f aca="false">F14*G14</f>
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2339,14 +2339,14 @@
         <v>44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>0.98</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>196</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2362,14 +2362,14 @@
         <v>42</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2857,14 +2857,14 @@
         <v>42</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3298,14 +3298,14 @@
         <v>42</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G66" s="20" t="n">
         <v>0.44</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>5.28</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3786,14 +3786,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G88" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>5.5</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4110,13 +4110,15 @@
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="25"/>
+      <c r="F102" s="25" t="n">
+        <v>77</v>
+      </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>0</v>
+        <v>369.6</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4132,7 +4134,9 @@
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F103" s="25"/>
+      <c r="F103" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="G103" s="38" t="n">
         <v>3.45</v>
       </c>
@@ -4155,14 +4159,14 @@
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104" s="38" t="n">
         <v>3.75</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>153.75</v>
+        <v>150</v>
       </c>
       <c r="I104" s="40"/>
     </row>
@@ -4179,14 +4183,14 @@
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G105" s="38" t="n">
         <v>4</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="I105" s="40"/>
     </row>
@@ -4203,14 +4207,14 @@
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G106" s="38" t="n">
         <v>0.8</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I106" s="40"/>
     </row>
@@ -4227,14 +4231,14 @@
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G107" s="38" t="n">
         <v>1.8</v>
       </c>
       <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="I107" s="40"/>
     </row>
@@ -4351,14 +4355,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>210</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4526,14 +4530,14 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>2.85</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>22.8</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4549,14 +4553,14 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G120" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>10.32</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4572,14 +4576,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G121" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>40.6</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4599,14 +4603,14 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>10.32</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4762,14 +4766,14 @@
         <v>183</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4877,14 +4881,14 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>672.5</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4900,14 +4904,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>552.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5139,14 +5143,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>137.5</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5181,14 +5185,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G148" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5244,14 +5248,14 @@
         <v>42</v>
       </c>
       <c r="F151" s="28" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G151" s="29" t="n">
         <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>128.25</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5387,7 +5391,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18612.45</v>
+        <v>18330.63</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,14 +2166,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2266,14 +2266,14 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2385,14 +2385,14 @@
         <v>42</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="20" t="n">
         <v>3.5</v>
       </c>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3717,12 +3717,14 @@
         <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G85" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="G85" s="20" t="n">
+        <v>0.3</v>
+      </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3738,12 +3740,14 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="G86" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G86" s="20" t="n">
+        <v>0.3</v>
+      </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4328,14 +4332,14 @@
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G111" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>235</v>
+        <v>507.6</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5391,7 +5395,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18330.63</v>
+        <v>18622.23</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4115,14 +4115,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>369.6</v>
+        <v>360</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -5147,14 +5147,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>159.5</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5189,14 +5189,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5395,7 +5395,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18622.23</v>
+        <v>18601.13</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3537,14 +3537,14 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>0</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4282,14 +4282,14 @@
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="G109" s="38" t="n">
         <v>3.1</v>
       </c>
       <c r="H109" s="37" t="n">
         <f aca="false">F109*G109</f>
-        <v>492.9</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4797,14 +4797,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2400</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5395,7 +5395,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18601.13</v>
+        <v>18862.53</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2811,14 +2811,14 @@
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G45" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>120.05</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4115,14 +4115,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>360</v>
+        <v>340.8</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4359,14 +4359,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>192.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4797,14 +4797,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5168,14 +5168,14 @@
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G147" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5273,14 +5273,14 @@
         <v>42</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>112.2</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5292,14 +5292,14 @@
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G153" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>68</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5313,14 +5313,14 @@
         <v>42</v>
       </c>
       <c r="F154" s="28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G154" s="29" t="n">
         <v>3</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5395,7 +5395,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18862.53</v>
+        <v>18827.28</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4115,14 +4115,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>340.8</v>
+        <v>326.4</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4386,14 +4386,14 @@
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4412,13 +4412,15 @@
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F114" s="25"/>
+      <c r="F114" s="25" t="n">
+        <v>20</v>
+      </c>
       <c r="G114" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5395,7 +5397,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18827.28</v>
+        <v>18876.88</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,14 +2166,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -3717,14 +3717,14 @@
         <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G85" s="20" t="n">
         <v>0.3</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3740,14 +3740,14 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G86" s="20" t="n">
         <v>0.3</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4115,14 +4115,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>326.4</v>
+        <v>316.8</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4701,14 +4701,14 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G126" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>269</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4772,14 +4772,14 @@
         <v>183</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4910,14 +4910,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>0</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18876.88</v>
+        <v>19051.78</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2811,14 +2811,14 @@
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G45" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>119.7</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3537,14 +3537,14 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>569.5</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4115,14 +4115,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>316.8</v>
+        <v>312</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4282,14 +4282,14 @@
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G109" s="38" t="n">
         <v>3.1</v>
       </c>
       <c r="H109" s="37" t="n">
         <f aca="false">F109*G109</f>
-        <v>334.8</v>
+        <v>291.4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4359,14 +4359,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>190</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4509,14 +4509,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>462</v>
+        <v>452.76</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4799,14 +4799,14 @@
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="G130" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2247</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5294,14 +5294,14 @@
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G153" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>64.6</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>19051.78</v>
+        <v>18885.04</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4887,14 +4887,14 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4910,14 +4910,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>331.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18885.04</v>
+        <v>18284.54</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1172,8 +1172,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J140" activeCellId="0" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5149,14 +5149,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>148.5</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5170,14 +5170,14 @@
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G147" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>20.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,7 +5397,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="44" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>18284.54</v>
+        <v>18261.74</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$157</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$140</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -218,25 +218,19 @@
     <t xml:space="preserve">kg</t>
   </si>
   <si>
-    <t xml:space="preserve">Carta Velina Rotoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/1/2019</t>
+    <t xml:space="preserve">Cartella progetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartellette  rigide con elastico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartellette leggere con alette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/2/2019</t>
   </si>
   <si>
     <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartella progetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartellette  rigide con elastico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartellette leggere con alette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/2/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Cartuccia toner per sig Tiziana</t>
@@ -1172,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J140" activeCellId="0" sqref="J140"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,14 +2210,14 @@
         <v>33</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H22" s="16" t="n">
         <f aca="false">F22*G22</f>
-        <v>914</v>
+        <v>639.8</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2385,14 +2379,14 @@
         <v>42</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="20" t="n">
         <v>3.5</v>
       </c>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2634,26 +2628,22 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="20" t="n">
-        <v>2.7</v>
+      <c r="G38" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
@@ -2661,11 +2651,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="24" t="s">
         <v>41</v>
       </c>
@@ -2673,22 +2663,26 @@
         <v>42</v>
       </c>
       <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>3.68</v>
+        <v>8</v>
+      </c>
+      <c r="G39" s="20" t="n">
+        <v>3</v>
       </c>
       <c r="H39" s="16" t="n">
         <f aca="false">F39*G39</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
       <c r="D40" s="24" t="s">
         <v>41</v>
       </c>
@@ -2696,46 +2690,42 @@
         <v>42</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>24</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="14" t="n">
-        <v>50</v>
+      <c r="F41" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>0.25</v>
+        <v>177</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2749,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="20" t="n">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
@@ -2758,30 +2748,28 @@
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G43" s="20" t="n">
-        <v>110</v>
+        <v>1.18</v>
       </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -2790,66 +2778,68 @@
         <v>42</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="G44" s="20" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
-        <v>200.6</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>328</v>
-      </c>
-      <c r="G45" s="20" t="n">
-        <v>0.35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G45" s="20"/>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>114.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E46" s="32" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G46" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="G46" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="24" t="s">
         <v>41</v>
       </c>
@@ -2857,22 +2847,26 @@
         <v>42</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G47" s="20" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
       <c r="D48" s="24" t="s">
         <v>41</v>
       </c>
@@ -2883,38 +2877,34 @@
         <v>10</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>17.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="E49" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2923,26 +2913,24 @@
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="32" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G50" s="20" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2951,66 +2939,68 @@
         <v>14</v>
       </c>
       <c r="F51" s="25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24" t="s">
-        <v>14</v>
+      <c r="D52" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F52" s="25" t="n">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="25" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="24"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="24" t="s">
         <v>41</v>
       </c>
@@ -3021,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>0.22</v>
+        <v>2.13</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
@@ -3029,58 +3019,58 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
       <c r="D55" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F55" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>2.13</v>
+        <v>5.95</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
-        <v>0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>5.95</v>
+        <v>0.7</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
-        <v>5.95</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3091,19 +3081,19 @@
         <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57" s="20" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>1.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3114,19 +3104,19 @@
         <v>42</v>
       </c>
       <c r="F58" s="25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
@@ -3137,19 +3127,19 @@
         <v>42</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -3163,16 +3153,16 @@
         <v>1</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3186,16 +3176,16 @@
         <v>1</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>5.35</v>
+        <v>2</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
-        <v>5.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -3209,62 +3199,62 @@
         <v>1</v>
       </c>
       <c r="G62" s="20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F63" s="25" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>1.5</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F64" s="25" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>43.56</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
@@ -3272,82 +3262,82 @@
         <v>41</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F65" s="25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G65" s="20" t="n">
-        <v>4.9</v>
+        <v>0.44</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>19.6</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="A66" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="G66" s="20" t="n">
-        <v>0.44</v>
+        <v>14</v>
+      </c>
+      <c r="F66" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" s="29" t="n">
+        <v>4.85</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>3.08</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="28" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G67" s="29" t="n">
-        <v>4.85</v>
+        <v>5.04</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>53.35</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
       <c r="E68" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="28" t="n">
-        <v>30</v>
-      </c>
-      <c r="G68" s="29" t="n">
-        <v>5.04</v>
+      <c r="F68" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" s="20" t="n">
+        <v>8.3</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>151.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3356,65 +3346,65 @@
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>14</v>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="20" t="n">
-        <v>8.3</v>
+        <v>0.75</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="D70" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E70" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G70" s="20" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G71" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3424,48 +3414,46 @@
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="24" t="s">
-        <v>108</v>
-      </c>
+      <c r="D73" s="24"/>
       <c r="E73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G73" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>21</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3474,19 +3462,19 @@
         <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G74" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>210.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
@@ -3495,40 +3483,40 @@
         <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>10</v>
+        <v>49.3</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>49</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>49.3</v>
+        <v>18</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>241.57</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3537,19 +3525,19 @@
         <v>42</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>603</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
@@ -3558,35 +3546,37 @@
         <v>42</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G78" s="20" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>368.5</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="D79" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="E79" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>73.1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3596,117 +3586,117 @@
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G80" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G81" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G82" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G83" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G84" s="20" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -3717,45 +3707,49 @@
         <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G85" s="20" t="n">
         <v>0.3</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G86" s="20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>7.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
+        <v>123</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="D87" s="24" t="s">
         <v>41</v>
       </c>
@@ -3763,26 +3757,22 @@
         <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>10.4</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>80</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="24" t="s">
         <v>41</v>
       </c>
@@ -3790,19 +3780,19 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>8.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -3813,19 +3803,19 @@
         <v>42</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3836,19 +3826,19 @@
         <v>42</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G90" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3856,22 +3846,22 @@
         <v>41</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>27</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3879,22 +3869,22 @@
         <v>41</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3908,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
@@ -3917,7 +3907,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3940,7 +3930,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
@@ -3951,19 +3941,19 @@
         <v>42</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" s="33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H95" s="34" t="n">
         <f aca="false">F95*G95</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3973,20 +3963,20 @@
       <c r="E96" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G96" s="33" t="n">
+      <c r="F96" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="G96" s="36" t="n">
         <v>0.19</v>
       </c>
-      <c r="H96" s="34" t="n">
+      <c r="H96" s="37" t="n">
         <f aca="false">F96*G96</f>
-        <v>0.95</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -3996,20 +3986,20 @@
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="G97" s="36" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H97" s="37" t="n">
+      <c r="F97" s="25" t="n">
+        <v>14</v>
+      </c>
+      <c r="G97" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H97" s="34" t="n">
         <f aca="false">F97*G97</f>
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -4020,39 +4010,40 @@
         <v>42</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>14</v>
-      </c>
-      <c r="G98" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H98" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" s="37" t="n">
         <f aca="false">F98*G98</f>
-        <v>2.8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I98" s="39"/>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="G99" s="38" t="n">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>9</v>
-      </c>
-      <c r="I99" s="39"/>
+        <v>293.25</v>
+      </c>
+      <c r="I99" s="40"/>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
@@ -4061,122 +4052,122 @@
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G100" s="38" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>293.25</v>
+        <v>145</v>
       </c>
       <c r="I100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G101" s="38" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="I101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G102" s="38" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I102" s="40"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G103" s="38" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G104" s="38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="I104" s="40"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4187,20 +4178,20 @@
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G105" s="38" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="I105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -4211,40 +4202,39 @@
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G106" s="38" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>4</v>
+        <v>21.6</v>
       </c>
       <c r="I106" s="40"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G107" s="38" t="n">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>21.6</v>
-      </c>
-      <c r="I107" s="40"/>
+        <v>280.8</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
@@ -4253,120 +4243,124 @@
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G108" s="38" t="n">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="H108" s="37" t="n">
         <f aca="false">F108*G108</f>
-        <v>280.8</v>
+        <v>291.4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
       <c r="D109" s="24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>94</v>
-      </c>
-      <c r="G109" s="38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H109" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G109" s="20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H109" s="41" t="n">
         <f aca="false">F109*G109</f>
-        <v>291.4</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="24" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="G110" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H110" s="41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H110" s="16" t="n">
         <f aca="false">F110*G110</f>
-        <v>16.6</v>
+        <v>507.6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
+      <c r="C111" s="24" t="s">
+        <v>152</v>
+      </c>
       <c r="D111" s="24" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>507.6</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D112" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="42" t="s">
         <v>155</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>187.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4374,99 +4368,95 @@
         <v>156</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>157</v>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G114" s="20" t="n">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>40</v>
+        <v>454.74</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="C115" s="24" t="s">
+        <v>161</v>
+      </c>
       <c r="D115" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>41.34</v>
+        <v>2.4</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>454.74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="24" t="s">
+      <c r="A116" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C116" s="24" t="s">
+      <c r="B116" s="19"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G116" s="20" t="n">
-        <v>2.4</v>
+      <c r="E116" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F116" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
@@ -4474,61 +4464,61 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12" t="s">
+      <c r="A117" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="F117" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G117" s="16" t="n">
-        <v>6</v>
+      <c r="E117" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="25" t="n">
+        <v>686</v>
+      </c>
+      <c r="G117" s="20" t="n">
+        <v>0.66</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>72</v>
+        <v>452.76</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
+      <c r="B118" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="D118" s="24" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>686</v>
+        <v>6</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>452.76</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>170</v>
-      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="24" t="s">
         <v>41</v>
       </c>
@@ -4536,19 +4526,19 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>25.65</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4559,22 +4549,26 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>3.44</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
       <c r="D121" s="24" t="s">
         <v>41</v>
       </c>
@@ -4582,26 +4576,22 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>37.7</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B122" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>174</v>
-      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
       <c r="D122" s="24" t="s">
         <v>41</v>
       </c>
@@ -4609,19 +4599,19 @@
         <v>42</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>6.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4632,19 +4622,19 @@
         <v>42</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4655,42 +4645,42 @@
         <v>42</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>0</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4701,154 +4691,154 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>134.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
-      <c r="D127" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D127" s="24"/>
       <c r="E127" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>247.5</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
+      <c r="C128" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="E128" s="24" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>2</v>
+        <v>705</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>14</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
       <c r="E130" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>705</v>
+        <v>1</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="131" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" s="20" t="n">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" s="29" t="n">
+        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>1.96</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="28" t="n">
+      <c r="F132" s="25" t="n">
+        <v>195</v>
+      </c>
+      <c r="G132" s="20" t="n">
         <v>7</v>
-      </c>
-      <c r="G132" s="29" t="n">
-        <v>1.97</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>13.79</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4858,25 +4848,25 @@
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>1365</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4887,63 +4877,61 @@
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A135" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" s="20" t="n">
-        <v>2.21</v>
+      <c r="F135" s="28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" s="29" t="n">
+        <v>1.43</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="A136" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G136" s="29" t="n">
-        <v>1.43</v>
+      <c r="F136" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G136" s="20" t="n">
+        <v>8.5</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -4952,132 +4940,132 @@
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
+      <c r="D138" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24" t="s">
-        <v>198</v>
-      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G139" s="20" t="n">
-        <v>47</v>
+      <c r="F139" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" s="29" t="n">
+        <v>2.97</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>564</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="G140" s="29" t="n">
-        <v>2.97</v>
+      <c r="C140" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="25" t="n">
+        <v>340</v>
+      </c>
+      <c r="G140" s="20" t="n">
+        <v>1.36</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>65.34</v>
+        <v>462.4</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="24" t="s">
+      <c r="A141" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D141" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="25" t="n">
-        <v>340</v>
-      </c>
-      <c r="G141" s="20" t="n">
-        <v>1.36</v>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" s="29" t="n">
+        <v>5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>462.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" s="29" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5086,40 +5074,40 @@
         <v>42</v>
       </c>
       <c r="F143" s="28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G143" s="29" t="n">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B144" s="12"/>
+        <v>205</v>
+      </c>
+      <c r="B144" s="19"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F144" s="28" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G144" s="29" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>10.88</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5128,19 +5116,19 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G145" s="29" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>105.6</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5149,61 +5137,61 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G146" s="29" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>126.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G147" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B148" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="B148" s="19"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G148" s="29" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>6</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5212,19 +5200,19 @@
         <v>42</v>
       </c>
       <c r="F149" s="28" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G149" s="29" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>57.2</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5233,19 +5221,19 @@
         <v>42</v>
       </c>
       <c r="F150" s="28" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G150" s="29" t="n">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>54.9</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5254,75 +5242,77 @@
         <v>42</v>
       </c>
       <c r="F151" s="28" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G151" s="29" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>122.55</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="28" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G152" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>108.8</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B153" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F153" s="28" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G153" s="29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>61.2</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
       <c r="E154" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="28" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G154" s="29" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>135</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5338,14 +5328,14 @@
         <v>42</v>
       </c>
       <c r="F155" s="28" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G155" s="29" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5355,64 +5345,42 @@
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F156" s="28" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G156" s="29" t="n">
         <v>10</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G157" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="H157" s="16" t="n">
-        <f aca="false">F157*G157</f>
         <v>70</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="44" t="n">
-        <f aca="false">SUM(H3:H157)</f>
-        <v>18261.74</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H157" s="44" t="n">
+        <f aca="false">SUM(H3:H156)</f>
+        <v>18045.69</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F46">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
@@ -5422,22 +5390,22 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F46">
+  <conditionalFormatting sqref="F44:F45">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F103">
+  <conditionalFormatting sqref="F99:F102">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F115">
+  <conditionalFormatting sqref="F111:F114">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5011,14 +5011,14 @@
         <v>42</v>
       </c>
       <c r="F140" s="25" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="G140" s="20" t="n">
         <v>1.36</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>462.4</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5032,14 +5032,14 @@
         <v>14</v>
       </c>
       <c r="F141" s="28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G141" s="29" t="n">
         <v>5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5364,7 +5364,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="44" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>18045.69</v>
+        <v>17813.09</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -566,7 +566,7 @@
     <t xml:space="preserve">spilli 250gr</t>
   </si>
   <si>
-    <t xml:space="preserve">16/1/209</t>
+    <t xml:space="preserve">20/6/209</t>
   </si>
   <si>
     <t xml:space="preserve">scatole</t>
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4739,14 +4739,14 @@
         <v>181</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G128" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5364,7 +5364,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="44" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>17813.09</v>
+        <v>17855.09</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$154</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$137</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -194,15 +194,15 @@
     <t xml:space="preserve">Carta A3 100 gr  MONDI’</t>
   </si>
   <si>
+    <t xml:space="preserve">Carta fotocopie 100 gr A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carta fotocopie fg  A4 80 GR</t>
+  </si>
+  <si>
     <t xml:space="preserve">14/1/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Carta fotocopie 100 gr A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carta fotocopie fg  A4 80 GR</t>
-  </si>
-  <si>
     <t xml:space="preserve">35</t>
   </si>
   <si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartuccia toner per sig Tiziana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartuccia toner segret. M312</t>
   </si>
   <si>
     <t xml:space="preserve">CD  700 MB  con logo</t>
@@ -875,7 +869,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,6 +1042,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1166,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1260,14 +1262,14 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="false">F3*G3</f>
-        <v>214.5</v>
+        <v>165</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1310,14 +1312,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="false">F4*G4</f>
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1810,14 +1812,14 @@
         <v>22</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H14" s="16" t="n">
         <f aca="false">F14*G14</f>
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2160,14 +2162,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2260,14 +2262,14 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2310,14 +2312,14 @@
         <v>42</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2333,14 +2335,14 @@
         <v>44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>0.98</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>343</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,14 +2358,14 @@
         <v>42</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2494,23 +2496,21 @@
         <v>51</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32" s="20" t="n">
         <v>27.44</v>
       </c>
       <c r="H32" s="16" t="n">
         <f aca="false">F32*G32</f>
-        <v>274.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="24" t="s">
         <v>53</v>
       </c>
@@ -2521,19 +2521,19 @@
         <v>51</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G33" s="20" t="n">
         <v>17</v>
       </c>
       <c r="H33" s="16" t="n">
         <f aca="false">F33*G33</f>
-        <v>255</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>59</v>
@@ -2663,14 +2663,14 @@
         <v>42</v>
       </c>
       <c r="F39" s="14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H39" s="16" t="n">
         <f aca="false">F39*G39</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2690,14 +2690,14 @@
         <v>42</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G40" s="20" t="n">
         <v>0.25</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2706,21 +2706,19 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D41" s="24"/>
       <c r="E41" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>177</v>
+        <v>1.18</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2729,21 +2727,19 @@
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
-      <c r="D42" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="D42" s="24"/>
       <c r="E42" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="G42" s="20" t="n">
-        <v>110</v>
+        <v>0.35</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
-        <v>0</v>
+        <v>68.6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2754,68 +2750,76 @@
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>170</v>
-      </c>
-      <c r="G43" s="20" t="n">
-        <v>1.18</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G43" s="20"/>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="G44" s="20" t="n">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
-        <v>114.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="D45" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E45" s="32" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G45" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="G45" s="20" t="n">
+        <v>1.75</v>
+      </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>41</v>
@@ -2824,87 +2828,79 @@
         <v>42</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G46" s="20" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G47" s="20" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>17.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>0.72</v>
+        <v>1.8</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>7.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="32" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2913,94 +2909,102 @@
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24" t="s">
-        <v>14</v>
+      <c r="D50" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F50" s="25" t="n">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="G50" s="20" t="n">
-        <v>1.8</v>
+        <v>0.15</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="24"/>
+      <c r="A51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24" t="s">
-        <v>14</v>
+      <c r="D51" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F51" s="25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="24" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="25" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>0.15</v>
+        <v>2.13</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="D53" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F53" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>0.22</v>
+        <v>5.95</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>0</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="24" t="s">
         <v>41</v>
       </c>
@@ -3008,41 +3012,37 @@
         <v>42</v>
       </c>
       <c r="F54" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>2.13</v>
+        <v>0.7</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="24" t="s">
         <v>88</v>
       </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F55" s="25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>5.95</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
-        <v>5.95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3058,14 +3058,14 @@
         <v>42</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3081,14 +3081,14 @@
         <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G57" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3104,14 +3104,14 @@
         <v>42</v>
       </c>
       <c r="F58" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>3</v>
+        <v>5.35</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>0</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3130,11 +3130,11 @@
         <v>1</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3153,11 +3153,11 @@
         <v>1</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3167,20 +3167,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F61" s="25" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
-        <v>2</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3193,17 +3193,17 @@
         <v>41</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F62" s="25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" s="20" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>1.5</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3213,131 +3213,129 @@
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F63" s="25" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>1.98</v>
+        <v>0.44</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>43.56</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G64" s="20" t="n">
-        <v>4.9</v>
+        <v>14</v>
+      </c>
+      <c r="F64" s="28" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" s="29" t="n">
+        <v>4.85</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>19.6</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="G65" s="20" t="n">
-        <v>0.44</v>
+        <v>14</v>
+      </c>
+      <c r="F65" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G65" s="29" t="n">
+        <v>5.04</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>3.08</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="G66" s="29" t="n">
-        <v>4.85</v>
+      <c r="F66" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" s="20" t="n">
+        <v>8.3</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>53.35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="28" t="n">
-        <v>30</v>
-      </c>
-      <c r="G67" s="29" t="n">
-        <v>5.04</v>
+      <c r="A67" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" s="20" t="n">
+        <v>0.75</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>151.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G68" s="20" t="n">
-        <v>8.3</v>
+        <v>3</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3346,65 +3344,65 @@
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="D69" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="E69" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G69" s="20" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G70" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="D71" s="24"/>
       <c r="E71" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G71" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>54</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3413,21 +3411,19 @@
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="D72" s="24"/>
       <c r="E72" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G72" s="20" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3441,14 +3437,14 @@
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>43</v>
+        <v>49.3</v>
       </c>
       <c r="G73" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>210.7</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3459,17 +3455,17 @@
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="20" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>49</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3480,17 +3476,17 @@
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>49.3</v>
+        <v>11</v>
       </c>
       <c r="G75" s="20" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>241.57</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3504,14 +3500,14 @@
         <v>42</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>603</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3520,63 +3516,67 @@
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="D77" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="E77" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>33.5</v>
+        <v>8.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>368.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="D78" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="E78" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G78" s="20" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>73.1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>24</v>
+        <v>1.5</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>204</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3586,20 +3586,20 @@
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3609,20 +3609,20 @@
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3632,20 +3632,20 @@
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>100</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3655,20 +3655,20 @@
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G83" s="20" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,43 +3678,47 @@
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G84" s="20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>22.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
+      <c r="B85" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="D85" s="24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G85" s="20" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>7.5</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3730,26 +3734,22 @@
         <v>42</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G86" s="20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>10.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>78</v>
-      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
         <v>41</v>
       </c>
@@ -3757,14 +3757,14 @@
         <v>42</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>8.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,14 +3780,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>3.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3800,17 +3800,17 @@
         <v>41</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3826,14 +3826,14 @@
         <v>42</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3846,17 +3846,17 @@
         <v>41</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F91" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="20" t="n">
         <v>1</v>
-      </c>
-      <c r="G91" s="20" t="n">
-        <v>12.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
@@ -3895,14 +3895,14 @@
         <v>42</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" s="33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H93" s="34" t="n">
         <f aca="false">F93*G93</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3917,15 +3917,15 @@
       <c r="E94" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F94" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" s="16" t="n">
+      <c r="F94" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="G94" s="36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H94" s="37" t="n">
         <f aca="false">F94*G94</f>
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3941,14 +3941,14 @@
         <v>42</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G95" s="33" t="n">
-        <v>0.19</v>
+        <v>14</v>
+      </c>
+      <c r="G95" s="20" t="n">
+        <v>0.2</v>
       </c>
       <c r="H95" s="34" t="n">
         <f aca="false">F95*G95</f>
-        <v>0.95</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3963,16 +3963,17 @@
       <c r="E96" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="G96" s="36" t="n">
-        <v>0.19</v>
+      <c r="F96" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" s="38" t="n">
+        <v>1</v>
       </c>
       <c r="H96" s="37" t="n">
         <f aca="false">F96*G96</f>
-        <v>5.7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
@@ -3981,67 +3982,68 @@
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>14</v>
-      </c>
-      <c r="G97" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H97" s="34" t="n">
+        <v>85</v>
+      </c>
+      <c r="G97" s="38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H97" s="37" t="n">
         <f aca="false">F97*G97</f>
-        <v>2.8</v>
-      </c>
+        <v>293.25</v>
+      </c>
+      <c r="I97" s="40"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G98" s="38" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H98" s="37" t="n">
         <f aca="false">F98*G98</f>
-        <v>9</v>
-      </c>
-      <c r="I98" s="39"/>
+        <v>145</v>
+      </c>
+      <c r="I98" s="40"/>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G99" s="38" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>293.25</v>
+        <v>312</v>
       </c>
       <c r="I99" s="40"/>
     </row>
@@ -4052,20 +4054,20 @@
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G100" s="38" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I100" s="40"/>
     </row>
@@ -4076,20 +4078,20 @@
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G101" s="38" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="I101" s="40"/>
     </row>
@@ -4100,20 +4102,20 @@
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G102" s="38" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4124,20 +4126,20 @@
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G103" s="38" t="n">
-        <v>3.75</v>
+        <v>0.8</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="I103" s="40"/>
     </row>
@@ -4154,14 +4156,14 @@
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G104" s="38" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>96</v>
+        <v>21.6</v>
       </c>
       <c r="I104" s="40"/>
     </row>
@@ -4172,330 +4174,328 @@
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G105" s="38" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>4</v>
-      </c>
-      <c r="I105" s="40"/>
+        <v>280.8</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G106" s="38" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>21.6</v>
-      </c>
-      <c r="I106" s="40"/>
+        <v>291.4</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+        <v>145</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>146</v>
+      </c>
       <c r="D107" s="24" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>24</v>
-      </c>
-      <c r="G107" s="38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H107" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G107" s="20" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H107" s="41" t="n">
         <f aca="false">F107*G107</f>
-        <v>280.8</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>94</v>
-      </c>
-      <c r="G108" s="38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H108" s="37" t="n">
+        <v>108</v>
+      </c>
+      <c r="G108" s="20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H108" s="16" t="n">
         <f aca="false">F108*G108</f>
-        <v>291.4</v>
+        <v>507.6</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G109" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H109" s="41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H109" s="16" t="n">
         <f aca="false">F109*G109</f>
-        <v>16.6</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24" t="s">
-        <v>84</v>
+        <v>152</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G110" s="20" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H110" s="16" t="n">
         <f aca="false">F110*G110</f>
-        <v>507.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="42" t="s">
         <v>153</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>155</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>34</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G113" s="20" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F114" s="25" t="n">
-        <v>11</v>
-      </c>
-      <c r="G114" s="20" t="n">
-        <v>41.34</v>
+      <c r="A114" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F114" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>454.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>161</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
       <c r="D115" s="24" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>30</v>
+        <v>686</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>2.4</v>
+        <v>0.66</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>72</v>
+        <v>452.76</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F116" s="14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G116" s="16" t="n">
+      <c r="A116" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="25" t="n">
         <v>6</v>
+      </c>
+      <c r="G116" s="20" t="n">
+        <v>2.85</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>72</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F117" s="25" t="n">
-        <v>686</v>
+        <v>2</v>
       </c>
       <c r="G117" s="20" t="n">
-        <v>0.66</v>
+        <v>1.72</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>452.76</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="24" t="s">
         <v>168</v>
       </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
         <v>41</v>
       </c>
@@ -4503,22 +4503,26 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>17.1</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
+      <c r="B119" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="D119" s="24" t="s">
         <v>41</v>
       </c>
@@ -4526,19 +4530,19 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>3.44</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
@@ -4549,26 +4553,22 @@
         <v>42</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>37.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="24" t="s">
         <v>172</v>
       </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="24" t="s">
         <v>41</v>
       </c>
@@ -4576,14 +4576,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>1.72</v>
+        <v>3</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>6.88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
@@ -4616,20 +4616,20 @@
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>3</v>
+        <v>2.69</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>27</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,20 +4639,20 @@
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>0</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4661,207 +4661,205 @@
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D125" s="24"/>
       <c r="E125" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>2.69</v>
+        <v>2.87</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>215.2</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
+      <c r="B126" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D126" s="24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="E127" s="24" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>2</v>
+        <v>705</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="128" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>26</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="24" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>7</v>
+        <v>1.96</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D129" s="24" t="s">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="E129" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F129" s="25" t="n">
-        <v>705</v>
-      </c>
-      <c r="G129" s="20" t="n">
-        <v>3</v>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G129" s="29" t="n">
+        <v>1.97</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="130" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
         <v>186</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24" t="s">
-        <v>42</v>
+      <c r="D130" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F130" s="25" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>1.96</v>
+        <v>7</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>1.96</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="A131" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E131" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F131" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G131" s="29" t="n">
-        <v>1.97</v>
+      <c r="F131" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G131" s="20" t="n">
+        <v>2.69</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>13.79</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="25" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="G132" s="20" t="n">
-        <v>7</v>
+        <v>2.21</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>1365</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F133" s="25" t="n">
+      <c r="F133" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="G133" s="20" t="n">
-        <v>2.69</v>
+      <c r="G133" s="29" t="n">
+        <v>1.43</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>269</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4870,42 +4868,40 @@
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
-      <c r="D134" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="D134" s="24"/>
       <c r="E134" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G134" s="20" t="n">
-        <v>2.21</v>
+        <v>8.5</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" s="29" t="n">
-        <v>1.43</v>
+      <c r="F135" s="25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G135" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4914,68 +4910,74 @@
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="D136" s="24" t="s">
+        <v>194</v>
+      </c>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="25" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G136" s="20" t="n">
-        <v>8.5</v>
+        <v>47</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="A137" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F137" s="25" t="n">
-        <v>17</v>
-      </c>
-      <c r="G137" s="20" t="n">
-        <v>5</v>
+      <c r="F137" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G137" s="29" t="n">
+        <v>2.97</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>85</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
+        <v>196</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="D138" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>14</v>
+        <v>199</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="F138" s="25" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G138" s="20" t="n">
-        <v>47</v>
+        <v>1.36</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>564</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4984,41 +4986,35 @@
         <v>14</v>
       </c>
       <c r="F139" s="28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G139" s="29" t="n">
-        <v>2.97</v>
+        <v>5</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>65.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B140" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C140" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D140" s="24" t="s">
+      <c r="A140" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E140" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F140" s="25" t="n">
-        <v>180</v>
-      </c>
-      <c r="G140" s="20" t="n">
-        <v>1.36</v>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="29" t="n">
+        <v>12</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>244.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5029,59 +5025,59 @@
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F141" s="28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G141" s="29" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>0</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G142" s="29" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>12</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F143" s="28" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G143" s="29" t="n">
-        <v>1.36</v>
+        <v>5.5</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>10.88</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5095,35 +5091,35 @@
         <v>42</v>
       </c>
       <c r="F144" s="28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G144" s="29" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>105.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G145" s="29" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>126.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5137,35 +5133,35 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G146" s="29" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>20</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G147" s="29" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>6</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5179,14 +5175,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G148" s="29" t="n">
-        <v>1.1</v>
+        <v>2.85</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>57.2</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5200,14 +5196,14 @@
         <v>42</v>
       </c>
       <c r="F149" s="28" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G149" s="29" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>54.9</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5217,39 +5213,37 @@
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E150" s="12"/>
       <c r="F150" s="28" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G150" s="29" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>122.55</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B151" s="19"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F151" s="28" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G151" s="29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>108.8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5258,43 +5252,49 @@
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="D152" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F152" s="28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G152" s="29" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>61.2</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B153" s="12"/>
+        <v>215</v>
+      </c>
+      <c r="B153" s="19"/>
       <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
+      <c r="D153" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="E153" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F153" s="28" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G153" s="29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>135</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
@@ -5305,82 +5305,38 @@
         <v>42</v>
       </c>
       <c r="F154" s="28" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G154" s="29" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B155" s="19"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F155" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G155" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="H155" s="16" t="n">
-        <f aca="false">F155*G155</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G156" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="H156" s="16" t="n">
-        <f aca="false">F156*G156</f>
         <v>70</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H157" s="44" t="n">
-        <f aca="false">SUM(H3:H156)</f>
-        <v>17855.09</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H155" s="46" t="n">
+        <f aca="false">SUM(H3:H154)</f>
+        <v>16725.25</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F44">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
@@ -5390,22 +5346,22 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F45">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F94">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F102">
+  <conditionalFormatting sqref="F97:F100">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:F114">
+  <conditionalFormatting sqref="F109:F112">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A137" activeCellId="0" sqref="A137"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4203,14 +4203,14 @@
         <v>42</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G106" s="38" t="n">
         <v>3.1</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>291.4</v>
+        <v>238.7</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4720,14 +4720,14 @@
         <v>42</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="G127" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>2115</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="128" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16725.25</v>
+        <v>16741.55</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D119" activeCellId="0" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4430,14 +4430,14 @@
         <v>42</v>
       </c>
       <c r="F115" s="25" t="n">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>452.76</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16741.55</v>
+        <v>16714.49</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D119" activeCellId="0" sqref="D119"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3988,14 +3988,14 @@
         <v>42</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G97" s="38" t="n">
         <v>3.45</v>
       </c>
       <c r="H97" s="37" t="n">
         <f aca="false">F97*G97</f>
-        <v>293.25</v>
+        <v>265.65</v>
       </c>
       <c r="I97" s="40"/>
     </row>
@@ -4012,14 +4012,14 @@
         <v>42</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G98" s="38" t="n">
         <v>2.9</v>
       </c>
       <c r="H98" s="37" t="n">
         <f aca="false">F98*G98</f>
-        <v>145</v>
+        <v>168.2</v>
       </c>
       <c r="I98" s="40"/>
     </row>
@@ -4036,14 +4036,14 @@
         <v>42</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G99" s="38" t="n">
         <v>4.8</v>
       </c>
       <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>312</v>
+        <v>283.2</v>
       </c>
       <c r="I99" s="40"/>
     </row>
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16714.49</v>
+        <v>16681.29</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4180,14 +4180,14 @@
         <v>42</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G105" s="38" t="n">
         <v>11.7</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>280.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4230,14 +4230,14 @@
         <v>42</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="20" t="n">
         <v>0.83</v>
       </c>
       <c r="H107" s="41" t="n">
         <f aca="false">F107*G107</f>
-        <v>16.6</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4693,14 +4693,14 @@
         <v>179</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G126" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16681.29</v>
+        <v>16378.19</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D148" activeCellId="0" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2778,14 +2778,14 @@
         <v>42</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G44" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2801,14 +2801,14 @@
         <v>42</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G45" s="20" t="n">
         <v>1.75</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>17.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2828,14 +2828,14 @@
         <v>42</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G46" s="20" t="n">
         <v>0.72</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2916,14 +2916,14 @@
         <v>42</v>
       </c>
       <c r="F50" s="25" t="n">
-        <v>600</v>
+        <v>348</v>
       </c>
       <c r="G50" s="20" t="n">
         <v>0.15</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>90</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2989,17 +2989,17 @@
         <v>63</v>
       </c>
       <c r="F53" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="20" t="n">
         <v>5.95</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
         <v>87</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
         <v>88</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
         <v>89</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
         <v>90</v>
       </c>
@@ -3081,14 +3081,14 @@
         <v>42</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3104,14 +3104,14 @@
         <v>42</v>
       </c>
       <c r="F58" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="20" t="n">
         <v>5.35</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>5.35</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3127,14 +3127,14 @@
         <v>42</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3219,14 +3219,14 @@
         <v>42</v>
       </c>
       <c r="F63" s="25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G63" s="20" t="n">
         <v>0.44</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3711,14 +3711,14 @@
         <v>42</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>8.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,14 +3780,14 @@
         <v>42</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G88" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3895,14 +3895,14 @@
         <v>42</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G93" s="33" t="n">
         <v>0.19</v>
       </c>
       <c r="H93" s="34" t="n">
         <f aca="false">F93*G93</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3918,14 +3918,14 @@
         <v>42</v>
       </c>
       <c r="F94" s="35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G94" s="36" t="n">
         <v>0.19</v>
       </c>
       <c r="H94" s="37" t="n">
         <f aca="false">F94*G94</f>
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3941,14 +3941,14 @@
         <v>42</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G95" s="20" t="n">
         <v>0.2</v>
       </c>
       <c r="H95" s="34" t="n">
         <f aca="false">F95*G95</f>
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3964,14 +3964,14 @@
         <v>42</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G96" s="38" t="n">
         <v>1</v>
       </c>
       <c r="H96" s="37" t="n">
         <f aca="false">F96*G96</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I96" s="39"/>
     </row>
@@ -4108,14 +4108,14 @@
         <v>42</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G102" s="38" t="n">
         <v>4</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4132,14 +4132,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G103" s="38" t="n">
         <v>0.8</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="I103" s="40"/>
     </row>
@@ -4156,14 +4156,14 @@
         <v>42</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G104" s="38" t="n">
         <v>1.8</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="I104" s="40"/>
     </row>
@@ -4253,14 +4253,14 @@
         <v>42</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="G108" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H108" s="16" t="n">
         <f aca="false">F108*G108</f>
-        <v>507.6</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4457,14 +4457,14 @@
         <v>42</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G116" s="20" t="n">
         <v>2.85</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>17.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4480,14 +4480,14 @@
         <v>42</v>
       </c>
       <c r="F117" s="25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>3.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4503,14 +4503,14 @@
         <v>42</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>37.7</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4530,14 +4530,14 @@
         <v>42</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G119" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>6.88</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5049,14 +5049,14 @@
         <v>42</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G142" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>105.6</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5070,14 +5070,14 @@
         <v>42</v>
       </c>
       <c r="F143" s="28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G143" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>126.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5091,14 +5091,14 @@
         <v>42</v>
       </c>
       <c r="F144" s="28" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G144" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>20</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5112,14 +5112,14 @@
         <v>42</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G145" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5133,14 +5133,14 @@
         <v>42</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G146" s="29" t="n">
         <v>1.1</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>57.2</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5154,14 +5154,14 @@
         <v>42</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G147" s="29" t="n">
         <v>0.9</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>54.9</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5175,14 +5175,14 @@
         <v>42</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148" s="29" t="n">
         <v>2.85</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>122.55</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5215,14 +5215,14 @@
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G150" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>61.2</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16378.19</v>
+        <v>16106.58</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1168,8 +1168,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D148" activeCellId="0" sqref="D148"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2212,14 +2212,14 @@
         <v>33</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H22" s="16" t="n">
         <f aca="false">F22*G22</f>
-        <v>639.8</v>
+        <v>480.764</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5318,7 +5318,7 @@
     <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H155" s="46" t="n">
         <f aca="false">SUM(H3:H154)</f>
-        <v>16106.58</v>
+        <v>15947.544</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$154</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$155</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$138</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="219">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -146,6 +146,12 @@
     <t xml:space="preserve">Bindello cotone nero</t>
   </si>
   <si>
+    <t xml:space="preserve">Buste Imbottite 29x42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negrisolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buste Plastica forate soffietto</t>
   </si>
   <si>
@@ -270,9 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">Custodie libretti certificazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negrisolo</t>
   </si>
   <si>
     <t xml:space="preserve">Dorsini rileg 8mm</t>
@@ -1169,7 +1172,7 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2299,50 +2302,77 @@
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
     </row>
-    <row r="24" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+    <row r="24" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="25" t="n">
-        <v>0</v>
+      <c r="E24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>60</v>
       </c>
       <c r="G24" s="20" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
     </row>
     <row r="25" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G25" s="20" t="n">
-        <v>0.98</v>
+        <v>3</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2352,71 +2382,71 @@
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G26" s="20" t="n">
-        <v>6</v>
+        <v>0.98</v>
       </c>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="20" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G28" s="20" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H28" s="16" t="n">
         <f aca="false">F28*G28</f>
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -2427,58 +2457,58 @@
         <v>14</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H29" s="16" t="n">
         <f aca="false">F29*G29</f>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="A30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="G30" s="29" t="n">
-        <v>1.14</v>
+      <c r="F30" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="H30" s="16" t="n">
         <f aca="false">F30*G30</f>
-        <v>28.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="A31" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="20" t="n">
-        <v>8.5</v>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="G31" s="29" t="n">
+        <v>1.14</v>
       </c>
       <c r="H31" s="16" t="n">
         <f aca="false">F31*G31</f>
-        <v>17</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2486,379 +2516,379 @@
         <v>52</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="F32" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="20" t="n">
-        <v>27.44</v>
+        <v>8.5</v>
       </c>
       <c r="H32" s="16" t="n">
         <f aca="false">F32*G32</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" s="25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>17</v>
+        <v>27.44</v>
       </c>
       <c r="H33" s="16" t="n">
         <f aca="false">F33*G33</f>
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="D34" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G34" s="20" t="n">
-        <v>7.9</v>
+        <v>17</v>
       </c>
       <c r="H34" s="16" t="n">
         <f aca="false">F34*G34</f>
-        <v>23.7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>59</v>
-      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G35" s="20" t="n">
-        <v>2.76</v>
+        <v>7.9</v>
       </c>
       <c r="H35" s="16" t="n">
         <f aca="false">F35*G35</f>
-        <v>55.2</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="D36" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G36" s="20" t="n">
-        <v>9.75</v>
+        <v>2.76</v>
       </c>
       <c r="H36" s="16" t="n">
         <f aca="false">F36*G36</f>
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="25" t="n">
-        <v>25</v>
-      </c>
       <c r="G37" s="20" t="n">
-        <v>2.6</v>
+        <v>9.75</v>
       </c>
       <c r="H37" s="16" t="n">
         <f aca="false">F37*G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12" t="n">
-        <v>3.68</v>
+      <c r="F38" s="25" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" s="20" t="n">
+        <v>2.6</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G39" s="20" t="n">
-        <v>3</v>
+      <c r="G39" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="H39" s="16" t="n">
         <f aca="false">F39*G39</f>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="E41" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="25" t="n">
-        <v>170</v>
+        <v>44</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>1.18</v>
+        <v>0.25</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G42" s="20" t="n">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
-        <v>68.6</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="32" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G43" s="20"/>
+        <v>196</v>
+      </c>
+      <c r="G43" s="20" t="n">
+        <v>0.35</v>
+      </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>0</v>
+        <v>68.6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="G44" s="20" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" s="20"/>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="D45" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>5.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="24" t="s">
         <v>76</v>
       </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46" s="20" t="n">
-        <v>0.72</v>
+        <v>1.75</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>0.72</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="D47" s="24" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G47" s="20" t="n">
-        <v>3</v>
+        <v>0.72</v>
       </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2867,24 +2897,26 @@
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24" t="s">
+      <c r="D48" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2893,60 +2925,58 @@
         <v>14</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
-      <c r="D50" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>42</v>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="25" t="n">
-        <v>348</v>
+        <v>10</v>
       </c>
       <c r="G50" s="20" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>52.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" s="25" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>0</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2954,18 +2984,18 @@
         <v>84</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" s="25" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>2.13</v>
+        <v>0.22</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
@@ -2973,53 +3003,53 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F53" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
       <c r="D54" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F54" s="25" t="n">
         <v>2</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>0.7</v>
+        <v>5.95</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
-        <v>1.4</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3029,20 +3059,20 @@
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F55" s="25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
-        <v>9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3052,20 +3082,20 @@
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3075,43 +3105,43 @@
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57" s="25" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="20" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3121,20 +3151,20 @@
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3144,20 +3174,20 @@
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3167,20 +3197,20 @@
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F61" s="25" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
-        <v>43.56</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3190,20 +3220,20 @@
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="F62" s="25" t="n">
-        <v>4</v>
-      </c>
       <c r="G62" s="20" t="n">
-        <v>4.9</v>
+        <v>1.98</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>19.6</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3213,106 +3243,108 @@
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F63" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>0.44</v>
+        <v>4.9</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>2.2</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="E64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="G64" s="29" t="n">
-        <v>4.85</v>
+        <v>44</v>
+      </c>
+      <c r="F64" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" s="20" t="n">
+        <v>0.44</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>53.35</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="28" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G65" s="29" t="n">
-        <v>5.04</v>
+        <v>4.85</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>151.2</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24" t="s">
-        <v>100</v>
-      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G66" s="20" t="n">
-        <v>8.3</v>
+      <c r="F66" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G66" s="29" t="n">
+        <v>5.04</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>83</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24" t="s">
-        <v>42</v>
+      <c r="D67" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67" s="20" t="n">
-        <v>0.75</v>
+        <v>8.3</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3321,21 +3353,19 @@
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D68" s="24"/>
       <c r="E68" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G68" s="20" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3345,43 +3375,43 @@
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G69" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G70" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3390,19 +3420,21 @@
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="D71" s="24" t="s">
+        <v>105</v>
+      </c>
       <c r="E71" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G71" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>210.7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3416,14 +3448,14 @@
         <v>14</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>49</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3437,14 +3469,14 @@
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>49.3</v>
+        <v>10</v>
       </c>
       <c r="G73" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>241.57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3455,17 +3487,17 @@
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>18</v>
+        <v>49.3</v>
       </c>
       <c r="G74" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>603</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3476,17 +3508,17 @@
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>368.5</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3497,17 +3529,17 @@
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>73.1</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3516,44 +3548,42 @@
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
-      <c r="D77" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="D77" s="24"/>
       <c r="E77" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>204</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3563,20 +3593,20 @@
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>7.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3586,20 +3616,20 @@
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G80" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3609,20 +3639,20 @@
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3632,20 +3662,20 @@
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3661,14 +3691,14 @@
         <v>22</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G83" s="20" t="n">
         <v>0.3</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3678,70 +3708,70 @@
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G84" s="20" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>76</v>
-      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G85" s="20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
+      <c r="B86" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="D86" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G86" s="20" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>3.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3751,20 +3781,20 @@
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3774,20 +3804,20 @@
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3797,20 +3827,20 @@
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>12.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3820,20 +3850,20 @@
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3843,16 +3873,16 @@
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F91" s="25" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
@@ -3866,10 +3896,10 @@
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F92" s="25" t="n">
         <v>0</v>
@@ -3889,18 +3919,18 @@
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
       <c r="D93" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F93" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G93" s="33" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H93" s="34" t="n">
+      <c r="G93" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
         <v>0</v>
       </c>
@@ -3912,18 +3942,18 @@
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="F94" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G94" s="36" t="n">
+      <c r="G94" s="33" t="n">
         <v>0.19</v>
       </c>
-      <c r="H94" s="37" t="n">
+      <c r="H94" s="34" t="n">
         <f aca="false">F94*G94</f>
         <v>0</v>
       </c>
@@ -3935,20 +3965,20 @@
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G95" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H95" s="34" t="n">
+        <v>44</v>
+      </c>
+      <c r="F95" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H95" s="37" t="n">
         <f aca="false">F95*G95</f>
-        <v>2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3958,22 +3988,21 @@
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G96" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="34" t="n">
         <f aca="false">F96*G96</f>
-        <v>4</v>
-      </c>
-      <c r="I96" s="39"/>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
@@ -3982,44 +4011,44 @@
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G97" s="38" t="n">
-        <v>3.45</v>
+        <v>1</v>
       </c>
       <c r="H97" s="37" t="n">
         <f aca="false">F97*G97</f>
-        <v>265.65</v>
-      </c>
-      <c r="I97" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G98" s="38" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H98" s="37" t="n">
         <f aca="false">F98*G98</f>
-        <v>168.2</v>
+        <v>265.65</v>
       </c>
       <c r="I98" s="40"/>
     </row>
@@ -4030,20 +4059,20 @@
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G99" s="38" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>283.2</v>
+        <v>168.2</v>
       </c>
       <c r="I99" s="40"/>
     </row>
@@ -4054,20 +4083,20 @@
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G100" s="38" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>0</v>
+        <v>283.2</v>
       </c>
       <c r="I100" s="40"/>
     </row>
@@ -4078,20 +4107,20 @@
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G101" s="38" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I101" s="40"/>
     </row>
@@ -4102,20 +4131,20 @@
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G102" s="38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="I102" s="40"/>
     </row>
@@ -4126,20 +4155,20 @@
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G103" s="38" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>0.8</v>
+        <v>48</v>
       </c>
       <c r="I103" s="40"/>
     </row>
@@ -4150,20 +4179,20 @@
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="38" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I104" s="40"/>
     </row>
@@ -4174,320 +4203,321 @@
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F105" s="25" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="38" t="n">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
         <v>0</v>
       </c>
+      <c r="I105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G106" s="38" t="n">
-        <v>3.1</v>
+        <v>11.7</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
-        <v>238.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>146</v>
-      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
       <c r="D107" s="24" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G107" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H107" s="41" t="n">
+        <v>77</v>
+      </c>
+      <c r="G107" s="38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>8.3</v>
+        <v>238.7</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G108" s="20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H108" s="16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H108" s="41" t="n">
         <f aca="false">F108*G108</f>
-        <v>404.2</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
       <c r="D109" s="24" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G109" s="20" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H109" s="16" t="n">
         <f aca="false">F109*G109</f>
-        <v>157.5</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>153</v>
-      </c>
       <c r="E110" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G110" s="20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H110" s="16" t="n">
         <f aca="false">F110*G110</f>
-        <v>10</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>153</v>
-      </c>
       <c r="E111" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G111" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="44" t="s">
-        <v>62</v>
+      <c r="C112" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G112" s="20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>62</v>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2.4</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>144</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F114" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" s="16" t="n">
-        <v>6</v>
+      <c r="D114" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="G114" s="20" t="n">
+        <v>2.4</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F115" s="14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F115" s="25" t="n">
-        <v>645</v>
-      </c>
-      <c r="G115" s="20" t="n">
-        <v>0.66</v>
+      <c r="G115" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>425.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B116" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="E116" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F116" s="25" t="n">
-        <v>4</v>
+        <v>645</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>11.4</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
       <c r="D117" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F117" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G117" s="20" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>5.16</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4497,70 +4527,70 @@
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>26.1</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>170</v>
-      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>5.16</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
       <c r="D120" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>0</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4570,20 +4600,20 @@
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4593,20 +4623,20 @@
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4616,20 +4646,20 @@
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>215.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4645,14 +4675,14 @@
         <v>14</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>247.5</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4661,161 +4691,161 @@
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E125" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>5.74</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="24" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>7</v>
+        <v>2.87</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B127" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="F127" s="25" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>2184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
       <c r="E128" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F128" s="25" t="n">
-        <v>1</v>
+        <v>728</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="129" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="20" t="n">
         <v>1.96</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G129" s="29" t="n">
-        <v>1.97</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>13.79</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24" t="s">
-        <v>187</v>
-      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
       <c r="E130" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="25" t="n">
-        <v>195</v>
-      </c>
-      <c r="G130" s="20" t="n">
+      <c r="F130" s="28" t="n">
         <v>7</v>
+      </c>
+      <c r="G130" s="29" t="n">
+        <v>1.97</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>1365</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="25" t="n">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G131" s="20" t="n">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>134.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4831,56 +4861,58 @@
         <v>14</v>
       </c>
       <c r="F132" s="25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G132" s="20" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>221</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E133" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F133" s="28" t="n">
+      <c r="F133" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="G133" s="29" t="n">
-        <v>1.43</v>
+      <c r="G133" s="20" t="n">
+        <v>2.21</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G134" s="20" t="n">
-        <v>8.5</v>
+      <c r="F134" s="28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" s="29" t="n">
+        <v>1.43</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4894,14 +4926,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G135" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4910,90 +4942,90 @@
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
-      <c r="D136" s="24" t="s">
-        <v>194</v>
-      </c>
+      <c r="D136" s="24"/>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G136" s="20" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F137" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="G137" s="29" t="n">
-        <v>2.97</v>
+      <c r="F137" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G137" s="20" t="n">
+        <v>47</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>65.34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F138" s="25" t="n">
-        <v>180</v>
-      </c>
-      <c r="G138" s="20" t="n">
-        <v>1.36</v>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G138" s="29" t="n">
+        <v>2.97</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>244.8</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="27" t="s">
+      <c r="A139" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" s="29" t="n">
-        <v>5</v>
+      <c r="E139" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F139" s="25" t="n">
+        <v>180</v>
+      </c>
+      <c r="G139" s="20" t="n">
+        <v>1.36</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>0</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5004,17 +5036,17 @@
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F140" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5025,38 +5057,38 @@
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F141" s="28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G141" s="29" t="n">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G142" s="29" t="n">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>101.2</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5067,17 +5099,17 @@
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F143" s="28" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G143" s="29" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>137.5</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5088,59 +5120,59 @@
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F144" s="28" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G144" s="29" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>21.2</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G145" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G146" s="29" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>58.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5151,17 +5183,17 @@
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G147" s="29" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>45.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5172,17 +5204,17 @@
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G148" s="29" t="n">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>119.7</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5193,17 +5225,17 @@
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F149" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="F149" s="28" t="n">
-        <v>32</v>
-      </c>
       <c r="G149" s="29" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>108.8</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5213,117 +5245,137 @@
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="E150" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F150" s="28" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G150" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>64.6</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="E151" s="12"/>
       <c r="F151" s="28" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G151" s="29" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>135</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B152" s="19"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="12"/>
-      <c r="D152" s="12" t="s">
-        <v>214</v>
-      </c>
+      <c r="D152" s="12"/>
       <c r="E152" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F152" s="28" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G152" s="29" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>357</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F153" s="28" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G153" s="29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F154" s="28" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="G154" s="29" t="n">
         <v>10</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B155" s="19"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F155" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H155" s="16" t="n">
+        <f aca="false">F155*G155</f>
         <v>70</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H155" s="46" t="n">
-        <f aca="false">SUM(H3:H154)</f>
-        <v>15947.544</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H156" s="46" t="n">
+        <f aca="false">SUM(H3:H155)</f>
+        <v>15977.544</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5331,37 +5383,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F43:F44">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F100">
+  <conditionalFormatting sqref="F98:F101">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F112">
+  <conditionalFormatting sqref="F110:F113">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1171,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3511,14 +3511,14 @@
         <v>44</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>603</v>
+        <v>1172.5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3532,14 +3532,14 @@
         <v>44</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>368.5</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3553,14 +3553,14 @@
         <v>44</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G77" s="20" t="n">
         <v>4.3</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>73.1</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5371,7 +5371,7 @@
     <row r="156" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H156" s="46" t="n">
         <f aca="false">SUM(H3:H155)</f>
-        <v>15977.544</v>
+        <v>16589.144</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1171,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D78" activeCellId="0" sqref="D78"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2785,14 +2785,14 @@
         <v>44</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="G43" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>68.6</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5371,7 +5371,7 @@
     <row r="156" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H156" s="46" t="n">
         <f aca="false">SUM(H3:H155)</f>
-        <v>16589.144</v>
+        <v>16624.144</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$155</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$138</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="223">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -164,6 +164,12 @@
     <t xml:space="preserve">Buste Plastica forate f.to 22x30</t>
   </si>
   <si>
+    <t xml:space="preserve">6/92019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
     <t xml:space="preserve">lyreco</t>
   </si>
   <si>
@@ -257,6 +263,9 @@
     <t xml:space="preserve">Correttore  Topolino</t>
   </si>
   <si>
+    <t xml:space="preserve">6/9/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Correttore liquido</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t xml:space="preserve">fermagli dorati n7</t>
   </si>
   <si>
+    <t xml:space="preserve">Faldoni amministrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lireco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fermagli n 77 mm</t>
   </si>
   <si>
@@ -467,7 +485,7 @@
     <t xml:space="preserve">Punti graffettatrice (x 1000)</t>
   </si>
   <si>
-    <t xml:space="preserve">20000</t>
+    <t xml:space="preserve">10000</t>
   </si>
   <si>
     <t xml:space="preserve">Raccoglitori Dispense</t>
@@ -506,9 +524,6 @@
     <t xml:space="preserve">21/2/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sapone lavamani per dispenser</t>
   </si>
   <si>
@@ -525,9 +540,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scotch da Pacchi Avana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">Scotch in Carta</t>
@@ -1171,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2379,28 +2391,32 @@
       <c r="A26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="D26" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G26" s="20" t="n">
         <v>0.98</v>
       </c>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>98</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -2423,7 +2439,7 @@
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -2434,19 +2450,19 @@
         <v>44</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="20" t="n">
         <v>3.5</v>
       </c>
       <c r="H28" s="16" t="n">
         <f aca="false">F28*G28</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -2469,7 +2485,7 @@
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -2492,7 +2508,7 @@
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2513,7 +2529,7 @@
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -2521,7 +2537,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F32" s="25" t="n">
         <v>2</v>
@@ -2536,17 +2552,17 @@
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="F33" s="25" t="n">
         <v>0</v>
@@ -2561,17 +2577,17 @@
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" s="25" t="n">
         <v>6</v>
@@ -2586,7 +2602,7 @@
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -2594,7 +2610,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F35" s="25" t="n">
         <v>3</v>
@@ -2609,19 +2625,19 @@
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F36" s="25" t="n">
         <v>20</v>
@@ -2636,7 +2652,7 @@
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
@@ -2659,15 +2675,15 @@
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F38" s="25" t="n">
         <v>25</v>
@@ -2682,7 +2698,7 @@
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -2705,7 +2721,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2728,13 +2744,13 @@
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>43</v>
@@ -2755,7 +2771,7 @@
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2776,7 +2792,7 @@
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2797,7 +2813,7 @@
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -2816,13 +2832,13 @@
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>43</v>
@@ -2843,10 +2859,14 @@
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="D46" s="24" t="s">
         <v>43</v>
       </c>
@@ -2854,25 +2874,25 @@
         <v>44</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G46" s="20" t="n">
         <v>1.75</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>5.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>75</v>
-      </c>
       <c r="C47" s="24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>43</v>
@@ -2893,12 +2913,12 @@
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>14</v>
@@ -2916,7 +2936,7 @@
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2937,7 +2957,7 @@
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2958,7 +2978,7 @@
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -2981,7 +3001,7 @@
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="24"/>
@@ -3004,7 +3024,7 @@
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3027,19 +3047,19 @@
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="25" t="n">
         <v>2</v>
@@ -3054,7 +3074,7 @@
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
@@ -3077,7 +3097,7 @@
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -3100,7 +3120,7 @@
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -3123,7 +3143,7 @@
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -3146,53 +3166,55 @@
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="D59" s="24" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>10.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
-      <c r="D60" s="24" t="s">
-        <v>43</v>
-      </c>
+      <c r="D60" s="24"/>
       <c r="E60" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F60" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -3203,65 +3225,65 @@
         <v>44</v>
       </c>
       <c r="F61" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F62" s="25" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G62" s="20" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>43.56</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E63" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="F63" s="25" t="n">
-        <v>4</v>
-      </c>
       <c r="G63" s="20" t="n">
-        <v>4.9</v>
+        <v>1.98</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>19.6</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -3269,198 +3291,200 @@
         <v>43</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F64" s="25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>0.44</v>
+        <v>4.9</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>2.2</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="E65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="G65" s="29" t="n">
-        <v>4.85</v>
+        <v>44</v>
+      </c>
+      <c r="F65" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" s="20" t="n">
+        <v>0.44</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>53.35</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="28" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G66" s="29" t="n">
-        <v>5.04</v>
+        <v>4.85</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>151.2</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24" t="s">
-        <v>101</v>
-      </c>
+      <c r="A67" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G67" s="20" t="n">
-        <v>8.3</v>
+      <c r="F67" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G67" s="29" t="n">
+        <v>5.04</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>83</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24" t="s">
-        <v>44</v>
+      <c r="D68" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="20" t="n">
-        <v>0.75</v>
+        <v>8.3</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="D69" s="24"/>
       <c r="E69" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G69" s="20" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G70" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G71" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="D72" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="E72" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G72" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>210.7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
@@ -3469,19 +3493,19 @@
         <v>14</v>
       </c>
       <c r="F73" s="25" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G73" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>49</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
@@ -3490,40 +3514,40 @@
         <v>14</v>
       </c>
       <c r="F74" s="25" t="n">
-        <v>49.3</v>
+        <v>10</v>
       </c>
       <c r="G74" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>241.57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
-        <v>35</v>
+        <v>49.3</v>
       </c>
       <c r="G75" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>1172.5</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3532,19 +3556,19 @@
         <v>44</v>
       </c>
       <c r="F76" s="25" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G76" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>402</v>
+        <v>1172.5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
@@ -3553,157 +3577,155 @@
         <v>44</v>
       </c>
       <c r="F77" s="25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>81.7</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
-      <c r="D78" s="24" t="s">
-        <v>114</v>
-      </c>
+      <c r="D78" s="24"/>
       <c r="E78" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G78" s="20" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>204</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G79" s="20" t="n">
         <v>8.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="25" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>7.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="25" t="n">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G82" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F83" s="25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G83" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -3714,49 +3736,45 @@
         <v>22</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G84" s="20" t="n">
         <v>0.3</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G85" s="20" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="24" t="s">
         <v>43</v>
       </c>
@@ -3764,22 +3782,26 @@
         <v>44</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G86" s="20" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
+        <v>128</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="D87" s="24" t="s">
         <v>43</v>
       </c>
@@ -3787,19 +3809,19 @@
         <v>44</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>3.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
@@ -3810,19 +3832,19 @@
         <v>44</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
@@ -3833,19 +3855,19 @@
         <v>44</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -3853,22 +3875,22 @@
         <v>43</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>12.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -3876,22 +3898,22 @@
         <v>43</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="24"/>
@@ -3905,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
@@ -3914,7 +3936,7 @@
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
@@ -3937,7 +3959,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
@@ -3950,63 +3972,71 @@
       <c r="F94" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G94" s="33" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H94" s="34" t="n">
+      <c r="G94" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="D95" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F95" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="36" t="n">
+      <c r="F95" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G95" s="33" t="n">
         <v>0.19</v>
       </c>
-      <c r="H95" s="37" t="n">
+      <c r="H95" s="34" t="n">
         <f aca="false">F95*G95</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="D96" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E96" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G96" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H96" s="34" t="n">
+      <c r="F96" s="35" t="n">
+        <v>50</v>
+      </c>
+      <c r="G96" s="36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H96" s="37" t="n">
         <f aca="false">F96*G96</f>
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
@@ -4017,164 +4047,163 @@
         <v>44</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G97" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G97" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H97" s="34" t="n">
         <f aca="false">F97*G97</f>
-        <v>4</v>
-      </c>
-      <c r="I97" s="39"/>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G98" s="38" t="n">
-        <v>3.45</v>
+        <v>1</v>
       </c>
       <c r="H98" s="37" t="n">
         <f aca="false">F98*G98</f>
-        <v>265.65</v>
-      </c>
-      <c r="I98" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="I98" s="39"/>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E99" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G99" s="38" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H99" s="37" t="n">
         <f aca="false">F99*G99</f>
-        <v>168.2</v>
+        <v>265.65</v>
       </c>
       <c r="I99" s="40"/>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G100" s="38" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H100" s="37" t="n">
         <f aca="false">F100*G100</f>
-        <v>283.2</v>
+        <v>168.2</v>
       </c>
       <c r="I100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E101" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G101" s="38" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H101" s="37" t="n">
         <f aca="false">F101*G101</f>
-        <v>0</v>
+        <v>283.2</v>
       </c>
       <c r="I101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E102" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G102" s="38" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H102" s="37" t="n">
         <f aca="false">F102*G102</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I102" s="40"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G103" s="38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H103" s="37" t="n">
         <f aca="false">F103*G103</f>
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="I103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
@@ -4185,20 +4214,20 @@
         <v>44</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G104" s="38" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H104" s="37" t="n">
         <f aca="false">F104*G104</f>
-        <v>0.8</v>
+        <v>48</v>
       </c>
       <c r="I104" s="40"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
@@ -4209,25 +4238,25 @@
         <v>44</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="38" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H105" s="37" t="n">
         <f aca="false">F105*G105</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>44</v>
@@ -4236,296 +4265,297 @@
         <v>0</v>
       </c>
       <c r="G106" s="38" t="n">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="H106" s="37" t="n">
         <f aca="false">F106*G106</f>
         <v>0</v>
       </c>
+      <c r="I106" s="40"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G107" s="38" t="n">
-        <v>3.1</v>
+        <v>11.7</v>
       </c>
       <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>238.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>147</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
       <c r="D108" s="24" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H108" s="41" t="n">
+        <v>77</v>
+      </c>
+      <c r="G108" s="38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H108" s="37" t="n">
         <f aca="false">F108*G108</f>
-        <v>8.3</v>
+        <v>238.7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>153</v>
+      </c>
       <c r="D109" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G109" s="20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H109" s="16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H109" s="41" t="n">
         <f aca="false">F109*G109</f>
-        <v>404.2</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>151</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="24" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G110" s="20" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H110" s="16" t="n">
         <f aca="false">F110*G110</f>
-        <v>157.5</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G111" s="20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H111" s="16" t="n">
         <f aca="false">F111*G111</f>
-        <v>10</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="44" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G113" s="20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="25" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G114" s="20" t="n">
         <v>2.4</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>144</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F115" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" s="16" t="n">
-        <v>6</v>
+      <c r="A115" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="25" t="n">
+        <v>60</v>
+      </c>
+      <c r="G115" s="20" t="n">
+        <v>2.4</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F116" s="14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F116" s="25" t="n">
-        <v>645</v>
-      </c>
-      <c r="G116" s="20" t="n">
-        <v>0.66</v>
+      <c r="G116" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>425.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>167</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
       <c r="D117" s="24" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F117" s="25" t="n">
-        <v>4</v>
+        <v>645</v>
       </c>
       <c r="G117" s="20" t="n">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>11.4</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
+        <v>171</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="D118" s="24" t="s">
         <v>43</v>
       </c>
@@ -4533,19 +4563,19 @@
         <v>44</v>
       </c>
       <c r="F118" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>5.16</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -4556,25 +4586,25 @@
         <v>44</v>
       </c>
       <c r="F119" s="25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G119" s="20" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>26.1</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>43</v>
@@ -4583,22 +4613,26 @@
         <v>44</v>
       </c>
       <c r="F120" s="25" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>5.16</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
+        <v>174</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>175</v>
+      </c>
       <c r="D121" s="24" t="s">
         <v>43</v>
       </c>
@@ -4606,19 +4640,19 @@
         <v>44</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>0</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4629,19 +4663,19 @@
         <v>44</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4652,42 +4686,42 @@
         <v>44</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>215.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4698,182 +4732,182 @@
         <v>14</v>
       </c>
       <c r="F125" s="25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>247.5</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
+      <c r="D126" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E126" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>5.74</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>26</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="24" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>7</v>
+        <v>2.87</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="D128" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E128" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="F128" s="25" t="n">
-        <v>728</v>
+        <v>5</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>2184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+      <c r="B129" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="E129" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>1</v>
+        <v>728</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="130" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="20" t="n">
         <v>1.96</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G130" s="29" t="n">
-        <v>1.97</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>13.79</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24" t="s">
-        <v>188</v>
-      </c>
+      <c r="A131" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
       <c r="E131" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F131" s="25" t="n">
-        <v>195</v>
-      </c>
-      <c r="G131" s="20" t="n">
+      <c r="F131" s="28" t="n">
         <v>7</v>
+      </c>
+      <c r="G131" s="29" t="n">
+        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>1365</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="25" t="n">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G132" s="20" t="n">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>134.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -4884,61 +4918,63 @@
         <v>14</v>
       </c>
       <c r="F133" s="25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>221</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="A134" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="E134" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="28" t="n">
+      <c r="F134" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="G134" s="29" t="n">
-        <v>1.43</v>
+      <c r="G134" s="20" t="n">
+        <v>2.21</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24"/>
+      <c r="A135" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G135" s="20" t="n">
-        <v>8.5</v>
+      <c r="F135" s="28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" s="29" t="n">
+        <v>1.43</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -4947,132 +4983,132 @@
         <v>14</v>
       </c>
       <c r="F136" s="25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G136" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
-      <c r="D137" s="24" t="s">
-        <v>195</v>
-      </c>
+      <c r="D137" s="24"/>
       <c r="E137" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="25" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="A138" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="G138" s="29" t="n">
-        <v>2.97</v>
+      <c r="F138" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G138" s="20" t="n">
+        <v>47</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>65.34</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D139" s="24" t="s">
+      <c r="A139" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E139" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F139" s="25" t="n">
-        <v>180</v>
-      </c>
-      <c r="G139" s="20" t="n">
-        <v>1.36</v>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G139" s="29" t="n">
+        <v>2.97</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>244.8</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" s="29" t="n">
-        <v>5</v>
+      <c r="B140" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F140" s="25" t="n">
+        <v>180</v>
+      </c>
+      <c r="G140" s="20" t="n">
+        <v>1.36</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>0</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F141" s="28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5081,40 +5117,40 @@
         <v>44</v>
       </c>
       <c r="F142" s="28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G142" s="29" t="n">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B143" s="19"/>
+        <v>207</v>
+      </c>
+      <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F143" s="28" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G143" s="29" t="n">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>101.2</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="12"/>
@@ -5123,19 +5159,19 @@
         <v>44</v>
       </c>
       <c r="F144" s="28" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G144" s="29" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>137.5</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5144,61 +5180,61 @@
         <v>44</v>
       </c>
       <c r="F145" s="28" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G145" s="29" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>21.2</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B146" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="B146" s="19"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F146" s="28" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G146" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>211</v>
+      </c>
+      <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F147" s="28" t="n">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G147" s="29" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>58.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="12"/>
@@ -5207,19 +5243,19 @@
         <v>44</v>
       </c>
       <c r="F148" s="28" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G148" s="29" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>45.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5228,19 +5264,19 @@
         <v>44</v>
       </c>
       <c r="F149" s="28" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G149" s="29" t="n">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>119.7</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5249,134 +5285,154 @@
         <v>44</v>
       </c>
       <c r="F150" s="28" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G150" s="29" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>108.8</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="E151" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F151" s="28" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G151" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>64.6</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B152" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="E152" s="12"/>
       <c r="F152" s="28" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G152" s="29" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>135</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B153" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="B153" s="12"/>
       <c r="C153" s="12"/>
-      <c r="D153" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F153" s="28" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G153" s="29" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>357</v>
+        <v>135</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F154" s="28" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G154" s="29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F155" s="28" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="G155" s="29" t="n">
         <v>10</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B156" s="19"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F156" s="28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="H156" s="16" t="n">
+        <f aca="false">F156*G156</f>
         <v>70</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H156" s="46" t="n">
-        <f aca="false">SUM(H3:H155)</f>
-        <v>16624.144</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H157" s="46" t="n">
+        <f aca="false">SUM(H3:H156)</f>
+        <v>16856.694</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5388,7 +5444,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
@@ -5403,17 +5459,17 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F101">
+  <conditionalFormatting sqref="F99:F102">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:F113">
+  <conditionalFormatting sqref="F111:F114">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="224">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t xml:space="preserve">profumo per bagno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -1183,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3878,14 +3881,14 @@
         <v>44</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4277,28 +4280,32 @@
       <c r="A107" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
+      <c r="B107" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>150</v>
+      </c>
       <c r="D107" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G107" s="38" t="n">
         <v>11.7</v>
       </c>
       <c r="H107" s="37" t="n">
         <f aca="false">F107*G107</f>
-        <v>0</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="24"/>
@@ -4321,13 +4328,13 @@
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D109" s="24" t="s">
         <v>43</v>
@@ -4348,7 +4355,7 @@
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
@@ -4371,16 +4378,16 @@
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>44</v>
@@ -4398,7 +4405,7 @@
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>62</v>
@@ -4407,7 +4414,7 @@
         <v>81</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>44</v>
@@ -4425,16 +4432,16 @@
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>44</v>
@@ -4452,7 +4459,7 @@
     </row>
     <row r="114" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
@@ -4475,10 +4482,10 @@
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>47</v>
@@ -4502,35 +4509,39 @@
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="B116" s="19" t="n">
+        <v>43714</v>
+      </c>
+      <c r="C116" s="12" t="n">
+        <v>12</v>
+      </c>
       <c r="D116" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F116" s="14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G116" s="16" t="n">
         <v>6</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>44</v>
@@ -4548,7 +4559,7 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>71</v>
@@ -4575,7 +4586,7 @@
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
@@ -4598,7 +4609,7 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>79</v>
@@ -4625,13 +4636,13 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>43</v>
@@ -4652,7 +4663,7 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
@@ -4675,7 +4686,7 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
@@ -4698,7 +4709,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
@@ -4721,7 +4732,7 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
@@ -4744,7 +4755,7 @@
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -4767,7 +4778,7 @@
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
@@ -4788,10 +4799,10 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>96</v>
@@ -4800,7 +4811,7 @@
         <v>26</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F128" s="25" t="n">
         <v>5</v>
@@ -4815,16 +4826,16 @@
     </row>
     <row r="129" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E129" s="24" t="s">
         <v>44</v>
@@ -4842,7 +4853,7 @@
     </row>
     <row r="130" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
@@ -4863,7 +4874,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4884,12 +4895,12 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>14</v>
@@ -4907,7 +4918,7 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
@@ -4930,7 +4941,7 @@
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -4953,7 +4964,7 @@
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4974,7 +4985,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
@@ -4995,7 +5006,7 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
@@ -5016,12 +5027,12 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>14</v>
@@ -5039,7 +5050,7 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -5060,16 +5071,16 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E140" s="24" t="s">
         <v>44</v>
@@ -5087,7 +5098,7 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5108,7 +5119,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5129,7 +5140,7 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5150,7 +5161,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B144" s="19"/>
       <c r="C144" s="12"/>
@@ -5171,7 +5182,7 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="12"/>
@@ -5192,7 +5203,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B146" s="19"/>
       <c r="C146" s="12"/>
@@ -5213,7 +5224,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5234,7 +5245,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="12"/>
@@ -5255,7 +5266,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5276,7 +5287,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5297,7 +5308,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5318,7 +5329,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
@@ -5337,7 +5348,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5358,12 +5369,12 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>44</v>
@@ -5381,12 +5392,12 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>44</v>
@@ -5404,12 +5415,12 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>44</v>
@@ -5428,7 +5439,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="46" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>16856.694</v>
+        <v>17095.494</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1186,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C92" activeCellId="0" sqref="C92"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,14 +2230,14 @@
         <v>33</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="G22" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H22" s="16" t="n">
         <f aca="false">F22*G22</f>
-        <v>480.764</v>
+        <v>709.264</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5439,7 +5439,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="46" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>17095.494</v>
+        <v>17323.994</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1186,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2180,14 +2180,14 @@
         <v>11</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2280,14 +2280,14 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -2735,14 +2735,14 @@
         <v>44</v>
       </c>
       <c r="F40" s="14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5439,7 +5439,7 @@
     <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H157" s="46" t="n">
         <f aca="false">SUM(H3:H156)</f>
-        <v>17323.994</v>
+        <v>17316.994</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$156</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$139</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$159</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$142</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="227">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -146,10 +146,19 @@
     <t xml:space="preserve">Bindello cotone nero</t>
   </si>
   <si>
+    <t xml:space="preserve">Buste Bianche con Finestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negrisolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buste Bianche A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buste bianche 33x23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buste Imbottite 29x42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negrisolo</t>
   </si>
   <si>
     <t xml:space="preserve">Buste Plastica forate soffietto</t>
@@ -788,7 +797,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,6 +820,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -887,7 +902,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -977,6 +992,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1153,7 +1172,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1184,10 +1203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1048576"/>
+  <dimension ref="A1:AI162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,8 +2340,12 @@
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="19" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C24" s="12" t="n">
+        <v>1000</v>
+      </c>
       <c r="D24" s="12" t="s">
         <v>41</v>
       </c>
@@ -2330,14 +2353,12 @@
         <v>22</v>
       </c>
       <c r="F24" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" s="20" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="G24" s="23"/>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -2367,871 +2388,954 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
     </row>
-    <row r="25" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+    <row r="25" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20" t="n">
-        <v>3</v>
-      </c>
+      <c r="B25" s="19" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>750</v>
+      </c>
+      <c r="G25" s="23"/>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21"/>
+    </row>
+    <row r="26" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="25" t="n">
-        <v>250</v>
-      </c>
-      <c r="G26" s="20" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="B26" s="19" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C26" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="G26" s="23"/>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="25" t="n">
-        <v>4</v>
+      <c r="B27" s="19"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>60</v>
       </c>
       <c r="G27" s="20" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="25" t="n">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="21"/>
+    </row>
+    <row r="28" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G28" s="20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="16" t="n">
         <f aca="false">F28*G28</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="25" t="n">
-        <v>50</v>
+      <c r="F29" s="26" t="n">
+        <v>250</v>
       </c>
       <c r="G29" s="20" t="n">
-        <v>2</v>
+        <v>0.98</v>
       </c>
       <c r="H29" s="16" t="n">
         <f aca="false">F29*G29</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="25" t="n">
-        <v>100</v>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="26" t="n">
+        <v>4</v>
       </c>
       <c r="G30" s="20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" s="16" t="n">
         <f aca="false">F30*G30</f>
-        <v>200</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="G31" s="29" t="n">
-        <v>1.14</v>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>3.5</v>
       </c>
       <c r="H31" s="16" t="n">
         <f aca="false">F31*G31</f>
-        <v>28.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="25" t="n">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" s="20" t="n">
         <v>2</v>
-      </c>
-      <c r="G32" s="20" t="n">
-        <v>8.5</v>
       </c>
       <c r="H32" s="16" t="n">
         <f aca="false">F32*G32</f>
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="25" t="n">
-        <v>0</v>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="26" t="n">
+        <v>100</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>27.44</v>
+        <v>2</v>
       </c>
       <c r="H33" s="16" t="n">
         <f aca="false">F33*G33</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="G34" s="20" t="n">
-        <v>17</v>
+      <c r="A34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="G34" s="30" t="n">
+        <v>1.14</v>
       </c>
       <c r="H34" s="16" t="n">
         <f aca="false">F34*G34</f>
-        <v>102</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="25" t="n">
-        <v>3</v>
+      <c r="A35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="G35" s="20" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="H35" s="16" t="n">
         <f aca="false">F35*G35</f>
-        <v>23.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="25" t="n">
-        <v>20</v>
+      <c r="E36" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G36" s="20" t="n">
-        <v>2.76</v>
+        <v>27.44</v>
       </c>
       <c r="H36" s="16" t="n">
         <f aca="false">F36*G36</f>
-        <v>55.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="25" t="n">
-        <v>0</v>
+      <c r="A37" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="26" t="n">
+        <v>6</v>
       </c>
       <c r="G37" s="20" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="H37" s="16" t="n">
         <f aca="false">F37*G37</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="25" t="n">
-        <v>25</v>
+      <c r="A38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="26" t="n">
+        <v>3</v>
       </c>
       <c r="G38" s="20" t="n">
-        <v>2.6</v>
+        <v>7.9</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12" t="n">
-        <v>3.68</v>
+      <c r="C39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G39" s="20" t="n">
+        <v>2.76</v>
       </c>
       <c r="H39" s="16" t="n">
         <f aca="false">F39*G39</f>
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>6</v>
-      </c>
       <c r="G40" s="20" t="n">
-        <v>3</v>
+        <v>9.75</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
+      <c r="F41" s="26" t="n">
+        <v>25</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="25" t="n">
-        <v>170</v>
-      </c>
-      <c r="G42" s="20" t="n">
-        <v>1.18</v>
+      <c r="G42" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="25" t="n">
-        <v>296</v>
+      <c r="A43" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="G43" s="20" t="n">
-        <v>0.35</v>
+        <v>3</v>
       </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>103.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G44" s="20"/>
+      <c r="D44" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="25" t="n">
-        <v>8</v>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="26" t="n">
+        <v>170</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>8</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="25" t="n">
-        <v>8</v>
+      <c r="A46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="26" t="n">
+        <v>296</v>
       </c>
       <c r="G46" s="20" t="n">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="20" t="n">
-        <v>0.72</v>
-      </c>
+      <c r="F47" s="26" t="n">
+        <v>60</v>
+      </c>
+      <c r="G47" s="20"/>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="25" t="n">
-        <v>25</v>
+      <c r="A48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="26" t="n">
+        <v>8</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="25" t="n">
-        <v>20</v>
+      <c r="D49" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="26" t="n">
+        <v>8</v>
       </c>
       <c r="G49" s="20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="25" t="n">
-        <v>10</v>
+      <c r="A50" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="26" t="n">
+        <v>1</v>
       </c>
       <c r="G50" s="20" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>10</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="25" t="n">
-        <v>348</v>
+      <c r="E51" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="26" t="n">
+        <v>25</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>52.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="25" t="n">
-        <v>0</v>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="26" t="n">
+        <v>20</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>0.22</v>
+        <v>1.8</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="25" t="n">
-        <v>0</v>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="26" t="n">
+        <v>10</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>43</v>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="25" t="n">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="F54" s="26" t="n">
+        <v>348</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>5.95</v>
+        <v>0.15</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24" t="s">
-        <v>43</v>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="25" t="n">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="F55" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="25" t="n">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="F56" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24" t="s">
-        <v>43</v>
+      <c r="D57" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="25" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="F57" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="G57" s="20" t="n">
-        <v>3</v>
+        <v>5.95</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24" t="s">
-        <v>43</v>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="25" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F58" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="s">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>97</v>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="25" t="n">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="F59" s="26" t="n">
+        <v>6</v>
       </c>
       <c r="G59" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="E60" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="25" t="n">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="F60" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>5.35</v>
+        <v>3</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="25" t="n">
+        <v>47</v>
+      </c>
+      <c r="F61" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
@@ -3239,698 +3343,700 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="E62" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="25" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="F62" s="26" t="n">
+        <v>9</v>
       </c>
       <c r="G62" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="25" t="n">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="F63" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>1.98</v>
+        <v>5.35</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>43.56</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24" t="s">
-        <v>43</v>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="25" t="n">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="F64" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>19.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24" t="s">
-        <v>43</v>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="25" t="n">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="F65" s="26" t="n">
+        <v>1</v>
       </c>
       <c r="G65" s="20" t="n">
-        <v>0.44</v>
+        <v>1.5</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="G66" s="29" t="n">
-        <v>4.85</v>
+      <c r="F66" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="G66" s="20" t="n">
+        <v>1.98</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>53.35</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="E67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="28" t="n">
-        <v>30</v>
-      </c>
-      <c r="G67" s="29" t="n">
-        <v>5.04</v>
+        <v>22</v>
+      </c>
+      <c r="F67" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" s="20" t="n">
+        <v>4.9</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>151.2</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
-        <v>107</v>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="25" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="F68" s="26" t="n">
+        <v>5</v>
       </c>
       <c r="G68" s="20" t="n">
-        <v>8.3</v>
+        <v>0.44</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>83</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G69" s="20" t="n">
-        <v>0.75</v>
+      <c r="A69" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G69" s="30" t="n">
+        <v>4.85</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>9</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="25" t="n">
-        <v>31</v>
-      </c>
-      <c r="G70" s="20" t="n">
-        <v>3</v>
+      <c r="A70" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="G70" s="30" t="n">
+        <v>5.04</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>93</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="25" t="n">
-        <v>18</v>
+      <c r="F71" s="26" t="n">
+        <v>10</v>
       </c>
       <c r="G71" s="20" t="n">
-        <v>3</v>
+        <v>8.3</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24" t="s">
+      <c r="A72" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="25" t="n">
-        <v>7</v>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="26" t="n">
+        <v>12</v>
       </c>
       <c r="G72" s="20" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="25" t="n">
-        <v>43</v>
+      <c r="A73" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="26" t="n">
+        <v>31</v>
       </c>
       <c r="G73" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>210.7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="25" t="n">
-        <v>10</v>
+      <c r="F74" s="26" t="n">
+        <v>18</v>
       </c>
       <c r="G74" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24" t="s">
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="25" t="n">
-        <v>49.3</v>
+      <c r="F75" s="26" t="n">
+        <v>7</v>
       </c>
       <c r="G75" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>241.57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="25" t="n">
-        <v>35</v>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="26" t="n">
+        <v>43</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>1172.5</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="25" t="n">
-        <v>12</v>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="26" t="n">
+        <v>10</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>402</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F78" s="25" t="n">
-        <v>19</v>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="26" t="n">
+        <v>49.3</v>
       </c>
       <c r="G78" s="20" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>81.7</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="25" t="n">
-        <v>24</v>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="26" t="n">
+        <v>35</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>204</v>
+        <v>1172.5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24" t="s">
+      <c r="A80" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="25" t="n">
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="26" t="n">
         <v>12</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>102</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="25" t="n">
-        <v>1.5</v>
+      <c r="A81" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="26" t="n">
+        <v>19</v>
       </c>
       <c r="G81" s="20" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>7.5</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="25" t="n">
-        <v>20</v>
+      <c r="F82" s="26" t="n">
+        <v>24</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>100</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="24" t="s">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="25" t="n">
-        <v>0</v>
+      <c r="F83" s="26" t="n">
+        <v>12</v>
       </c>
       <c r="G83" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="25" t="n">
-        <v>75</v>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="26" t="n">
+        <v>1.5</v>
       </c>
       <c r="G84" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="25" t="n">
-        <v>25</v>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="26" t="n">
+        <v>20</v>
       </c>
       <c r="G85" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="25" t="n">
-        <v>13</v>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="26" t="n">
+        <v>0</v>
       </c>
       <c r="G86" s="20" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="25" t="n">
-        <v>9</v>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="26" t="n">
+        <v>75</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>9.9</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" s="25" t="n">
-        <v>4</v>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="26" t="n">
+        <v>25</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="25" t="n">
-        <v>0</v>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="26" t="n">
+        <v>13</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>0</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" s="25" t="n">
-        <v>1</v>
+      <c r="B90" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="26" t="n">
+        <v>9</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="25" t="n">
-        <v>1</v>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="26" t="n">
+        <v>4</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>12.5</v>
+        <v>0.9</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>12.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="25" t="n">
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
@@ -3938,1549 +4044,1616 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" s="25" t="n">
-        <v>0</v>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="26" t="n">
+        <v>1</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F94" s="25" t="n">
-        <v>0</v>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="26" t="n">
+        <v>1</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" s="26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" s="25" t="n">
+      <c r="G95" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H95" s="16" t="n">
+        <f aca="false">F95*G95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="16" t="n">
+        <f aca="false">F96*G96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="16" t="n">
+        <f aca="false">F97*G97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="G95" s="33" t="n">
+      <c r="G98" s="34" t="n">
         <v>0.19</v>
       </c>
-      <c r="H95" s="34" t="n">
-        <f aca="false">F95*G95</f>
+      <c r="H98" s="35" t="n">
+        <f aca="false">F98*G98</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F96" s="35" t="n">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="G96" s="36" t="n">
+      <c r="G99" s="37" t="n">
         <v>0.19</v>
       </c>
-      <c r="H96" s="37" t="n">
-        <f aca="false">F96*G96</f>
+      <c r="H99" s="38" t="n">
+        <f aca="false">F99*G99</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F97" s="25" t="n">
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="G97" s="20" t="n">
+      <c r="G100" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="H97" s="34" t="n">
-        <f aca="false">F97*G97</f>
+      <c r="H100" s="35" t="n">
+        <f aca="false">F100*G100</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" s="25" t="n">
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="G98" s="38" t="n">
+      <c r="G101" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="H98" s="37" t="n">
-        <f aca="false">F98*G98</f>
+      <c r="H101" s="38" t="n">
+        <f aca="false">F101*G101</f>
         <v>4</v>
       </c>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F99" s="25" t="n">
+      <c r="I101" s="40"/>
+    </row>
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="26" t="n">
         <v>77</v>
       </c>
-      <c r="G99" s="38" t="n">
+      <c r="G102" s="39" t="n">
         <v>3.45</v>
       </c>
-      <c r="H99" s="37" t="n">
-        <f aca="false">F99*G99</f>
+      <c r="H102" s="38" t="n">
+        <f aca="false">F102*G102</f>
         <v>265.65</v>
       </c>
-      <c r="I99" s="40"/>
-    </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" s="25" t="n">
+      <c r="I102" s="41"/>
+    </row>
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="26" t="n">
         <v>58</v>
       </c>
-      <c r="G100" s="38" t="n">
+      <c r="G103" s="39" t="n">
         <v>2.9</v>
       </c>
-      <c r="H100" s="37" t="n">
-        <f aca="false">F100*G100</f>
+      <c r="H103" s="38" t="n">
+        <f aca="false">F103*G103</f>
         <v>168.2</v>
       </c>
-      <c r="I100" s="40"/>
-    </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="25" t="n">
+      <c r="I103" s="41"/>
+    </row>
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="26" t="n">
         <v>59</v>
       </c>
-      <c r="G101" s="38" t="n">
+      <c r="G104" s="39" t="n">
         <v>4.8</v>
       </c>
-      <c r="H101" s="37" t="n">
-        <f aca="false">F101*G101</f>
+      <c r="H104" s="38" t="n">
+        <f aca="false">F104*G104</f>
         <v>283.2</v>
       </c>
-      <c r="I101" s="40"/>
-    </row>
-    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="23" t="s">
+      <c r="I104" s="41"/>
+    </row>
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E102" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" s="25" t="n">
+      <c r="E105" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G102" s="38" t="n">
+      <c r="G105" s="39" t="n">
         <v>3.45</v>
       </c>
-      <c r="H102" s="37" t="n">
-        <f aca="false">F102*G102</f>
+      <c r="H105" s="38" t="n">
+        <f aca="false">F105*G105</f>
         <v>0</v>
       </c>
-      <c r="I102" s="40"/>
-    </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="25" t="n">
+      <c r="I105" s="41"/>
+    </row>
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="26" t="n">
         <v>40</v>
       </c>
-      <c r="G103" s="38" t="n">
+      <c r="G106" s="39" t="n">
         <v>3.75</v>
       </c>
-      <c r="H103" s="37" t="n">
-        <f aca="false">F103*G103</f>
+      <c r="H106" s="38" t="n">
+        <f aca="false">F106*G106</f>
         <v>150</v>
       </c>
-      <c r="I103" s="40"/>
-    </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F104" s="25" t="n">
+      <c r="I106" s="41"/>
+    </row>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="G104" s="38" t="n">
+      <c r="G107" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="H104" s="37" t="n">
-        <f aca="false">F104*G104</f>
+      <c r="H107" s="38" t="n">
+        <f aca="false">F107*G107</f>
         <v>48</v>
       </c>
-      <c r="I104" s="40"/>
-    </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105" s="25" t="n">
+      <c r="I107" s="41"/>
+    </row>
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G105" s="38" t="n">
+      <c r="G108" s="39" t="n">
         <v>0.8</v>
       </c>
-      <c r="H105" s="37" t="n">
-        <f aca="false">F105*G105</f>
+      <c r="H108" s="38" t="n">
+        <f aca="false">F108*G108</f>
         <v>0.8</v>
       </c>
-      <c r="I105" s="40"/>
-    </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="25" t="n">
+      <c r="I108" s="41"/>
+    </row>
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F109" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G106" s="38" t="n">
+      <c r="G109" s="39" t="n">
         <v>1.8</v>
       </c>
-      <c r="H106" s="37" t="n">
-        <f aca="false">F106*G106</f>
+      <c r="H109" s="38" t="n">
+        <f aca="false">F109*G109</f>
         <v>0</v>
       </c>
-      <c r="I106" s="40"/>
-    </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F107" s="25" t="n">
+      <c r="I109" s="41"/>
+    </row>
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="G107" s="38" t="n">
+      <c r="G110" s="39" t="n">
         <v>11.7</v>
       </c>
-      <c r="H107" s="37" t="n">
-        <f aca="false">F107*G107</f>
+      <c r="H110" s="38" t="n">
+        <f aca="false">F110*G110</f>
         <v>222.3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24" t="s">
+    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E108" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F108" s="25" t="n">
+      <c r="E111" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="26" t="n">
         <v>77</v>
       </c>
-      <c r="G108" s="38" t="n">
+      <c r="G111" s="39" t="n">
         <v>3.1</v>
       </c>
-      <c r="H108" s="37" t="n">
-        <f aca="false">F108*G108</f>
+      <c r="H111" s="38" t="n">
+        <f aca="false">F111*G111</f>
         <v>238.7</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F109" s="25" t="n">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F112" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="G109" s="20" t="n">
+      <c r="G112" s="20" t="n">
         <v>0.83</v>
       </c>
-      <c r="H109" s="41" t="n">
-        <f aca="false">F109*G109</f>
+      <c r="H112" s="42" t="n">
+        <f aca="false">F112*G112</f>
         <v>16.6</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24" t="s">
+    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E110" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" s="25" t="n">
+      <c r="E113" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="26" t="n">
         <v>86</v>
       </c>
-      <c r="G110" s="20" t="n">
+      <c r="G113" s="20" t="n">
         <v>4.7</v>
-      </c>
-      <c r="H110" s="16" t="n">
-        <f aca="false">F110*G110</f>
-        <v>404.2</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F111" s="25" t="n">
-        <v>63</v>
-      </c>
-      <c r="G111" s="20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H111" s="16" t="n">
-        <f aca="false">F111*G111</f>
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H112" s="16" t="n">
-        <f aca="false">F112*G112</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" s="20" t="n">
-        <v>2</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="25" t="n">
-        <v>44</v>
+        <v>404.2</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="26" t="n">
+        <v>63</v>
       </c>
       <c r="G114" s="20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H114" s="16" t="n">
         <f aca="false">F114*G114</f>
-        <v>105.6</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="25" t="n">
-        <v>60</v>
+      <c r="A115" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="26" t="n">
+        <v>5</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B116" s="19" t="n">
-        <v>43714</v>
-      </c>
-      <c r="C116" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F116" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="16" t="n">
-        <v>6</v>
+      <c r="A116" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="26" t="n">
         <v>44</v>
       </c>
-      <c r="F117" s="25" t="n">
-        <v>645</v>
-      </c>
       <c r="G117" s="20" t="n">
-        <v>0.66</v>
+        <v>2.4</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>425.7</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="25" t="n">
-        <v>4</v>
+      <c r="A118" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="26" t="n">
+        <v>60</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>11.4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F119" s="25" t="n">
+      <c r="A119" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="19" t="n">
+        <v>43714</v>
+      </c>
+      <c r="C119" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G119" s="20" t="n">
-        <v>1.72</v>
+      <c r="G119" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>5.16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F120" s="25" t="n">
-        <v>19</v>
+      <c r="E120" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F120" s="26" t="n">
+        <v>645</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>2.9</v>
+        <v>0.66</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>55.1</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B121" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F121" s="25" t="n">
-        <v>3</v>
+      <c r="B121" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="26" t="n">
+        <v>4</v>
       </c>
       <c r="G121" s="20" t="n">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>5.16</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F122" s="25" t="n">
-        <v>0</v>
+      <c r="A122" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F122" s="26" t="n">
+        <v>3</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>0</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="25" t="n">
-        <v>9</v>
+      <c r="A123" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="26" t="n">
+        <v>19</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>27</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" s="25" t="n">
-        <v>0</v>
+      <c r="D124" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" s="26" t="n">
+        <v>3</v>
       </c>
       <c r="G124" s="20" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" s="26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="25" t="n">
-        <v>80</v>
-      </c>
       <c r="G125" s="20" t="n">
-        <v>2.69</v>
+        <v>5</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>215.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="25" t="n">
-        <v>75</v>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="26" t="n">
+        <v>9</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>247.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="25" t="n">
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="20" t="n">
         <v>2</v>
-      </c>
-      <c r="G127" s="20" t="n">
-        <v>2.87</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>5.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B128" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F128" s="25" t="n">
-        <v>5</v>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="26" t="n">
+        <v>80</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" s="25" t="n">
-        <v>728</v>
+        <v>215.2</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="26" t="n">
+        <v>75</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="130" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F130" s="25" t="n">
-        <v>1</v>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>1.96</v>
+        <v>2.87</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>1.96</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="28" t="n">
+      <c r="A131" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F131" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" s="20" t="n">
         <v>7</v>
-      </c>
-      <c r="G131" s="29" t="n">
-        <v>1.97</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D132" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="25" t="n">
-        <v>195</v>
+      <c r="E132" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="26" t="n">
+        <v>728</v>
       </c>
       <c r="G132" s="20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="25" t="n">
-        <v>50</v>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="133" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F133" s="26" t="n">
+        <v>1</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>2.69</v>
+        <v>1.96</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>134.5</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24" t="s">
-        <v>10</v>
-      </c>
+      <c r="A134" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F134" s="25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G134" s="20" t="n">
-        <v>2.21</v>
+      <c r="F134" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G134" s="30" t="n">
+        <v>1.97</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>221</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" s="29" t="n">
-        <v>1.43</v>
+      <c r="F135" s="26" t="n">
+        <v>195</v>
+      </c>
+      <c r="G135" s="20" t="n">
+        <v>7</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>143</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="25" t="n">
-        <v>4</v>
+      <c r="F136" s="26" t="n">
+        <v>50</v>
       </c>
       <c r="G136" s="20" t="n">
-        <v>8.5</v>
+        <v>2.69</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>34</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="E137" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F137" s="25" t="n">
-        <v>17</v>
+      <c r="F137" s="26" t="n">
+        <v>100</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>5</v>
+        <v>2.21</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24" t="s">
-        <v>200</v>
-      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G138" s="20" t="n">
-        <v>47</v>
+      <c r="F138" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" s="30" t="n">
+        <v>1.43</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>564</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="28" t="n">
-        <v>22</v>
-      </c>
-      <c r="G139" s="29" t="n">
-        <v>2.97</v>
+      <c r="F139" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" s="20" t="n">
+        <v>8.5</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>65.34</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B140" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C140" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D140" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="25" t="n">
-        <v>180</v>
+      <c r="A140" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="26" t="n">
+        <v>17</v>
       </c>
       <c r="G140" s="20" t="n">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>244.8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="A141" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25" t="s">
+        <v>203</v>
+      </c>
       <c r="E141" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F141" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" s="29" t="n">
-        <v>5</v>
+      <c r="F141" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G141" s="20" t="n">
+        <v>47</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="27" t="s">
-        <v>207</v>
+      <c r="A142" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F142" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="29" t="n">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F142" s="29" t="n">
+        <v>22</v>
+      </c>
+      <c r="G142" s="30" t="n">
+        <v>2.97</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>12</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F143" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="G143" s="29" t="n">
+      <c r="E143" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="26" t="n">
+        <v>180</v>
+      </c>
+      <c r="G143" s="20" t="n">
         <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>10.88</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B144" s="19"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F144" s="28" t="n">
-        <v>46</v>
-      </c>
-      <c r="G144" s="29" t="n">
-        <v>2.2</v>
+        <v>14</v>
+      </c>
+      <c r="F144" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="30" t="n">
+        <v>5</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>101.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F145" s="28" t="n">
-        <v>25</v>
-      </c>
-      <c r="G145" s="29" t="n">
-        <v>5.5</v>
+        <v>47</v>
+      </c>
+      <c r="F145" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" s="30" t="n">
+        <v>12</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>137.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F146" s="28" t="n">
-        <v>53</v>
-      </c>
-      <c r="G146" s="29" t="n">
-        <v>0.4</v>
+        <v>47</v>
+      </c>
+      <c r="F146" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G146" s="30" t="n">
+        <v>1.36</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>21.2</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F147" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="G147" s="29" t="n">
-        <v>0.5</v>
+        <v>47</v>
+      </c>
+      <c r="F147" s="29" t="n">
+        <v>46</v>
+      </c>
+      <c r="G147" s="30" t="n">
+        <v>2.2</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>7</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F148" s="28" t="n">
-        <v>53</v>
-      </c>
-      <c r="G148" s="29" t="n">
-        <v>1.1</v>
+        <v>47</v>
+      </c>
+      <c r="F148" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="G148" s="30" t="n">
+        <v>5.5</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>58.3</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F149" s="28" t="n">
-        <v>51</v>
-      </c>
-      <c r="G149" s="29" t="n">
-        <v>0.9</v>
+        <v>47</v>
+      </c>
+      <c r="F149" s="29" t="n">
+        <v>53</v>
+      </c>
+      <c r="G149" s="30" t="n">
+        <v>0.4</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>45.9</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F150" s="28" t="n">
-        <v>42</v>
-      </c>
-      <c r="G150" s="29" t="n">
-        <v>2.85</v>
+        <v>47</v>
+      </c>
+      <c r="F150" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G150" s="30" t="n">
+        <v>0.5</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>119.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F151" s="28" t="n">
-        <v>32</v>
-      </c>
-      <c r="G151" s="29" t="n">
-        <v>3.4</v>
+        <v>47</v>
+      </c>
+      <c r="F151" s="29" t="n">
+        <v>53</v>
+      </c>
+      <c r="G151" s="30" t="n">
+        <v>1.1</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>108.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="28" t="n">
-        <v>19</v>
-      </c>
-      <c r="G152" s="29" t="n">
-        <v>3.4</v>
+      <c r="E152" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F152" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="G152" s="30" t="n">
+        <v>0.9</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>64.6</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F153" s="28" t="n">
-        <v>45</v>
-      </c>
-      <c r="G153" s="29" t="n">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="F153" s="29" t="n">
+        <v>42</v>
+      </c>
+      <c r="G153" s="30" t="n">
+        <v>2.85</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>135</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
-      <c r="D154" s="12" t="s">
-        <v>220</v>
-      </c>
+      <c r="D154" s="12"/>
       <c r="E154" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F154" s="28" t="n">
-        <v>21</v>
-      </c>
-      <c r="G154" s="29" t="n">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="F154" s="29" t="n">
+        <v>32</v>
+      </c>
+      <c r="G154" s="30" t="n">
+        <v>3.4</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>357</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="27" t="s">
-        <v>221</v>
+      <c r="A155" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
-      <c r="D155" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F155" s="28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G155" s="29" t="n">
-        <v>10</v>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="29" t="n">
+        <v>19</v>
+      </c>
+      <c r="G155" s="30" t="n">
+        <v>3.4</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>1000</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B156" s="19"/>
+      <c r="A156" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B156" s="12"/>
       <c r="C156" s="12"/>
-      <c r="D156" s="12" t="s">
-        <v>222</v>
-      </c>
+      <c r="D156" s="12"/>
       <c r="E156" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F156" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="G156" s="29" t="n">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="F156" s="29" t="n">
+        <v>45</v>
+      </c>
+      <c r="G156" s="30" t="n">
+        <v>3</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B157" s="19"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F157" s="29" t="n">
+        <v>21</v>
+      </c>
+      <c r="G157" s="30" t="n">
+        <v>17</v>
+      </c>
+      <c r="H157" s="16" t="n">
+        <f aca="false">F157*G157</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H158" s="16" t="n">
+        <f aca="false">F158*G158</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="19"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G159" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H159" s="16" t="n">
+        <f aca="false">F159*G159</f>
         <v>70</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H157" s="46" t="n">
-        <f aca="false">SUM(H3:H156)</f>
+    <row r="160" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H160" s="47" t="n">
+        <f aca="false">SUM(H3:H159)</f>
         <v>17316.994</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F48">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44">
+  <conditionalFormatting sqref="F46:F47">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F99">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F102">
+  <conditionalFormatting sqref="F102:F105">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:F114">
+  <conditionalFormatting sqref="F114:F117">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1205,8 +1205,8 @@
   </sheetPr>
   <dimension ref="A1:AI162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4368,14 +4368,14 @@
         <v>47</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G106" s="39" t="n">
         <v>3.75</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>150</v>
+        <v>142.5</v>
       </c>
       <c r="I106" s="41"/>
     </row>
@@ -5614,7 +5614,7 @@
     <row r="160" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H160" s="47" t="n">
         <f aca="false">SUM(H3:H159)</f>
-        <v>17316.994</v>
+        <v>17309.494</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$159</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$142</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$H$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$H$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="230">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t xml:space="preserve">VALORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adesivo cinture  h= 3,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adesivo cinture h= 5,5</t>
   </si>
   <si>
     <t xml:space="preserve">Adesivo  rotoli 7 cm. Nero </t>
@@ -1203,10 +1212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI162"/>
+  <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,21 +1301,19 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="false">F3*G3</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1338,25 +1345,23 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="false">F4*G4</f>
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1386,27 +1391,27 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="18" t="n">
-        <v>33</v>
-      </c>
       <c r="G5" s="15" t="n">
-        <v>1.65</v>
+        <v>16.5</v>
       </c>
       <c r="H5" s="16" t="n">
         <f aca="false">F5*G5</f>
-        <v>54.45</v>
+        <v>165</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1436,27 +1441,27 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="18" t="n">
-        <v>96</v>
+      <c r="F6" s="14" t="n">
+        <v>18</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>2</v>
+        <v>16.5</v>
       </c>
       <c r="H6" s="16" t="n">
         <f aca="false">F6*G6</f>
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1486,27 +1491,27 @@
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="H7" s="16" t="n">
         <f aca="false">F7*G7</f>
-        <v>60</v>
+        <v>54.45</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1536,27 +1541,27 @@
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="16" t="n">
         <f aca="false">F8*G8</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1586,27 +1591,27 @@
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G9" s="15" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="16" t="n">
         <f aca="false">F9*G9</f>
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1636,27 +1641,27 @@
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="H10" s="16" t="n">
         <f aca="false">F10*G10</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1686,27 +1691,27 @@
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="16" t="n">
         <f aca="false">F11*G11</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1738,25 +1743,25 @@
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>0.5</v>
+        <v>2.35</v>
       </c>
       <c r="H12" s="16" t="n">
         <f aca="false">F12*G12</f>
-        <v>17.5</v>
+        <v>94</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1788,25 +1793,25 @@
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="G13" s="15" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="16" t="n">
         <f aca="false">F13*G13</f>
-        <v>10.8</v>
+        <v>68</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1838,25 +1843,25 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="16" t="n">
         <f aca="false">F14*G14</f>
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1893,20 +1898,20 @@
       <c r="B15" s="11"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="15" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H15" s="16" t="n">
         <f aca="false">F15*G15</f>
-        <v>4.8</v>
+        <v>10.8</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1938,25 +1943,25 @@
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H16" s="16" t="n">
         <f aca="false">F16*G16</f>
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1988,25 +1993,25 @@
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F17" s="18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H17" s="16" t="n">
         <f aca="false">F17*G17</f>
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2036,27 +2041,27 @@
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H18" s="16" t="n">
         <f aca="false">F18*G18</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2088,25 +2093,25 @@
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H19" s="16" t="n">
         <f aca="false">F19*G19</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2136,27 +2141,27 @@
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G20" s="15" t="n">
-        <v>8.3</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="16" t="n">
         <f aca="false">F20*G20</f>
-        <v>249</v>
+        <v>1.2</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2188,25 +2193,25 @@
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="15" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="16" t="n">
         <f aca="false">F21*G21</f>
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2240,23 +2245,23 @@
       <c r="A22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>388</v>
+        <v>30</v>
       </c>
       <c r="G22" s="15" t="n">
-        <v>1.828</v>
+        <v>8.3</v>
       </c>
       <c r="H22" s="16" t="n">
         <f aca="false">F22*G22</f>
-        <v>709.264</v>
+        <v>249</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2286,131 +2291,127 @@
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
     </row>
-    <row r="23" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="20" t="n">
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>10</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-    </row>
-    <row r="24" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="19" t="n">
-        <v>43709</v>
-      </c>
-      <c r="C24" s="12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="23"/>
+      <c r="E24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>388</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>1.828</v>
+      </c>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
+        <v>709.264</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
     </row>
     <row r="25" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="19" t="n">
-        <v>43709</v>
-      </c>
-      <c r="C25" s="12" t="n">
-        <v>1000</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>750</v>
-      </c>
-      <c r="G25" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>2</v>
+      </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2448,16 +2449,16 @@
         <v>43709</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F26" s="14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="16" t="n">
@@ -2494,25 +2495,27 @@
     </row>
     <row r="27" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="19" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G27" s="20" t="n">
-        <v>0.5</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="G27" s="23"/>
       <c r="H27" s="16" t="n">
         <f aca="false">F27*G27</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -2542,355 +2545,411 @@
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
     </row>
-    <row r="28" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25" t="s">
+    <row r="28" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="20" t="n">
-        <v>3</v>
-      </c>
+      <c r="B28" s="19" t="n">
+        <v>43709</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="G28" s="23"/>
       <c r="H28" s="16" t="n">
         <f aca="false">F28*G28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="26" t="n">
-        <v>250</v>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21"/>
+    </row>
+    <row r="29" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>60</v>
       </c>
       <c r="G29" s="20" t="n">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="16" t="n">
         <f aca="false">F29*G29</f>
-        <v>245</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
     </row>
     <row r="30" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F30" s="26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30" s="16" t="n">
         <f aca="false">F30*G30</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
       <c r="D31" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F31" s="26" t="n">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="G31" s="20" t="n">
-        <v>3.5</v>
+        <v>0.98</v>
       </c>
       <c r="H31" s="16" t="n">
         <f aca="false">F31*G31</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" s="27" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F32" s="26" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G32" s="20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="16" t="n">
         <f aca="false">F32*G32</f>
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F33" s="26" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H33" s="16" t="n">
         <f aca="false">F33*G33</f>
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="G34" s="30" t="n">
-        <v>1.14</v>
+      <c r="A34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="20" t="n">
+        <v>2</v>
       </c>
       <c r="H34" s="16" t="n">
         <f aca="false">F34*G34</f>
-        <v>28.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F35" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" s="20" t="n">
         <v>2</v>
-      </c>
-      <c r="G35" s="20" t="n">
-        <v>8.5</v>
       </c>
       <c r="H35" s="16" t="n">
         <f aca="false">F35*G35</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20" t="n">
-        <v>27.44</v>
+      <c r="F36" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" s="30" t="n">
+        <v>1.14</v>
       </c>
       <c r="H36" s="16" t="n">
         <f aca="false">F36*G36</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="C37" s="25"/>
       <c r="D37" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F37" s="26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G37" s="20" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="H37" s="16" t="n">
         <f aca="false">F37*G37</f>
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
       <c r="D38" s="25" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F38" s="26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="20" t="n">
-        <v>7.9</v>
+        <v>27.44</v>
       </c>
       <c r="H38" s="16" t="n">
         <f aca="false">F38*G38</f>
-        <v>23.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="25" t="s">
         <v>65</v>
       </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F39" s="26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G39" s="20" t="n">
-        <v>2.76</v>
+        <v>17</v>
       </c>
       <c r="H39" s="16" t="n">
         <f aca="false">F39*G39</f>
-        <v>55.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="F40" s="26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="H40" s="16" t="n">
         <f aca="false">F40*G40</f>
-        <v>0</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="C41" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="25" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F41" s="26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="H41" s="16" t="n">
         <f aca="false">F41*G41</f>
-        <v>65</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="33"/>
+        <v>70</v>
+      </c>
+      <c r="B42" s="32"/>
       <c r="C42" s="33"/>
       <c r="D42" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="G42" s="12" t="n">
-        <v>3.68</v>
+      <c r="G42" s="20" t="n">
+        <v>9.75</v>
       </c>
       <c r="H42" s="16" t="n">
         <f aca="false">F42*G42</f>
@@ -2899,48 +2958,44 @@
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="26" t="n">
+        <v>25</v>
       </c>
       <c r="G43" s="20" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H43" s="16" t="n">
         <f aca="false">F43*G43</f>
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="25" t="s">
+      <c r="A44" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F44" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="20" t="n">
-        <v>0.25</v>
+      <c r="G44" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="H44" s="16" t="n">
         <f aca="false">F44*G44</f>
@@ -2949,188 +3004,194 @@
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="E45" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="26" t="n">
-        <v>170</v>
+        <v>50</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="H45" s="16" t="n">
         <f aca="false">F45*G45</f>
-        <v>200.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="E46" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="26" t="n">
-        <v>296</v>
+        <v>50</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="G46" s="20" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>103.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="33" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F47" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="G47" s="20" t="n">
+        <v>1.18</v>
+      </c>
       <c r="H47" s="16" t="n">
         <f aca="false">F47*G47</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F48" s="26" t="n">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="G48" s="20" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>8</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="33" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F49" s="26" t="n">
-        <v>8</v>
-      </c>
-      <c r="G49" s="20" t="n">
-        <v>1.75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G49" s="20"/>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="C50" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F50" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" s="20" t="n">
         <v>1</v>
-      </c>
-      <c r="G50" s="20" t="n">
-        <v>0.72</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>0.72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="C51" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="D51" s="25" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F51" s="26" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H51" s="16" t="n">
         <f aca="false">F51*G51</f>
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25" t="s">
-        <v>14</v>
+      <c r="D52" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="F52" s="26" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G52" s="20" t="n">
-        <v>1.8</v>
+        <v>0.72</v>
       </c>
       <c r="H52" s="16" t="n">
         <f aca="false">F52*G52</f>
-        <v>36</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3139,456 +3200,456 @@
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25" t="s">
-        <v>14</v>
+      <c r="D53" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="F53" s="26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G53" s="20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" s="16" t="n">
         <f aca="false">F53*G53</f>
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>47</v>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="G54" s="20" t="n">
-        <v>0.15</v>
+        <v>1.8</v>
       </c>
       <c r="H54" s="16" t="n">
         <f aca="false">F54*G54</f>
-        <v>52.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="12"/>
+      <c r="A55" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="25"/>
       <c r="C55" s="25"/>
-      <c r="D55" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>47</v>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="F55" s="26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G55" s="20" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="H55" s="16" t="n">
         <f aca="false">F55*G55</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F56" s="26" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="G56" s="20" t="n">
-        <v>2.13</v>
+        <v>0.15</v>
       </c>
       <c r="H56" s="16" t="n">
         <f aca="false">F56*G56</f>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="26" t="n">
-        <v>2</v>
-      </c>
       <c r="G57" s="20" t="n">
-        <v>5.95</v>
+        <v>0.22</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F58" s="26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" s="20" t="n">
-        <v>0.7</v>
+        <v>2.13</v>
       </c>
       <c r="H58" s="16" t="n">
         <f aca="false">F58*G58</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="D59" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F59" s="26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" s="20" t="n">
-        <v>1.5</v>
+        <v>5.95</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F60" s="26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="20" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H60" s="16" t="n">
         <f aca="false">F60*G60</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F61" s="26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G61" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H61" s="16" t="n">
         <f aca="false">F61*G61</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="26" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="26" t="n">
-        <v>9</v>
-      </c>
       <c r="G62" s="20" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H62" s="16" t="n">
         <f aca="false">F62*G62</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="D63" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="E63" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F63" s="26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="20" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H63" s="16" t="n">
         <f aca="false">F63*G63</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
       <c r="D64" s="25" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F64" s="26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G64" s="20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" s="16" t="n">
         <f aca="false">F64*G64</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F65" s="26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="20" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H65" s="16" t="n">
         <f aca="false">F65*G65</f>
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F66" s="26" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G66" s="20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H66" s="16" t="n">
         <f aca="false">F66*G66</f>
-        <v>43.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F67" s="26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G67" s="20" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>19.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F68" s="26" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G68" s="20" t="n">
-        <v>0.44</v>
+        <v>1.98</v>
       </c>
       <c r="H68" s="16" t="n">
         <f aca="false">F68*G68</f>
-        <v>2.2</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="A69" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="E69" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="G69" s="30" t="n">
-        <v>4.85</v>
+        <v>25</v>
+      </c>
+      <c r="F69" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" s="20" t="n">
+        <v>4.9</v>
       </c>
       <c r="H69" s="16" t="n">
         <f aca="false">F69*G69</f>
-        <v>53.35</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="E70" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="G70" s="30" t="n">
-        <v>5.04</v>
+        <v>50</v>
+      </c>
+      <c r="F70" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="20" t="n">
+        <v>0.44</v>
       </c>
       <c r="H70" s="16" t="n">
         <f aca="false">F70*G70</f>
-        <v>151.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25" t="s">
+      <c r="A71" s="28" t="s">
         <v>110</v>
       </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G71" s="20" t="n">
-        <v>8.3</v>
+        <v>17</v>
+      </c>
+      <c r="F71" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" s="30" t="n">
+        <v>4.85</v>
       </c>
       <c r="H71" s="16" t="n">
         <f aca="false">F71*G71</f>
-        <v>83</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="G72" s="20" t="n">
-        <v>0.75</v>
+      <c r="B72" s="19"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="G72" s="30" t="n">
+        <v>5.04</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>9</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3598,43 +3659,41 @@
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>47</v>
+        <v>113</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="F73" s="26" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G73" s="20" t="n">
-        <v>3</v>
+        <v>8.3</v>
       </c>
       <c r="H73" s="16" t="n">
         <f aca="false">F73*G73</f>
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
-      <c r="D74" s="25" t="s">
-        <v>114</v>
-      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F74" s="26" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G74" s="20" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H74" s="16" t="n">
         <f aca="false">F74*G74</f>
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3644,20 +3703,20 @@
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F75" s="26" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3666,147 +3725,149 @@
       </c>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="D76" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="E76" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F76" s="26" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G76" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
-        <v>210.7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="D77" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="E77" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" s="26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77" s="20" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H77" s="16" t="n">
         <f aca="false">F77*G77</f>
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F78" s="26" t="n">
-        <v>49.3</v>
+        <v>43</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>4.9</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>241.57</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
       <c r="E79" s="25" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F79" s="26" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G79" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>1172.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="25" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F80" s="26" t="n">
-        <v>12</v>
+        <v>49.3</v>
       </c>
       <c r="G80" s="20" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="H80" s="16" t="n">
         <f aca="false">F80*G80</f>
-        <v>402</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F81" s="26" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G81" s="20" t="n">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>81.7</v>
+        <v>1172.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
-      <c r="D82" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="D82" s="25"/>
       <c r="E82" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F82" s="26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G82" s="20" t="n">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>204</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3815,21 +3876,19 @@
       </c>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
-      <c r="D83" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="D83" s="25"/>
       <c r="E83" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F83" s="26" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G83" s="20" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H83" s="16" t="n">
         <f aca="false">F83*G83</f>
-        <v>102</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3839,319 +3898,319 @@
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F84" s="26" t="n">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G84" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H84" s="16" t="n">
         <f aca="false">F84*G84</f>
-        <v>7.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F85" s="26" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G85" s="20" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H85" s="16" t="n">
         <f aca="false">F85*G85</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F86" s="26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G86" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H86" s="16" t="n">
         <f aca="false">F86*G86</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F87" s="26" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G87" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H87" s="16" t="n">
         <f aca="false">F87*G87</f>
-        <v>22.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F88" s="26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G88" s="20" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H88" s="16" t="n">
         <f aca="false">F88*G88</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F89" s="26" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G89" s="20" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H89" s="16" t="n">
         <f aca="false">F89*G89</f>
-        <v>10.4</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>84</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="25" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F90" s="26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G90" s="20" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H90" s="16" t="n">
         <f aca="false">F90*G90</f>
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F91" s="26" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G91" s="20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H91" s="16" t="n">
         <f aca="false">F91*G91</f>
-        <v>3.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+        <v>134</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="D92" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F92" s="26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G92" s="20" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F93" s="26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" s="20" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F94" s="26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="20" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F95" s="26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H95" s="16" t="n">
         <f aca="false">F95*G95</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F96" s="26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="20" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H96" s="16" t="n">
         <f aca="false">F96*G96</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F97" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="20" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H97" s="16" t="n">
         <f aca="false">F97*G97</f>
@@ -4160,128 +4219,126 @@
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>75</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F98" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="G98" s="34" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H98" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" s="16" t="n">
         <f aca="false">F98*G98</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" s="36" t="n">
-        <v>50</v>
-      </c>
-      <c r="G99" s="37" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H99" s="38" t="n">
+        <v>50</v>
+      </c>
+      <c r="F99" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="16" t="n">
         <f aca="false">F99*G99</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
+        <v>142</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="D100" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F100" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="G100" s="20" t="n">
-        <v>0.2</v>
+        <v>50</v>
+      </c>
+      <c r="G100" s="34" t="n">
+        <v>0.19</v>
       </c>
       <c r="H100" s="35" t="n">
         <f aca="false">F100*G100</f>
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="D101" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G101" s="39" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F101" s="36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G101" s="37" t="n">
+        <v>0.19</v>
       </c>
       <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
-        <v>4</v>
-      </c>
-      <c r="I101" s="40"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F102" s="26" t="n">
-        <v>77</v>
-      </c>
-      <c r="G102" s="39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H102" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" s="20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H102" s="35" t="n">
         <f aca="false">F102*G102</f>
-        <v>265.65</v>
-      </c>
-      <c r="I102" s="41"/>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
@@ -4290,22 +4347,22 @@
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F103" s="26" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G103" s="39" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>168.2</v>
-      </c>
-      <c r="I103" s="41"/>
+        <v>4</v>
+      </c>
+      <c r="I103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
@@ -4314,218 +4371,216 @@
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F104" s="26" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G104" s="39" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>283.2</v>
+        <v>265.65</v>
       </c>
       <c r="I104" s="41"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F105" s="26" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G105" s="39" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H105" s="38" t="n">
         <f aca="false">F105*G105</f>
-        <v>0</v>
+        <v>168.2</v>
       </c>
       <c r="I105" s="41"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G106" s="39" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>142.5</v>
+        <v>283.2</v>
       </c>
       <c r="I106" s="41"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F107" s="26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G107" s="39" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H107" s="38" t="n">
         <f aca="false">F107*G107</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I107" s="41"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F108" s="26" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G108" s="39" t="n">
-        <v>0.8</v>
+        <v>3.75</v>
       </c>
       <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
-        <v>0.8</v>
+        <v>142.5</v>
       </c>
       <c r="I108" s="41"/>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F109" s="26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G109" s="39" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I109" s="41"/>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" s="25" t="s">
         <v>153</v>
       </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="25" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F110" s="26" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G110" s="39" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
-        <v>222.3</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="I110" s="41"/>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F111" s="26" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G111" s="39" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" s="38" t="n">
         <f aca="false">F111*G111</f>
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="25" t="s">
+      <c r="D112" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="25" t="s">
-        <v>46</v>
-      </c>
       <c r="E112" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F112" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="G112" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H112" s="42" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" s="39" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H112" s="38" t="n">
         <f aca="false">F112*G112</f>
-        <v>16.6</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4535,20 +4590,20 @@
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F113" s="26" t="n">
-        <v>86</v>
-      </c>
-      <c r="G113" s="20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H113" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="G113" s="39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H113" s="38" t="n">
         <f aca="false">F113*G113</f>
-        <v>404.2</v>
+        <v>238.7</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4556,103 +4611,103 @@
         <v>159</v>
       </c>
       <c r="B114" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="25" t="s">
-        <v>161</v>
-      </c>
       <c r="D114" s="25" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F114" s="26" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G114" s="20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H114" s="16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H114" s="42" t="n">
         <f aca="false">F114*G114</f>
-        <v>157.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F115" s="26" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G115" s="20" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>10</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B116" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" s="43" t="s">
-        <v>164</v>
-      </c>
       <c r="E116" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F116" s="26" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G116" s="20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H116" s="16" t="n">
         <f aca="false">F116*G116</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="44" t="s">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="45" t="s">
-        <v>69</v>
-      </c>
       <c r="E117" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F117" s="26" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G117" s="20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>105.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4663,100 +4718,100 @@
         <v>169</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="D118" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F118" s="26" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G118" s="20" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="B119" s="19" t="n">
-        <v>43714</v>
-      </c>
-      <c r="C119" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F119" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G119" s="16" t="n">
-        <v>6</v>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="26" t="n">
+        <v>44</v>
+      </c>
+      <c r="G119" s="20" t="n">
+        <v>2.4</v>
       </c>
       <c r="H119" s="16" t="n">
         <f aca="false">F119*G119</f>
-        <v>18</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+        <v>171</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="D120" s="25" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F120" s="26" t="n">
-        <v>645</v>
+        <v>60</v>
       </c>
       <c r="G120" s="20" t="n">
-        <v>0.66</v>
+        <v>2.4</v>
       </c>
       <c r="H120" s="16" t="n">
         <f aca="false">F120*G120</f>
-        <v>425.7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="19" t="n">
+        <v>43714</v>
+      </c>
+      <c r="C121" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B121" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F121" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G121" s="20" t="n">
-        <v>2.85</v>
+      <c r="F121" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>11.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4766,64 +4821,60 @@
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F122" s="26" t="n">
-        <v>3</v>
+        <v>645</v>
       </c>
       <c r="G122" s="20" t="n">
-        <v>1.72</v>
+        <v>0.66</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>5.16</v>
+        <v>425.7</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F123" s="26" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G123" s="20" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>55.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C124" s="25" t="s">
         <v>179</v>
       </c>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F124" s="26" t="n">
         <v>3</v>
@@ -4840,65 +4891,73 @@
       <c r="A125" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="B125" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>87</v>
+      </c>
       <c r="D125" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F125" s="26" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G125" s="20" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>0</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
+      <c r="B126" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>182</v>
+      </c>
       <c r="D126" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F126" s="26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G126" s="20" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>27</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F127" s="26" t="n">
         <v>0</v>
       </c>
       <c r="G127" s="20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
@@ -4907,211 +4966,211 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F128" s="26" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G128" s="20" t="n">
-        <v>2.69</v>
+        <v>3</v>
       </c>
       <c r="H128" s="16" t="n">
         <f aca="false">F128*G128</f>
-        <v>215.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F129" s="26" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G129" s="20" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>247.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
+      <c r="D130" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="E130" s="25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F130" s="26" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G130" s="20" t="n">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="H130" s="16" t="n">
         <f aca="false">F130*G130</f>
-        <v>5.74</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B131" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C131" s="25" t="s">
-        <v>99</v>
-      </c>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="25" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="F131" s="26" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G131" s="20" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H131" s="16" t="n">
         <f aca="false">F131*G131</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F132" s="26" t="n">
-        <v>728</v>
+        <v>2</v>
       </c>
       <c r="G132" s="20" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H132" s="16" t="n">
         <f aca="false">F132*G132</f>
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="133" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E133" s="25" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F133" s="26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G133" s="20" t="n">
-        <v>1.96</v>
+        <v>7</v>
       </c>
       <c r="H133" s="16" t="n">
         <f aca="false">F133*G133</f>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G134" s="30" t="n">
-        <v>1.97</v>
+      <c r="D134" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="26" t="n">
+        <v>728</v>
+      </c>
+      <c r="G134" s="20" t="n">
+        <v>3</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
-      <c r="D135" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>14</v>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="F135" s="26" t="n">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G135" s="20" t="n">
-        <v>7</v>
+        <v>1.96</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>1365</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="24" t="s">
+      <c r="A136" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="G136" s="20" t="n">
-        <v>2.69</v>
+        <v>17</v>
+      </c>
+      <c r="F136" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G136" s="30" t="n">
+        <v>1.97</v>
       </c>
       <c r="H136" s="16" t="n">
         <f aca="false">F136*G136</f>
-        <v>134.5</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5121,539 +5180,585 @@
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F137" s="26" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="G137" s="20" t="n">
-        <v>2.21</v>
+        <v>7</v>
       </c>
       <c r="H137" s="16" t="n">
         <f aca="false">F137*G137</f>
-        <v>221</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="A138" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="E138" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G138" s="30" t="n">
-        <v>1.43</v>
+        <v>17</v>
+      </c>
+      <c r="F138" s="26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G138" s="20" t="n">
+        <v>2.69</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>143</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
+      <c r="D139" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="E139" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F139" s="26" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G139" s="20" t="n">
-        <v>8.5</v>
+        <v>2.21</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>34</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="A140" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
       <c r="E140" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="G140" s="20" t="n">
-        <v>5</v>
+      <c r="F140" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G140" s="30" t="n">
+        <v>1.43</v>
       </c>
       <c r="H140" s="16" t="n">
         <f aca="false">F140*G140</f>
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
-      <c r="D141" s="25" t="s">
-        <v>203</v>
-      </c>
+      <c r="D141" s="25"/>
       <c r="E141" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F141" s="26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G141" s="20" t="n">
-        <v>47</v>
+        <v>8.5</v>
       </c>
       <c r="H141" s="16" t="n">
         <f aca="false">F141*G141</f>
-        <v>564</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="G142" s="30" t="n">
-        <v>2.97</v>
+        <v>17</v>
+      </c>
+      <c r="F142" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G142" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="H142" s="16" t="n">
         <f aca="false">F142*G142</f>
-        <v>65.34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C143" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E143" s="25" t="s">
+      <c r="E143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" s="20" t="n">
         <v>47</v>
-      </c>
-      <c r="F143" s="26" t="n">
-        <v>180</v>
-      </c>
-      <c r="G143" s="20" t="n">
-        <v>1.36</v>
       </c>
       <c r="H143" s="16" t="n">
         <f aca="false">F143*G143</f>
-        <v>244.8</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F144" s="29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G144" s="30" t="n">
-        <v>5</v>
+        <v>2.97</v>
       </c>
       <c r="H144" s="16" t="n">
         <f aca="false">F144*G144</f>
-        <v>0</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" s="30" t="n">
-        <v>12</v>
+      <c r="D145" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="26" t="n">
+        <v>180</v>
+      </c>
+      <c r="G145" s="20" t="n">
+        <v>1.36</v>
       </c>
       <c r="H145" s="16" t="n">
         <f aca="false">F145*G145</f>
-        <v>12</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G146" s="30" t="n">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B147" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F147" s="29" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G147" s="30" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="H147" s="16" t="n">
         <f aca="false">F147*G147</f>
-        <v>101.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B148" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F148" s="29" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G148" s="30" t="n">
-        <v>5.5</v>
+        <v>1.36</v>
       </c>
       <c r="H148" s="16" t="n">
         <f aca="false">F148*G148</f>
-        <v>137.5</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F149" s="29" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G149" s="30" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H149" s="16" t="n">
         <f aca="false">F149*G149</f>
-        <v>21.2</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B150" s="12"/>
+        <v>216</v>
+      </c>
+      <c r="B150" s="19"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G150" s="30" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>7</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F151" s="29" t="n">
         <v>53</v>
       </c>
       <c r="G151" s="30" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>58.3</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B152" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F152" s="29" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G152" s="30" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>45.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F153" s="29" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G153" s="30" t="n">
-        <v>2.85</v>
+        <v>1.1</v>
       </c>
       <c r="H153" s="16" t="n">
         <f aca="false">F153*G153</f>
-        <v>119.7</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F154" s="29" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G154" s="30" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H154" s="16" t="n">
         <f aca="false">F154*G154</f>
-        <v>108.8</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="E155" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F155" s="29" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G155" s="30" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>64.6</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B156" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="B156" s="19"/>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F156" s="29" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G156" s="30" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H156" s="16" t="n">
         <f aca="false">F156*G156</f>
-        <v>135</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G157" s="30" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="H157" s="16" t="n">
         <f aca="false">F157*G157</f>
-        <v>357</v>
+        <v>64.6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B158" s="19"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="12"/>
-      <c r="D158" s="12" t="s">
-        <v>225</v>
-      </c>
+      <c r="D158" s="12"/>
       <c r="E158" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F158" s="29" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G158" s="30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H158" s="16" t="n">
         <f aca="false">F158*G158</f>
-        <v>1000</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F159" s="29" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G159" s="30" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H159" s="16" t="n">
         <f aca="false">F159*G159</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" s="19"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F160" s="29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G160" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H160" s="16" t="n">
+        <f aca="false">F160*G160</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B161" s="19"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F161" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G161" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="H161" s="16" t="n">
+        <f aca="false">F161*G161</f>
         <v>70</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H160" s="47" t="n">
-        <f aca="false">SUM(H3:H159)</f>
-        <v>17309.494</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H162" s="47" t="n">
+        <f aca="false">SUM(H3:H161)</f>
+        <v>17313.494</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F50">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F102">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F43">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:F47">
+  <conditionalFormatting sqref="F48:F49">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F101">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:F105">
+  <conditionalFormatting sqref="F104:F107">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:F117">
+  <conditionalFormatting sqref="F116:F119">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1214,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3084,14 +3084,14 @@
         <v>50</v>
       </c>
       <c r="F48" s="26" t="n">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>103.6</v>
+        <v>76.65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4596,14 +4596,14 @@
         <v>50</v>
       </c>
       <c r="F113" s="26" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G113" s="39" t="n">
         <v>3.1</v>
       </c>
       <c r="H113" s="38" t="n">
         <f aca="false">F113*G113</f>
-        <v>238.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4827,14 +4827,14 @@
         <v>50</v>
       </c>
       <c r="F122" s="26" t="n">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>425.7</v>
+        <v>374.88</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5121,14 +5121,14 @@
         <v>50</v>
       </c>
       <c r="F134" s="26" t="n">
-        <v>728</v>
+        <v>651</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>2184</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5719,7 +5719,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>17313.494</v>
+        <v>16766.024</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1214,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C143" activeCellId="0" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4425,14 +4425,14 @@
         <v>50</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G106" s="39" t="n">
         <v>4.8</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>283.2</v>
+        <v>268.8</v>
       </c>
       <c r="I106" s="41"/>
     </row>
@@ -5209,14 +5209,14 @@
         <v>17</v>
       </c>
       <c r="F138" s="26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G138" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H138" s="16" t="n">
         <f aca="false">F138*G138</f>
-        <v>134.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5232,14 +5232,14 @@
         <v>17</v>
       </c>
       <c r="F139" s="26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G139" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H139" s="16" t="n">
         <f aca="false">F139*G139</f>
-        <v>221</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5471,14 +5471,14 @@
         <v>50</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G150" s="30" t="n">
         <v>5.5</v>
       </c>
       <c r="H150" s="16" t="n">
         <f aca="false">F150*G150</f>
-        <v>137.5</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5492,14 +5492,14 @@
         <v>50</v>
       </c>
       <c r="F151" s="29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G151" s="30" t="n">
         <v>0.4</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5513,14 +5513,14 @@
         <v>50</v>
       </c>
       <c r="F152" s="29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G152" s="30" t="n">
         <v>0.5</v>
       </c>
       <c r="H152" s="16" t="n">
         <f aca="false">F152*G152</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5576,14 +5576,14 @@
         <v>50</v>
       </c>
       <c r="F155" s="29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155" s="30" t="n">
         <v>2.85</v>
       </c>
       <c r="H155" s="16" t="n">
         <f aca="false">F155*G155</f>
-        <v>119.7</v>
+        <v>116.85</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5719,7 +5719,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>16766.024</v>
+        <v>16491.874</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="231">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -512,6 +512,12 @@
     <t xml:space="preserve">Raccoglitori Dispense</t>
   </si>
   <si>
+    <t xml:space="preserve">10/9/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
     <t xml:space="preserve">Righelli metallici</t>
   </si>
   <si>
@@ -654,9 +660,6 @@
   </si>
   <si>
     <t xml:space="preserve">23/2/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">Ratioform</t>
@@ -1214,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C143" activeCellId="0" sqref="C143"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D111" activeCellId="0" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4637,8 +4640,12 @@
       <c r="A115" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
+      <c r="B115" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="D115" s="25" t="s">
         <v>44</v>
       </c>
@@ -4646,28 +4653,28 @@
         <v>50</v>
       </c>
       <c r="F115" s="26" t="n">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>404.2</v>
+        <v>1005.8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>50</v>
@@ -4685,7 +4692,7 @@
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B117" s="25" t="s">
         <v>68</v>
@@ -4694,7 +4701,7 @@
         <v>87</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>50</v>
@@ -4712,16 +4719,16 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D118" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>50</v>
@@ -4739,7 +4746,7 @@
     </row>
     <row r="119" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -4762,10 +4769,10 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>53</v>
@@ -4789,7 +4796,7 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B121" s="19" t="n">
         <v>43714</v>
@@ -4798,10 +4805,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F121" s="14" t="n">
         <v>3</v>
@@ -4816,30 +4823,30 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F122" s="26" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>374.88</v>
+        <v>374.22</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B123" s="25" t="s">
         <v>77</v>
@@ -4866,7 +4873,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
@@ -4889,7 +4896,7 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B125" s="25" t="s">
         <v>85</v>
@@ -4916,13 +4923,13 @@
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>49</v>
@@ -4943,7 +4950,7 @@
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -4966,7 +4973,7 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
@@ -4989,7 +4996,7 @@
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
@@ -5012,7 +5019,7 @@
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
@@ -5035,7 +5042,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -5058,7 +5065,7 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -5079,10 +5086,10 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>102</v>
@@ -5091,7 +5098,7 @@
         <v>29</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F133" s="26" t="n">
         <v>5</v>
@@ -5106,34 +5113,34 @@
     </row>
     <row r="134" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F134" s="26" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>1953</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -5154,7 +5161,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5175,12 +5182,12 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>17</v>
@@ -5198,7 +5205,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
@@ -5221,7 +5228,7 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -5244,7 +5251,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5265,7 +5272,7 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
@@ -5286,7 +5293,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
@@ -5307,12 +5314,12 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>17</v>
@@ -5330,7 +5337,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5351,16 +5358,16 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E145" s="25" t="s">
         <v>50</v>
@@ -5378,7 +5385,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5399,7 +5406,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5420,7 +5427,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5441,7 +5448,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5483,7 +5490,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5504,7 +5511,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5525,7 +5532,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5546,7 +5553,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
@@ -5567,7 +5574,7 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
@@ -5588,7 +5595,7 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
@@ -5609,7 +5616,7 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
@@ -5628,7 +5635,7 @@
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5649,12 +5656,12 @@
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>50</v>
@@ -5672,12 +5679,12 @@
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>50</v>
@@ -5695,12 +5702,12 @@
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>50</v>
@@ -5719,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>16491.874</v>
+        <v>17089.814</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D111" activeCellId="0" sqref="D111"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2357,14 +2357,14 @@
         <v>36</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="G24" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>709.264</v>
+        <v>672.704</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>17089.814</v>
+        <v>17053.254</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5128,14 +5128,14 @@
         <v>50</v>
       </c>
       <c r="F134" s="26" t="n">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>1950</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>17053.254</v>
+        <v>17038.254</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2357,14 +2357,14 @@
         <v>36</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="G24" s="15" t="n">
         <v>1.828</v>
       </c>
       <c r="H24" s="16" t="n">
         <f aca="false">F24*G24</f>
-        <v>672.704</v>
+        <v>636.144</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -4653,14 +4653,14 @@
         <v>50</v>
       </c>
       <c r="F115" s="26" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>1005.8</v>
+        <v>940</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>17038.254</v>
+        <v>16935.894</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2307,14 +2307,14 @@
         <v>14</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="15" t="n">
         <v>2</v>
       </c>
       <c r="H23" s="16" t="n">
         <f aca="false">F23*G23</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2407,14 +2407,14 @@
         <v>14</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H25" s="16" t="n">
         <f aca="false">F25*G25</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -4428,14 +4428,14 @@
         <v>50</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G106" s="39" t="n">
         <v>4.8</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>268.8</v>
+        <v>211.2</v>
       </c>
       <c r="I106" s="41"/>
     </row>
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>16935.894</v>
+        <v>16872.294</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F81" activeCellId="0" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3842,14 +3842,14 @@
         <v>50</v>
       </c>
       <c r="F81" s="26" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G81" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H81" s="16" t="n">
         <f aca="false">F81*G81</f>
-        <v>1172.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>16872.294</v>
+        <v>15699.794</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F81" activeCellId="0" sqref="F81"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4428,14 +4428,14 @@
         <v>50</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G106" s="39" t="n">
         <v>4.8</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>211.2</v>
+        <v>182.4</v>
       </c>
       <c r="I106" s="41"/>
     </row>
@@ -4834,14 +4834,14 @@
         <v>50</v>
       </c>
       <c r="F122" s="26" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>0.66</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>374.22</v>
+        <v>373.56</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5128,14 +5128,14 @@
         <v>50</v>
       </c>
       <c r="F134" s="26" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G134" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H134" s="16" t="n">
         <f aca="false">F134*G134</f>
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5726,7 +5726,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>15699.794</v>
+        <v>15667.334</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="232">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mine 0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Mine 0,7 mm</t>
@@ -1217,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4083,7 +4086,7 @@
         <v>134</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>87</v>
@@ -4095,19 +4098,19 @@
         <v>50</v>
       </c>
       <c r="F92" s="26" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G92" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="H92" s="16" t="n">
         <f aca="false">F92*G92</f>
-        <v>9.9</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -4164,19 +4167,19 @@
         <v>50</v>
       </c>
       <c r="F95" s="26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G95" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H95" s="16" t="n">
         <f aca="false">F95*G95</f>
-        <v>1.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>85</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B101" s="25" t="s">
         <v>85</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -4369,36 +4372,36 @@
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E104" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F104" s="26" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G104" s="39" t="n">
         <v>3.45</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>265.65</v>
+        <v>255.3</v>
       </c>
       <c r="I104" s="41"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E105" s="25" t="s">
         <v>50</v>
@@ -4417,36 +4420,36 @@
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E106" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F106" s="26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G106" s="39" t="n">
         <v>4.8</v>
       </c>
       <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
-        <v>182.4</v>
+        <v>163.2</v>
       </c>
       <c r="I106" s="41"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E107" s="25" t="s">
         <v>50</v>
@@ -4465,31 +4468,31 @@
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E108" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G108" s="39" t="n">
         <v>3.75</v>
       </c>
       <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
-        <v>142.5</v>
+        <v>138.75</v>
       </c>
       <c r="I108" s="41"/>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -4561,16 +4564,16 @@
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>50</v>
@@ -4588,7 +4591,7 @@
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
@@ -4611,13 +4614,13 @@
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B114" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>49</v>
@@ -4638,13 +4641,13 @@
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>44</v>
@@ -4665,16 +4668,16 @@
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>50</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B117" s="25" t="s">
         <v>68</v>
@@ -4701,7 +4704,7 @@
         <v>87</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E117" s="25" t="s">
         <v>50</v>
@@ -4719,34 +4722,34 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C118" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D118" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G118" s="20" t="n">
         <v>2</v>
       </c>
       <c r="H118" s="16" t="n">
         <f aca="false">F118*G118</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" s="22" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -4769,10 +4772,10 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>53</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B121" s="19" t="n">
         <v>43714</v>
@@ -4805,10 +4808,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F121" s="14" t="n">
         <v>3</v>
@@ -4823,12 +4826,12 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>50</v>
@@ -4846,7 +4849,7 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B123" s="25" t="s">
         <v>77</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B125" s="25" t="s">
         <v>85</v>
@@ -4923,13 +4926,13 @@
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>77</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>49</v>
@@ -4950,7 +4953,7 @@
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -4973,7 +4976,7 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
@@ -5019,7 +5022,7 @@
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
@@ -5042,7 +5045,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -5086,10 +5089,10 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C133" s="25" t="s">
         <v>102</v>
@@ -5098,7 +5101,7 @@
         <v>29</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F133" s="26" t="n">
         <v>5</v>
@@ -5113,16 +5116,16 @@
     </row>
     <row r="134" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>50</v>
@@ -5140,7 +5143,7 @@
     </row>
     <row r="135" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -5161,7 +5164,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -5182,12 +5185,12 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>17</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5272,7 +5275,7 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
@@ -5293,7 +5296,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
@@ -5314,12 +5317,12 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>17</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5358,16 +5361,16 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E145" s="25" t="s">
         <v>50</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5427,7 +5430,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5448,7 +5451,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="12"/>
@@ -5469,7 +5472,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="12"/>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="12"/>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="12"/>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B154" s="19"/>
       <c r="C154" s="12"/>
@@ -5574,7 +5577,7 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B155" s="19"/>
       <c r="C155" s="12"/>
@@ -5595,7 +5598,7 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B156" s="19"/>
       <c r="C156" s="12"/>
@@ -5616,7 +5619,7 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B157" s="19"/>
       <c r="C157" s="12"/>
@@ -5635,7 +5638,7 @@
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5656,12 +5659,12 @@
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="12"/>
       <c r="D159" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>50</v>
@@ -5679,12 +5682,12 @@
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B160" s="19"/>
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>50</v>
@@ -5702,12 +5705,12 @@
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B161" s="19"/>
       <c r="C161" s="12"/>
       <c r="D161" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>50</v>
@@ -5726,7 +5729,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>15667.334</v>
+        <v>15638.534</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1220,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F123" activeCellId="0" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3136,14 +3136,14 @@
         <v>50</v>
       </c>
       <c r="F50" s="26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G50" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="16" t="n">
         <f aca="false">F50*G50</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4503,14 +4503,14 @@
         <v>50</v>
       </c>
       <c r="F109" s="26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G109" s="39" t="n">
         <v>4</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I109" s="41"/>
     </row>
@@ -4527,14 +4527,14 @@
         <v>50</v>
       </c>
       <c r="F110" s="26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" s="39" t="n">
         <v>0.8</v>
       </c>
       <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I110" s="41"/>
     </row>
@@ -4656,14 +4656,14 @@
         <v>50</v>
       </c>
       <c r="F115" s="26" t="n">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="G115" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H115" s="16" t="n">
         <f aca="false">F115*G115</f>
-        <v>940</v>
+        <v>291.4</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4864,14 +4864,14 @@
         <v>50</v>
       </c>
       <c r="F123" s="26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G123" s="20" t="n">
         <v>2.85</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>11.4</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4914,14 +4914,14 @@
         <v>50</v>
       </c>
       <c r="F125" s="26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G125" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H125" s="16" t="n">
         <f aca="false">F125*G125</f>
-        <v>55.1</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5729,7 +5729,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>15638.534</v>
+        <v>14914.084</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1220,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:AI164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F123" activeCellId="0" sqref="F123"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3715,14 +3715,14 @@
         <v>50</v>
       </c>
       <c r="F75" s="26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G75" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3866,14 +3866,14 @@
         <v>50</v>
       </c>
       <c r="F82" s="26" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G82" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H82" s="16" t="n">
         <f aca="false">F82*G82</f>
-        <v>402</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5729,7 +5729,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H162" s="47" t="n">
         <f aca="false">SUM(H3:H161)</f>
-        <v>14914.084</v>
+        <v>15179.084</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H109" activeCellId="0" sqref="H109"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J48" activeCellId="0" sqref="J48:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2868,7 +2868,7 @@
         <v>48</v>
       </c>
       <c r="D47" s="13" t="n">
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="15" t="n">

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J48" activeCellId="0" sqref="J48:M48"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1591,14 +1591,14 @@
         <v>15</v>
       </c>
       <c r="D11" s="17" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E11" s="14" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="15" t="n">
         <f aca="false">D11*E11</f>
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4775,14 +4775,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E139" s="18" t="n">
         <v>2.69</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4796,14 +4796,14 @@
         <v>15</v>
       </c>
       <c r="D140" s="24" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E140" s="18" t="n">
         <v>2.21</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>110.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2167,14 +2167,14 @@
         <v>12</v>
       </c>
       <c r="D23" s="17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">D23*E23</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2968,9 +2968,9 @@
       <c r="E52" s="18" t="n">
         <v>1.75</v>
       </c>
-      <c r="F52" s="15" t="e">
-        <f aca="false">D52*g51b1:#REF!</f>
-        <v>#NAME?</v>
+      <c r="F52" s="15" t="n">
+        <f aca="false">D52*E52</f>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3592,14 +3592,14 @@
         <v>48</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>670</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4292,14 +4292,14 @@
         <v>48</v>
       </c>
       <c r="D116" s="24" t="n">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="E116" s="18" t="n">
         <v>4.7</v>
       </c>
       <c r="F116" s="15" t="n">
         <f aca="false">D116*E116</f>
-        <v>291.4</v>
+        <v>1231.4</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5047,14 +5047,14 @@
         <v>48</v>
       </c>
       <c r="D153" s="27" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E153" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5233,9 +5233,9 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F163" s="44" t="e">
+      <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>#NAME?</v>
+        <v>20676.784</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H53" activeCellId="0" sqref="H53"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3592,14 +3592,14 @@
         <v>48</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>3685</v>
+        <v>3182.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4141,14 +4141,14 @@
         <v>48</v>
       </c>
       <c r="D109" s="24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" s="36" t="n">
         <v>3.75</v>
       </c>
       <c r="F109" s="35" t="n">
         <f aca="false">D109*E109</f>
-        <v>138.75</v>
+        <v>135</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>20676.784</v>
+        <v>20170.534</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1932</v>
+        <v>1914</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>20170.534</v>
+        <v>20152.534</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2904,14 +2904,14 @@
         <v>48</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E49" s="18" t="n">
         <v>0.35</v>
       </c>
       <c r="F49" s="15" t="n">
         <f aca="false">D49*E49</f>
-        <v>76.65</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4250,14 +4250,14 @@
         <v>48</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E114" s="36" t="n">
         <v>3.1</v>
       </c>
       <c r="F114" s="35" t="n">
         <f aca="false">D114*E114</f>
-        <v>471.2</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4441,14 +4441,14 @@
         <v>48</v>
       </c>
       <c r="D123" s="24" t="n">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="E123" s="18" t="n">
         <v>0.66</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>373.56</v>
+        <v>338.58</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1914</v>
+        <v>1755</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>20152.534</v>
+        <v>19775.704</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A101" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2904,14 +2904,14 @@
         <v>48</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E49" s="18" t="n">
         <v>0.35</v>
       </c>
       <c r="F49" s="15" t="n">
         <f aca="false">D49*E49</f>
-        <v>58.1</v>
+        <v>57.05</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4313,14 +4313,14 @@
         <v>48</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E117" s="18" t="n">
         <v>2.5</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>157.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1755</v>
+        <v>1668</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>19775.704</v>
+        <v>19530.154</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2904,14 +2904,14 @@
         <v>48</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E49" s="18" t="n">
         <v>0.35</v>
       </c>
       <c r="F49" s="15" t="n">
         <f aca="false">D49*E49</f>
-        <v>57.05</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3592,14 +3592,14 @@
         <v>48</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>3182.5</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4250,14 +4250,14 @@
         <v>48</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E114" s="36" t="n">
         <v>3.1</v>
       </c>
       <c r="F114" s="35" t="n">
         <f aca="false">D114*E114</f>
-        <v>306.9</v>
+        <v>244.9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4441,14 +4441,14 @@
         <v>48</v>
       </c>
       <c r="D123" s="24" t="n">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="E123" s="18" t="n">
         <v>0.66</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>338.58</v>
+        <v>325.38</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1668</v>
+        <v>1608</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>19530.154</v>
+        <v>19220.454</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2942,14 +2942,14 @@
         <v>48</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E51" s="18" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="15" t="n">
         <f aca="false">D51*E51</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2963,14 +2963,14 @@
         <v>48</v>
       </c>
       <c r="D52" s="24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" s="18" t="n">
         <v>1.75</v>
       </c>
       <c r="F52" s="15" t="n">
         <f aca="false">D52*E52</f>
-        <v>14</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3455,14 +3455,14 @@
         <v>48</v>
       </c>
       <c r="D76" s="24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E76" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F76" s="15" t="n">
         <f aca="false">D76*E76</f>
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3592,14 +3592,14 @@
         <v>48</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E83" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>3015</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3863,14 +3863,14 @@
         <v>48</v>
       </c>
       <c r="D96" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E96" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F96" s="15" t="n">
         <f aca="false">D96*E96</f>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4097,14 +4097,14 @@
         <v>48</v>
       </c>
       <c r="D107" s="24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E107" s="36" t="n">
         <v>4.8</v>
       </c>
       <c r="F107" s="35" t="n">
         <f aca="false">D107*E107</f>
-        <v>163.2</v>
+        <v>139.2</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -4141,14 +4141,14 @@
         <v>48</v>
       </c>
       <c r="D109" s="24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E109" s="36" t="n">
         <v>3.75</v>
       </c>
       <c r="F109" s="35" t="n">
         <f aca="false">D109*E109</f>
-        <v>135</v>
+        <v>131.25</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -4207,14 +4207,14 @@
         <v>48</v>
       </c>
       <c r="D112" s="24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E112" s="36" t="n">
         <v>1.8</v>
       </c>
       <c r="F112" s="35" t="n">
         <f aca="false">D112*E112</f>
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -4462,14 +4462,14 @@
         <v>48</v>
       </c>
       <c r="D124" s="24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E124" s="18" t="n">
         <v>2.85</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>2.85</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4504,14 +4504,14 @@
         <v>48</v>
       </c>
       <c r="D126" s="24" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E126" s="18" t="n">
         <v>2.9</v>
       </c>
       <c r="F126" s="15" t="n">
         <f aca="false">D126*E126</f>
-        <v>40.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4525,14 +4525,14 @@
         <v>48</v>
       </c>
       <c r="D127" s="24" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E127" s="18" t="n">
         <v>1.72</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>5.16</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4649,14 +4649,14 @@
         <v>12</v>
       </c>
       <c r="D133" s="24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E133" s="18" t="n">
         <v>2.87</v>
       </c>
       <c r="F133" s="15" t="n">
         <f aca="false">D133*E133</f>
-        <v>5.74</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1608</v>
+        <v>1482</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -4775,14 +4775,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E139" s="18" t="n">
         <v>2.69</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>538</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>19220.454</v>
+        <v>16584.754</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2215,14 +2215,14 @@
         <v>34</v>
       </c>
       <c r="D24" s="17" t="n">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="E24" s="14" t="n">
         <v>1.828</v>
       </c>
       <c r="F24" s="15" t="n">
         <f aca="false">D24*E24</f>
-        <v>636.144</v>
+        <v>427.752</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -4075,14 +4075,14 @@
         <v>48</v>
       </c>
       <c r="D106" s="24" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E106" s="36" t="n">
         <v>2.9</v>
       </c>
       <c r="F106" s="35" t="n">
         <f aca="false">D106*E106</f>
-        <v>168.2</v>
+        <v>162.4</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -4097,14 +4097,14 @@
         <v>48</v>
       </c>
       <c r="D107" s="24" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E107" s="36" t="n">
         <v>4.8</v>
       </c>
       <c r="F107" s="35" t="n">
         <f aca="false">D107*E107</f>
-        <v>139.2</v>
+        <v>120</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -4313,14 +4313,14 @@
         <v>48</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E117" s="18" t="n">
         <v>2.5</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>0</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4691,14 +4691,14 @@
         <v>48</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="E135" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1482</v>
+        <v>1395</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
@@ -4796,14 +4796,14 @@
         <v>15</v>
       </c>
       <c r="D140" s="24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E140" s="18" t="n">
         <v>2.21</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>442</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>16584.754</v>
+        <v>16368.862</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4775,14 +4775,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E139" s="18" t="n">
         <v>2.69</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>403.5</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>16368.862</v>
+        <v>16234.362</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H72:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3455,14 +3455,14 @@
         <v>48</v>
       </c>
       <c r="D76" s="24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F76" s="15" t="n">
         <f aca="false">D76*E76</f>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4053,14 +4053,14 @@
         <v>48</v>
       </c>
       <c r="D105" s="24" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E105" s="36" t="n">
         <v>3.45</v>
       </c>
       <c r="F105" s="35" t="n">
         <f aca="false">D105*E105</f>
-        <v>255.3</v>
+        <v>248.4</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -5235,7 +5235,7 @@
     <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F163" s="44" t="n">
         <f aca="false">SUM(F3:F162)</f>
-        <v>16234.362</v>
+        <v>16224.462</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$162</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$145</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="204">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -125,25 +125,22 @@
     <t xml:space="preserve">Aghi a mano 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Appendini Plastica</t>
+    <t xml:space="preserve">Trilobato(gommina) 75 gr 100% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurospal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bindello cotone bianco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borse Nere  con logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cina</t>
   </si>
   <si>
     <t xml:space="preserve">n.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trilobato(gommina) 75 gr 100% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eurospal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bindello cotone bianco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borse Nere  con logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cina</t>
   </si>
   <si>
     <t xml:space="preserve">Bindello cotone nero</t>
@@ -1124,10 +1121,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ165"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H73" activeCellId="0" sqref="H72:H73"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1687,14 +1684,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">D13*E13</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2065,20 +2062,20 @@
         <v>33</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14" t="n">
-        <v>0.5</v>
+        <v>8.3</v>
       </c>
       <c r="F21" s="15" t="n">
         <f aca="false">D21*E21</f>
-        <v>2.5</v>
+        <v>249</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2113,20 +2110,20 @@
         <v>35</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E22" s="14" t="n">
-        <v>8.3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">D22*E22</f>
-        <v>249</v>
+        <v>8</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2158,23 +2155,23 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D23" s="17" t="n">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>2</v>
+        <v>1.828</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">D23*E23</f>
-        <v>8</v>
+        <v>453.344</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2204,73 +2201,73 @@
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="11" t="s">
+    <row r="24" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="17" t="n">
-        <v>234</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>1.828</v>
+      <c r="B24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F24" s="15" t="n">
         <f aca="false">D24*E24</f>
-        <v>427.752</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" s="18" t="n">
-        <v>2</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="15" t="n">
         <f aca="false">D25*E25</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2304,16 +2301,16 @@
     </row>
     <row r="26" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="15" t="n">
@@ -2355,13 +2352,13 @@
         <v>43</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="15" t="n">
@@ -2403,18 +2400,20 @@
         <v>44</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>500</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E28" s="18" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F28" s="15" t="n">
         <f aca="false">D28*E28</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -2446,144 +2445,115 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+    <row r="29" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>60</v>
+      <c r="B29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="E29" s="18" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="15" t="n">
         <f aca="false">D29*E29</f>
-        <v>30</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
+        <v>0</v>
+      </c>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="C30" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="24" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E30" s="18" t="n">
-        <v>3</v>
+        <v>0.98</v>
       </c>
       <c r="F30" s="15" t="n">
         <f aca="false">D30*E30</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="E31" s="18" t="n">
-        <v>0.98</v>
+        <v>6</v>
       </c>
       <c r="F31" s="15" t="n">
         <f aca="false">D31*E31</f>
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="24" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="18" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>24</v>
-      </c>
-      <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D33" s="24" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E33" s="18" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="15" t="n">
         <f aca="false">D33*E33</f>
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2597,96 +2567,96 @@
         <v>15</v>
       </c>
       <c r="D34" s="24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E34" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F34" s="15" t="n">
         <f aca="false">D34*E34</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="24" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="18" t="n">
-        <v>2</v>
+      <c r="D35" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E35" s="28" t="n">
+        <v>1.14</v>
       </c>
       <c r="F35" s="15" t="n">
         <f aca="false">D35*E35</f>
-        <v>200</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E36" s="28" t="n">
-        <v>1.14</v>
+      <c r="B36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18" t="n">
+        <v>8.5</v>
       </c>
       <c r="F36" s="15" t="n">
         <f aca="false">D36*E36</f>
-        <v>28.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>57</v>
-      </c>
       <c r="D37" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="n">
-        <v>8.5</v>
+        <v>27.44</v>
       </c>
       <c r="F37" s="15" t="n">
         <f aca="false">D37*E37</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E38" s="18" t="n">
-        <v>27.44</v>
+        <v>17</v>
       </c>
       <c r="F38" s="15" t="n">
         <f aca="false">D38*E38</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2694,20 +2664,20 @@
         <v>60</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" s="18" t="n">
-        <v>17</v>
+        <v>7.9</v>
       </c>
       <c r="F39" s="15" t="n">
         <f aca="false">D39*E39</f>
-        <v>102</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2715,104 +2685,104 @@
         <v>61</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E40" s="18" t="n">
-        <v>7.9</v>
+        <v>2.76</v>
       </c>
       <c r="F40" s="15" t="n">
         <f aca="false">D40*E40</f>
-        <v>23.7</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41" s="18" t="n">
-        <v>2.76</v>
+        <v>9.75</v>
       </c>
       <c r="F41" s="15" t="n">
         <f aca="false">D41*E41</f>
-        <v>55.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E42" s="18" t="n">
-        <v>9.75</v>
+        <v>2.6</v>
       </c>
       <c r="F42" s="15" t="n">
         <f aca="false">D42*E42</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>64</v>
+      <c r="A43" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="E43" s="18" t="n">
-        <v>2.6</v>
+        <v>46</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="F43" s="15" t="n">
         <f aca="false">D43*E43</f>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12" t="n">
-        <v>3.68</v>
+        <v>6</v>
+      </c>
+      <c r="E44" s="18" t="n">
+        <v>3</v>
       </c>
       <c r="F44" s="15" t="n">
         <f aca="false">D44*E44</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2820,20 +2790,20 @@
         <v>68</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E45" s="18" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="F45" s="15" t="n">
         <f aca="false">D45*E45</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2841,17 +2811,15 @@
         <v>69</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="18" t="n">
-        <v>0.25</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="E46" s="18"/>
       <c r="F46" s="15" t="n">
         <f aca="false">D46*E46</f>
         <v>0</v>
@@ -2861,19 +2829,19 @@
       <c r="A47" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="B47" s="23"/>
       <c r="C47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="13" t="n">
-        <v>576</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="D47" s="24" t="n">
+        <v>170</v>
+      </c>
+      <c r="E47" s="18" t="n">
+        <v>1.18</v>
+      </c>
       <c r="F47" s="15" t="n">
         <f aca="false">D47*E47</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2882,17 +2850,17 @@
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="24" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E48" s="18" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="F48" s="15" t="n">
         <f aca="false">D48*E48</f>
-        <v>200.6</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2901,34 +2869,36 @@
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>143</v>
-      </c>
-      <c r="E49" s="18" t="n">
-        <v>0.35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="15" t="n">
         <f aca="false">D49*E49</f>
-        <v>50.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="C50" s="30" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D50" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E50" s="18"/>
+        <v>9</v>
+      </c>
+      <c r="E50" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="F50" s="15" t="n">
         <f aca="false">D50*E50</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2936,20 +2906,20 @@
         <v>74</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E51" s="18" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F51" s="15" t="n">
         <f aca="false">D51*E51</f>
-        <v>9</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2957,20 +2927,20 @@
         <v>75</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E52" s="18" t="n">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="F52" s="15" t="n">
         <f aca="false">D52*E52</f>
-        <v>22.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2978,41 +2948,39 @@
         <v>76</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D53" s="24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E53" s="18" t="n">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="F53" s="15" t="n">
         <f aca="false">D53*E53</f>
-        <v>0.72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E54" s="18" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="F54" s="15" t="n">
         <f aca="false">D54*E54</f>
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3024,54 +2992,56 @@
         <v>15</v>
       </c>
       <c r="D55" s="24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E55" s="18" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="F55" s="15" t="n">
         <f aca="false">D55*E55</f>
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23" t="s">
-        <v>15</v>
+      <c r="B56" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D56" s="24" t="n">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="E56" s="18" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="F56" s="15" t="n">
         <f aca="false">D56*E56</f>
-        <v>10</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="24" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="E57" s="18" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F57" s="15" t="n">
         <f aca="false">D57*E57</f>
-        <v>52.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3079,16 +3049,16 @@
         <v>82</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="18" t="n">
-        <v>0.22</v>
+        <v>2.13</v>
       </c>
       <c r="F58" s="15" t="n">
         <f aca="false">D58*E58</f>
@@ -3096,45 +3066,45 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D59" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="18" t="n">
-        <v>2.13</v>
+        <v>5.95</v>
       </c>
       <c r="F59" s="15" t="n">
         <f aca="false">D59*E59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D60" s="24" t="n">
         <v>2</v>
       </c>
       <c r="E60" s="18" t="n">
-        <v>5.95</v>
+        <v>0.7</v>
       </c>
       <c r="F60" s="15" t="n">
         <f aca="false">D60*E60</f>
-        <v>11.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3142,20 +3112,20 @@
         <v>85</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E61" s="18" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="F61" s="15" t="n">
         <f aca="false">D61*E61</f>
-        <v>1.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3163,20 +3133,20 @@
         <v>86</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E62" s="18" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="15" t="n">
         <f aca="false">D62*E62</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3184,81 +3154,81 @@
         <v>87</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F63" s="15" t="n">
         <f aca="false">D63*E63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D64" s="24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E64" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F64" s="15" t="n">
         <f aca="false">D64*E64</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="23" t="s">
         <v>90</v>
       </c>
+      <c r="B65" s="23"/>
       <c r="C65" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D65" s="24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E65" s="18" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="F65" s="15" t="n">
         <f aca="false">D65*E65</f>
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="C66" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="E66" s="18" t="n">
-        <v>5.35</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3266,20 +3236,20 @@
         <v>92</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F67" s="15" t="n">
         <f aca="false">D67*E67</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3287,20 +3257,20 @@
         <v>93</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D68" s="24" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E68" s="18" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="F68" s="15" t="n">
         <f aca="false">D68*E68</f>
-        <v>1.5</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3308,20 +3278,20 @@
         <v>94</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D69" s="24" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E69" s="18" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="F69" s="15" t="n">
         <f aca="false">D69*E69</f>
-        <v>43.56</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3329,41 +3299,39 @@
         <v>95</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D70" s="24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="18" t="n">
-        <v>4.9</v>
+        <v>0.44</v>
       </c>
       <c r="F70" s="15" t="n">
         <f aca="false">D70*E70</f>
-        <v>19.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E71" s="18" t="n">
-        <v>0.44</v>
+        <v>15</v>
+      </c>
+      <c r="D71" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E71" s="28" t="n">
+        <v>4.85</v>
       </c>
       <c r="F71" s="15" t="n">
         <f aca="false">D71*E71</f>
-        <v>2.2</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3375,73 +3343,75 @@
         <v>15</v>
       </c>
       <c r="D72" s="27" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E72" s="28" t="n">
-        <v>4.85</v>
+        <v>5.04</v>
       </c>
       <c r="F72" s="15" t="n">
         <f aca="false">D72*E72</f>
-        <v>53.35</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="27" t="n">
-        <v>30</v>
-      </c>
-      <c r="E73" s="28" t="n">
-        <v>5.04</v>
+      <c r="D73" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" s="18" t="n">
+        <v>8.3</v>
       </c>
       <c r="F73" s="15" t="n">
         <f aca="false">D73*E73</f>
-        <v>151.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>15</v>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="D74" s="24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E74" s="18" t="n">
-        <v>8.3</v>
+        <v>0.75</v>
       </c>
       <c r="F74" s="15" t="n">
         <f aca="false">D74*E74</f>
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C75" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" s="24" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E75" s="18" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3449,62 +3419,60 @@
         <v>102</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D76" s="24" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E76" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F76" s="15" t="n">
         <f aca="false">D76*E76</f>
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="24" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E77" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="n">
         <f aca="false">D77*E77</f>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="24" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E78" s="18" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="F78" s="15" t="n">
         <f aca="false">D78*E78</f>
-        <v>21</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3516,14 +3484,14 @@
         <v>15</v>
       </c>
       <c r="D79" s="24" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" s="18" t="n">
         <v>4.9</v>
       </c>
       <c r="F79" s="15" t="n">
         <f aca="false">D79*E79</f>
-        <v>210.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3535,14 +3503,14 @@
         <v>15</v>
       </c>
       <c r="D80" s="24" t="n">
-        <v>10</v>
+        <v>49.3</v>
       </c>
       <c r="E80" s="18" t="n">
         <v>4.9</v>
       </c>
       <c r="F80" s="15" t="n">
         <f aca="false">D80*E80</f>
-        <v>49</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3551,17 +3519,17 @@
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="23" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D81" s="24" t="n">
-        <v>49.3</v>
+        <v>0</v>
       </c>
       <c r="E81" s="18" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="F81" s="15" t="n">
         <f aca="false">D81*E81</f>
-        <v>241.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3570,17 +3538,17 @@
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D82" s="24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E82" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F82" s="15" t="n">
         <f aca="false">D82*E82</f>
-        <v>0</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3589,57 +3557,59 @@
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83" s="18" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>536</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="C84" s="23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D84" s="24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E84" s="18" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="F84" s="15" t="n">
         <f aca="false">D84*E84</f>
-        <v>81.7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="C85" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="24" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E85" s="18" t="n">
         <v>8.5</v>
       </c>
       <c r="F85" s="15" t="n">
         <f aca="false">D85*E85</f>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3647,20 +3617,20 @@
         <v>114</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="24" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="E86" s="18" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="F86" s="15" t="n">
         <f aca="false">D86*E86</f>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3668,20 +3638,20 @@
         <v>115</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="24" t="n">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="E87" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="15" t="n">
         <f aca="false">D87*E87</f>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3689,20 +3659,20 @@
         <v>116</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E88" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F88" s="15" t="n">
         <f aca="false">D88*E88</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3710,20 +3680,20 @@
         <v>117</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D89" s="24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E89" s="18" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="F89" s="15" t="n">
         <f aca="false">D89*E89</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3737,14 +3707,14 @@
         <v>23</v>
       </c>
       <c r="D90" s="24" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E90" s="18" t="n">
         <v>0.3</v>
       </c>
       <c r="F90" s="15" t="n">
         <f aca="false">D90*E90</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3752,20 +3722,20 @@
         <v>119</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D91" s="24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E91" s="18" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>7.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3773,20 +3743,20 @@
         <v>120</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D92" s="24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E92" s="18" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="F92" s="15" t="n">
         <f aca="false">D92*E92</f>
-        <v>10.4</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3794,20 +3764,20 @@
         <v>121</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D93" s="24" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E93" s="18" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="F93" s="15" t="n">
         <f aca="false">D93*E93</f>
-        <v>20.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3815,20 +3785,20 @@
         <v>122</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D94" s="24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E94" s="18" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F94" s="15" t="n">
         <f aca="false">D94*E94</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3836,20 +3806,20 @@
         <v>123</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D95" s="24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E95" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F95" s="15" t="n">
         <f aca="false">D95*E95</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3857,20 +3827,20 @@
         <v>124</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D96" s="24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E96" s="18" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="F96" s="15" t="n">
         <f aca="false">D96*E96</f>
-        <v>30</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3878,20 +3848,20 @@
         <v>125</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D97" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="n">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="F97" s="15" t="n">
         <f aca="false">D97*E97</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3899,16 +3869,16 @@
         <v>126</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D98" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="18" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F98" s="15" t="n">
         <f aca="false">D98*E98</f>
@@ -3920,10 +3890,10 @@
         <v>127</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D99" s="24" t="n">
         <v>0</v>
@@ -3941,20 +3911,20 @@
         <v>128</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D100" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E100" s="31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F100" s="32" t="n">
         <f aca="false">D100*E100</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3962,18 +3932,18 @@
         <v>129</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="24" t="n">
+        <v>47</v>
+      </c>
+      <c r="D101" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="E101" s="31" t="n">
+      <c r="E101" s="34" t="n">
         <v>0.19</v>
       </c>
-      <c r="F101" s="32" t="n">
+      <c r="F101" s="35" t="n">
         <f aca="false">D101*E101</f>
         <v>9.5</v>
       </c>
@@ -3983,20 +3953,20 @@
         <v>130</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="E102" s="34" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F102" s="35" t="n">
+        <v>47</v>
+      </c>
+      <c r="D102" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E102" s="18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F102" s="32" t="n">
         <f aca="false">D102*E102</f>
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4004,63 +3974,64 @@
         <v>131</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D103" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E103" s="18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F103" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="35" t="n">
         <f aca="false">D103*E103</f>
-        <v>2.4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G103" s="37"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D104" s="24" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E104" s="36" t="n">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="F104" s="35" t="n">
         <f aca="false">D104*E104</f>
-        <v>4</v>
-      </c>
-      <c r="G104" s="37"/>
+        <v>248.4</v>
+      </c>
+      <c r="G104" s="38"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="23" t="s">
-        <v>134</v>
-      </c>
       <c r="C105" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D105" s="24" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E105" s="36" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="F105" s="35" t="n">
         <f aca="false">D105*E105</f>
-        <v>248.4</v>
+        <v>162.4</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -4069,20 +4040,20 @@
         <v>135</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D106" s="24" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E106" s="36" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="F106" s="35" t="n">
         <f aca="false">D106*E106</f>
-        <v>162.4</v>
+        <v>120</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -4091,20 +4062,20 @@
         <v>136</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D107" s="24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E107" s="36" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="F107" s="35" t="n">
         <f aca="false">D107*E107</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -4113,20 +4084,20 @@
         <v>137</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D108" s="24" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E108" s="36" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="F108" s="35" t="n">
         <f aca="false">D108*E108</f>
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -4135,20 +4106,20 @@
         <v>138</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D109" s="24" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E109" s="36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="F109" s="35" t="n">
         <f aca="false">D109*E109</f>
-        <v>131.25</v>
+        <v>0</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -4157,16 +4128,16 @@
         <v>139</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D110" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="36" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="F110" s="35" t="n">
         <f aca="false">D110*E110</f>
@@ -4179,20 +4150,20 @@
         <v>140</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D111" s="24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E111" s="36" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="F111" s="35" t="n">
         <f aca="false">D111*E111</f>
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -4201,42 +4172,41 @@
         <v>141</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D112" s="24" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E112" s="36" t="n">
-        <v>1.8</v>
+        <v>11.7</v>
       </c>
       <c r="F112" s="35" t="n">
         <f aca="false">D112*E112</f>
-        <v>64.8</v>
-      </c>
-      <c r="G112" s="38"/>
+        <v>222.3</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D113" s="24" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E113" s="36" t="n">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="F113" s="35" t="n">
         <f aca="false">D113*E113</f>
-        <v>222.3</v>
+        <v>244.9</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4244,20 +4214,20 @@
         <v>144</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>79</v>
-      </c>
-      <c r="E114" s="36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F114" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E114" s="18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F114" s="39" t="n">
         <f aca="false">D114*E114</f>
-        <v>244.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4265,20 +4235,20 @@
         <v>145</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D115" s="24" t="n">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="E115" s="18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F115" s="39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F115" s="15" t="n">
         <f aca="false">D115*E115</f>
-        <v>16.6</v>
+        <v>1231.4</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4286,169 +4256,169 @@
         <v>146</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D116" s="24" t="n">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="E116" s="18" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="F116" s="15" t="n">
         <f aca="false">D116*E116</f>
-        <v>1231.4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="23" t="s">
         <v>148</v>
       </c>
+      <c r="B117" s="40" t="s">
+        <v>149</v>
+      </c>
       <c r="C117" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E117" s="18" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>150</v>
-      </c>
       <c r="C118" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D118" s="24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E118" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="15" t="n">
         <f aca="false">D118*E118</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>150</v>
+      <c r="B119" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D119" s="24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E119" s="18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F119" s="15" t="n">
         <f aca="false">D119*E119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="41" t="s">
+        <v>105.6</v>
+      </c>
+      <c r="AMI119" s="0"/>
+      <c r="AMJ119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B120" s="42" t="s">
-        <v>65</v>
+      <c r="B120" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C120" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="24" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E120" s="18" t="n">
         <v>2.4</v>
       </c>
       <c r="F120" s="15" t="n">
         <f aca="false">D120*E120</f>
-        <v>105.6</v>
-      </c>
-      <c r="AMI120" s="0"/>
-      <c r="AMJ120" s="0"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E121" s="18" t="n">
-        <v>2.4</v>
+      <c r="B121" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E121" s="15" t="n">
+        <v>6</v>
       </c>
       <c r="F121" s="15" t="n">
         <f aca="false">D121*E121</f>
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C122" s="12" t="s">
+      <c r="A122" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D122" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>6</v>
+      <c r="B122" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="24" t="n">
+        <v>493</v>
+      </c>
+      <c r="E122" s="18" t="n">
+        <v>0.66</v>
       </c>
       <c r="F122" s="15" t="n">
         <f aca="false">D122*E122</f>
-        <v>18</v>
+        <v>325.38</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D123" s="24" t="n">
-        <v>493</v>
+        <v>13</v>
       </c>
       <c r="E123" s="18" t="n">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>325.38</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4456,20 +4426,20 @@
         <v>159</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D124" s="24" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E124" s="18" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>37.05</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4477,20 +4447,20 @@
         <v>160</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D125" s="24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125" s="18" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="F125" s="15" t="n">
         <f aca="false">D125*E125</f>
-        <v>5.16</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4498,20 +4468,20 @@
         <v>161</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D126" s="24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E126" s="18" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="F126" s="15" t="n">
         <f aca="false">D126*E126</f>
-        <v>5.8</v>
+        <v>41.28</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4519,20 +4489,20 @@
         <v>162</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D127" s="24" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E127" s="18" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>41.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4540,20 +4510,20 @@
         <v>163</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D128" s="24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E128" s="18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F128" s="15" t="n">
         <f aca="false">D128*E128</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4561,20 +4531,20 @@
         <v>164</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" s="24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E129" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="15" t="n">
         <f aca="false">D129*E129</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4582,20 +4552,20 @@
         <v>165</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D130" s="24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E130" s="18" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="F130" s="15" t="n">
         <f aca="false">D130*E130</f>
-        <v>0</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4609,159 +4579,159 @@
         <v>15</v>
       </c>
       <c r="D131" s="24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E131" s="18" t="n">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="F131" s="15" t="n">
         <f aca="false">D131*E131</f>
-        <v>215.2</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B132" s="23"/>
       <c r="C132" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D132" s="24" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E132" s="18" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="F132" s="15" t="n">
         <f aca="false">D132*E132</f>
-        <v>247.5</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="23"/>
+      <c r="B133" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="23" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D133" s="24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" s="18" t="n">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="F133" s="15" t="n">
         <f aca="false">D133*E133</f>
-        <v>17.22</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>5</v>
+        <v>465</v>
       </c>
       <c r="E134" s="18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>35</v>
-      </c>
+        <v>1395</v>
+      </c>
+      <c r="AMI134" s="0"/>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B135" s="23" t="s">
         <v>172</v>
       </c>
+      <c r="B135" s="23"/>
       <c r="C135" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="E135" s="18" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1395</v>
+        <v>1.96</v>
       </c>
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="22" t="s">
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" s="18" t="n">
-        <v>1.96</v>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="28" t="n">
+        <v>1.97</v>
       </c>
       <c r="F136" s="15" t="n">
         <f aca="false">D136*E136</f>
-        <v>1.96</v>
-      </c>
-      <c r="AMI136" s="0"/>
-      <c r="AMJ136" s="0"/>
+        <v>13.79</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26" t="s">
+      <c r="A137" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="12"/>
+      <c r="B137" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="C137" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="27" t="n">
+      <c r="D137" s="24" t="n">
+        <v>195</v>
+      </c>
+      <c r="E137" s="18" t="n">
         <v>7</v>
-      </c>
-      <c r="E137" s="28" t="n">
-        <v>1.97</v>
       </c>
       <c r="F137" s="15" t="n">
         <f aca="false">D137*E137</f>
-        <v>13.79</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D138" s="24" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="E138" s="18" t="n">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="F138" s="15" t="n">
         <f aca="false">D138*E138</f>
-        <v>1365</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4775,54 +4745,52 @@
         <v>15</v>
       </c>
       <c r="D139" s="24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E139" s="18" t="n">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>269</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B140" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B140" s="12"/>
       <c r="C140" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="24" t="n">
-        <v>150</v>
-      </c>
-      <c r="E140" s="18" t="n">
-        <v>2.21</v>
+      <c r="D140" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E140" s="28" t="n">
+        <v>1.43</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>331.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="26" t="s">
+      <c r="A141" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E141" s="28" t="n">
-        <v>1.43</v>
+      <c r="D141" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E141" s="18" t="n">
+        <v>8.5</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4834,94 +4802,94 @@
         <v>15</v>
       </c>
       <c r="D142" s="24" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E142" s="18" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="F142" s="15" t="n">
         <f aca="false">D142*E142</f>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B143" s="23"/>
+      <c r="B143" s="23" t="s">
+        <v>182</v>
+      </c>
       <c r="C143" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E143" s="18" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F143" s="15" t="n">
         <f aca="false">D143*E143</f>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="23" t="s">
+      <c r="A144" s="26" t="s">
         <v>183</v>
       </c>
+      <c r="B144" s="12"/>
       <c r="C144" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E144" s="18" t="n">
-        <v>47</v>
+      <c r="D144" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" s="28" t="n">
+        <v>2.97</v>
       </c>
       <c r="F144" s="15" t="n">
         <f aca="false">D144*E144</f>
-        <v>564</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="28" t="n">
-        <v>2.97</v>
+      <c r="B145" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="E145" s="18" t="n">
+        <v>1.36</v>
       </c>
       <c r="F145" s="15" t="n">
         <f aca="false">D145*E145</f>
-        <v>65.34</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B146" s="23" t="s">
+      <c r="A146" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C146" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="24" t="n">
-        <v>180</v>
-      </c>
-      <c r="E146" s="18" t="n">
-        <v>1.36</v>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="28" t="n">
+        <v>5</v>
       </c>
       <c r="F146" s="15" t="n">
         <f aca="false">D146*E146</f>
-        <v>244.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4930,17 +4898,17 @@
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D147" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" s="28" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F147" s="15" t="n">
         <f aca="false">D147*E147</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4949,17 +4917,17 @@
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D148" s="27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E148" s="28" t="n">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="F148" s="15" t="n">
         <f aca="false">D148*E148</f>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4968,17 +4936,17 @@
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D149" s="27" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E149" s="28" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="F149" s="15" t="n">
         <f aca="false">D149*E149</f>
-        <v>10.88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4987,17 +4955,17 @@
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D150" s="27" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E150" s="28" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="F150" s="15" t="n">
         <f aca="false">D150*E150</f>
-        <v>101.2</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5006,17 +4974,17 @@
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D151" s="27" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E151" s="28" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>126.5</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5025,17 +4993,17 @@
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D152" s="27" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E152" s="28" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F152" s="15" t="n">
         <f aca="false">D152*E152</f>
-        <v>20.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5044,17 +5012,17 @@
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D153" s="27" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E153" s="28" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>16.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5063,17 +5031,17 @@
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D154" s="27" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E154" s="28" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="F154" s="15" t="n">
         <f aca="false">D154*E154</f>
-        <v>58.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5082,17 +5050,17 @@
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D155" s="27" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E155" s="28" t="n">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="F155" s="15" t="n">
         <f aca="false">D155*E155</f>
-        <v>45.9</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5101,17 +5069,17 @@
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D156" s="27" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E156" s="28" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="F156" s="15" t="n">
         <f aca="false">D156*E156</f>
-        <v>116.85</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5119,18 +5087,16 @@
         <v>197</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="C157" s="12"/>
       <c r="D157" s="27" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E157" s="28" t="n">
         <v>3.4</v>
       </c>
       <c r="F157" s="15" t="n">
         <f aca="false">D157*E157</f>
-        <v>108.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5138,143 +5104,127 @@
         <v>198</v>
       </c>
       <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
+      <c r="C158" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="D158" s="27" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E158" s="28" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="F158" s="15" t="n">
         <f aca="false">D158*E158</f>
-        <v>64.6</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="C159" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D159" s="27" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E159" s="28" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F159" s="15" t="n">
         <f aca="false">D159*E159</f>
-        <v>135</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D160" s="27" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E160" s="28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F160" s="15" t="n">
         <f aca="false">D160*E160</f>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="C161" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D161" s="27" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E161" s="28" t="n">
         <v>10</v>
       </c>
       <c r="F161" s="15" t="n">
         <f aca="false">D161*E161</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E162" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F162" s="15" t="n">
-        <f aca="false">D162*E162</f>
         <v>70</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F163" s="44" t="n">
-        <f aca="false">SUM(F3:F162)</f>
-        <v>16224.462</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F162" s="44" t="n">
+        <f aca="false">SUM(F3:F161)</f>
+        <v>16293.204</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D50">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
+  <conditionalFormatting sqref="D102">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
+  <conditionalFormatting sqref="D48:D49">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="D101">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105:D108">
+  <conditionalFormatting sqref="D104:D107">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D117:D120">
+  <conditionalFormatting sqref="D116:D119">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D131:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4453,14 +4453,14 @@
         <v>47</v>
       </c>
       <c r="D125" s="24" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E125" s="18" t="n">
         <v>2.9</v>
       </c>
       <c r="F125" s="15" t="n">
         <f aca="false">D125*E125</f>
-        <v>5.8</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4474,14 +4474,14 @@
         <v>47</v>
       </c>
       <c r="D126" s="24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E126" s="18" t="n">
         <v>1.72</v>
       </c>
       <c r="F126" s="15" t="n">
         <f aca="false">D126*E126</f>
-        <v>41.28</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>16293.204</v>
+        <v>16319.164</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D132" activeCellId="0" sqref="D131:D132"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4199,14 +4199,14 @@
         <v>47</v>
       </c>
       <c r="D113" s="24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E113" s="36" t="n">
         <v>3.1</v>
       </c>
       <c r="F113" s="35" t="n">
         <f aca="false">D113*E113</f>
-        <v>244.9</v>
+        <v>241.8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4241,14 +4241,14 @@
         <v>47</v>
       </c>
       <c r="D115" s="24" t="n">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="E115" s="18" t="n">
         <v>4.7</v>
       </c>
       <c r="F115" s="15" t="n">
         <f aca="false">D115*E115</f>
-        <v>1231.4</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4262,14 +4262,14 @@
         <v>47</v>
       </c>
       <c r="D116" s="24" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E116" s="18" t="n">
         <v>2.5</v>
       </c>
       <c r="F116" s="15" t="n">
         <f aca="false">D116*E116</f>
-        <v>215</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4283,14 +4283,14 @@
         <v>47</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E117" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4304,14 +4304,14 @@
         <v>47</v>
       </c>
       <c r="D118" s="24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E118" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F118" s="15" t="n">
         <f aca="false">D118*E118</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4640,14 +4640,14 @@
         <v>47</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E134" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>1395</v>
+        <v>1368</v>
       </c>
       <c r="AMI134" s="0"/>
       <c r="AMJ134" s="0"/>
@@ -5150,14 +5150,14 @@
         <v>47</v>
       </c>
       <c r="D160" s="27" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E160" s="28" t="n">
         <v>10</v>
       </c>
       <c r="F160" s="15" t="n">
         <f aca="false">D160*E160</f>
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5171,20 +5171,20 @@
         <v>47</v>
       </c>
       <c r="D161" s="27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E161" s="28" t="n">
         <v>10</v>
       </c>
       <c r="F161" s="15" t="n">
         <f aca="false">D161*E161</f>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>16319.164</v>
+        <v>15028.964</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2116,14 +2116,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">D22*E22</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -4640,14 +4640,14 @@
         <v>47</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E134" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="AMI134" s="0"/>
       <c r="AMJ134" s="0"/>
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15028.964</v>
+        <v>15021.964</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,14 +2733,14 @@
         <v>65</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E42" s="18" t="n">
         <v>2.6</v>
       </c>
       <c r="F42" s="15" t="n">
         <f aca="false">D42*E42</f>
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,14 +4325,14 @@
         <v>15</v>
       </c>
       <c r="D119" s="24" t="n">
-        <v>44</v>
+        <v>157.8</v>
       </c>
       <c r="E119" s="18" t="n">
         <v>2.4</v>
       </c>
       <c r="F119" s="15" t="n">
         <f aca="false">D119*E119</f>
-        <v>105.6</v>
+        <v>378.72</v>
       </c>
       <c r="AMI119" s="0"/>
       <c r="AMJ119" s="0"/>
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15021.964</v>
+        <v>15360.084</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3522,14 +3522,14 @@
         <v>47</v>
       </c>
       <c r="D81" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F81" s="15" t="n">
         <f aca="false">D81*E81</f>
-        <v>0</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3541,14 +3541,14 @@
         <v>47</v>
       </c>
       <c r="D82" s="24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E82" s="18" t="n">
         <v>33.5</v>
       </c>
       <c r="F82" s="15" t="n">
         <f aca="false">D82*E82</f>
-        <v>536</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4640,14 +4640,14 @@
         <v>47</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E134" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>1365</v>
+        <v>1275</v>
       </c>
       <c r="AMI134" s="0"/>
       <c r="AMJ134" s="0"/>
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15360.084</v>
+        <v>15337.084</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2116,14 +2116,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E22" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">D22*E22</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -3812,14 +3812,14 @@
         <v>47</v>
       </c>
       <c r="D95" s="24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E95" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F95" s="15" t="n">
         <f aca="false">D95*E95</f>
-        <v>30</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4453,14 +4453,14 @@
         <v>47</v>
       </c>
       <c r="D125" s="24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E125" s="18" t="n">
         <v>2.9</v>
       </c>
       <c r="F125" s="15" t="n">
         <f aca="false">D125*E125</f>
-        <v>69.6</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4724,14 +4724,14 @@
         <v>15</v>
       </c>
       <c r="D138" s="24" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E138" s="18" t="n">
         <v>2.69</v>
       </c>
       <c r="F138" s="15" t="n">
         <f aca="false">D138*E138</f>
-        <v>269</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15337.084</v>
+        <v>15728.584</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1123,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4046,14 +4046,14 @@
         <v>47</v>
       </c>
       <c r="D106" s="24" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E106" s="36" t="n">
         <v>4.8</v>
       </c>
       <c r="F106" s="35" t="n">
         <f aca="false">D106*E106</f>
-        <v>120</v>
+        <v>91.2</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -5184,7 +5184,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15728.584</v>
+        <v>15699.784</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="203">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -323,9 +323,6 @@
     <t xml:space="preserve">Gommina Pangomma</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grucce in legno</t>
   </si>
   <si>
@@ -383,7 +380,7 @@
     <t xml:space="preserve">Lampo cm 22 invisibile</t>
   </si>
   <si>
-    <t xml:space="preserve">Matite legno</t>
+    <t xml:space="preserve">Levapunti</t>
   </si>
   <si>
     <t xml:space="preserve">Mine 0,5</t>
@@ -1123,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2912,14 +2909,14 @@
         <v>47</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E51" s="18" t="n">
         <v>1.75</v>
       </c>
       <c r="F51" s="15" t="n">
         <f aca="false">D51*E51</f>
-        <v>22.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3357,9 +3354,7 @@
       <c r="A73" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>99</v>
-      </c>
+      <c r="B73" s="23"/>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
@@ -3376,7 +3371,7 @@
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23" t="s">
@@ -3395,7 +3390,7 @@
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>27</v>
@@ -3416,10 +3411,10 @@
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>15</v>
@@ -3437,10 +3432,10 @@
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>15</v>
@@ -3458,7 +3453,7 @@
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
@@ -3477,7 +3472,7 @@
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -3496,7 +3491,7 @@
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="23" t="s">
@@ -3515,7 +3510,7 @@
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="23" t="s">
@@ -3534,7 +3529,7 @@
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="23" t="s">
@@ -3553,7 +3548,7 @@
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23" t="s">
@@ -3572,10 +3567,10 @@
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="C84" s="23" t="s">
         <v>15</v>
@@ -3593,10 +3588,10 @@
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="23" t="s">
         <v>15</v>
@@ -3614,10 +3609,10 @@
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>15</v>
@@ -3635,10 +3630,10 @@
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>15</v>
@@ -3656,10 +3651,10 @@
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>15</v>
@@ -3677,7 +3672,7 @@
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="23" t="s">
         <v>11</v>
@@ -3698,7 +3693,7 @@
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>11</v>
@@ -3719,28 +3714,28 @@
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D91" s="24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E91" s="18" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>10.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>46</v>
@@ -3761,7 +3756,7 @@
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" s="23" t="s">
         <v>46</v>
@@ -3782,7 +3777,7 @@
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>46</v>
@@ -3803,7 +3798,7 @@
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="23" t="s">
         <v>46</v>
@@ -3824,7 +3819,7 @@
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="23" t="s">
         <v>46</v>
@@ -3845,7 +3840,7 @@
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="23" t="s">
         <v>46</v>
@@ -3866,7 +3861,7 @@
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="23" t="s">
         <v>46</v>
@@ -3887,7 +3882,7 @@
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>46</v>
@@ -3908,7 +3903,7 @@
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>46</v>
@@ -3929,7 +3924,7 @@
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>46</v>
@@ -3950,7 +3945,7 @@
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>46</v>
@@ -3971,7 +3966,7 @@
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>46</v>
@@ -3993,10 +3988,10 @@
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>47</v>
@@ -4015,10 +4010,10 @@
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>47</v>
@@ -4037,10 +4032,10 @@
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>47</v>
@@ -4059,10 +4054,10 @@
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>47</v>
@@ -4081,10 +4076,10 @@
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>47</v>
@@ -4103,7 +4098,7 @@
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>46</v>
@@ -4125,7 +4120,7 @@
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="23" t="s">
         <v>46</v>
@@ -4147,7 +4142,7 @@
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>46</v>
@@ -4156,23 +4151,23 @@
         <v>47</v>
       </c>
       <c r="D111" s="24" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E111" s="36" t="n">
         <v>1.8</v>
       </c>
       <c r="F111" s="35" t="n">
         <f aca="false">D111*E111</f>
-        <v>64.8</v>
+        <v>90</v>
       </c>
       <c r="G111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>142</v>
       </c>
       <c r="C112" s="23" t="s">
         <v>47</v>
@@ -4190,7 +4185,7 @@
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>25</v>
@@ -4211,7 +4206,7 @@
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B114" s="23" t="s">
         <v>46</v>
@@ -4220,19 +4215,19 @@
         <v>47</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E114" s="18" t="n">
         <v>0.83</v>
       </c>
       <c r="F114" s="39" t="n">
         <f aca="false">D114*E114</f>
-        <v>16.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" s="23" t="s">
         <v>41</v>
@@ -4253,10 +4248,10 @@
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>146</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>147</v>
       </c>
       <c r="C116" s="23" t="s">
         <v>47</v>
@@ -4274,10 +4269,10 @@
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>47</v>
@@ -4295,10 +4290,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C118" s="23" t="s">
         <v>47</v>
@@ -4316,7 +4311,7 @@
     </row>
     <row r="119" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B119" s="42" t="s">
         <v>64</v>
@@ -4339,7 +4334,7 @@
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B120" s="23" t="s">
         <v>64</v>
@@ -4360,13 +4355,13 @@
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="D121" s="13" t="n">
         <v>3</v>
@@ -4381,10 +4376,10 @@
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="C122" s="23" t="s">
         <v>47</v>
@@ -4402,7 +4397,7 @@
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>46</v>
@@ -4423,7 +4418,7 @@
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" s="23" t="s">
         <v>46</v>
@@ -4444,7 +4439,7 @@
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>46</v>
@@ -4465,7 +4460,7 @@
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>46</v>
@@ -4486,7 +4481,7 @@
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>46</v>
@@ -4507,7 +4502,7 @@
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>46</v>
@@ -4528,7 +4523,7 @@
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>46</v>
@@ -4549,7 +4544,7 @@
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130" s="23" t="s">
         <v>11</v>
@@ -4570,7 +4565,7 @@
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>11</v>
@@ -4591,7 +4586,7 @@
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="23" t="s">
@@ -4610,13 +4605,13 @@
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D133" s="24" t="n">
         <v>5</v>
@@ -4631,10 +4626,10 @@
     </row>
     <row r="134" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="C134" s="23" t="s">
         <v>47</v>
@@ -4654,7 +4649,7 @@
     </row>
     <row r="135" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B135" s="23"/>
       <c r="C135" s="23" t="s">
@@ -4675,7 +4670,7 @@
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12" t="s">
@@ -4694,10 +4689,10 @@
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>15</v>
@@ -4715,7 +4710,7 @@
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>11</v>
@@ -4736,7 +4731,7 @@
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>11</v>
@@ -4757,7 +4752,7 @@
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12" t="s">
@@ -4776,7 +4771,7 @@
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="12" t="s">
@@ -4795,7 +4790,7 @@
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" s="12" t="s">
@@ -4814,10 +4809,10 @@
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>181</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>182</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>15</v>
@@ -4835,7 +4830,7 @@
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12" t="s">
@@ -4854,10 +4849,10 @@
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>47</v>
@@ -4875,7 +4870,7 @@
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12" t="s">
@@ -4894,7 +4889,7 @@
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12" t="s">
@@ -4913,7 +4908,7 @@
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12" t="s">
@@ -4932,7 +4927,7 @@
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12" t="s">
@@ -4951,7 +4946,7 @@
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12" t="s">
@@ -4970,7 +4965,7 @@
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12" t="s">
@@ -4989,7 +4984,7 @@
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12" t="s">
@@ -5008,7 +5003,7 @@
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
@@ -5027,7 +5022,7 @@
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
@@ -5046,7 +5041,7 @@
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
@@ -5065,7 +5060,7 @@
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12" t="s">
@@ -5084,7 +5079,7 @@
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5101,7 +5096,7 @@
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12" t="s">
@@ -5120,10 +5115,10 @@
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>47</v>
@@ -5141,10 +5136,10 @@
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>47</v>
@@ -5162,10 +5157,10 @@
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>47</v>
@@ -5184,7 +5179,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15699.784</v>
+        <v>15717.034</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1120,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G162" activeCellId="0" sqref="G162"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3399,14 +3399,14 @@
         <v>47</v>
       </c>
       <c r="D75" s="24" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E75" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3975,14 +3975,14 @@
         <v>47</v>
       </c>
       <c r="D103" s="24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E103" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="35" t="n">
         <f aca="false">D103*E103</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G103" s="37"/>
     </row>
@@ -5179,7 +5179,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15717.034</v>
+        <v>15863.034</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1120,8 +1120,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3399,14 +3399,14 @@
         <v>47</v>
       </c>
       <c r="D75" s="24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4085,14 +4085,14 @@
         <v>47</v>
       </c>
       <c r="D108" s="24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" s="36" t="n">
         <v>3.75</v>
       </c>
       <c r="F108" s="35" t="n">
         <f aca="false">D108*E108</f>
-        <v>131.25</v>
+        <v>127.5</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -5179,7 +5179,7 @@
     <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F162" s="44" t="n">
         <f aca="false">SUM(F3:F161)</f>
-        <v>15863.034</v>
+        <v>15856.284</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$163</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$146</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="205">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -146,10 +146,16 @@
     <t xml:space="preserve">Bindello cotone nero</t>
   </si>
   <si>
+    <t xml:space="preserve">Brochure ist italiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negrisolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brochure ist inglese</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buste Bianche con Finestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negrisolo</t>
   </si>
   <si>
     <t xml:space="preserve">Buste Bianche A5</t>
@@ -1118,10 +1124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="A109"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2259,12 +2265,14 @@
         <v>23</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="21"/>
+        <v>400</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>0.8</v>
+      </c>
       <c r="F25" s="15" t="n">
         <f aca="false">D25*E25</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2307,12 +2315,14 @@
         <v>23</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>750</v>
-      </c>
-      <c r="E26" s="21"/>
+        <v>400</v>
+      </c>
+      <c r="E26" s="18" t="n">
+        <v>0.8</v>
+      </c>
       <c r="F26" s="15" t="n">
         <f aca="false">D26*E26</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -2355,7 +2365,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="15" t="n">
@@ -2403,14 +2413,12 @@
         <v>23</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E28" s="18" t="n">
-        <v>0.5</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="E28" s="21"/>
       <c r="F28" s="15" t="n">
         <f aca="false">D28*E28</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -2442,155 +2450,213 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+    <row r="29" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18" t="n">
-        <v>3</v>
-      </c>
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="15" t="n">
         <f aca="false">D29*E29</f>
         <v>0</v>
       </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="23" t="s">
+    <row r="30" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="24" t="n">
-        <v>250</v>
+      <c r="B30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <v>60</v>
       </c>
       <c r="E30" s="18" t="n">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="15" t="n">
         <f aca="false">D30*E30</f>
-        <v>245</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" s="15" t="n">
         <f aca="false">D31*E31</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="D32" s="24" t="n">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="E32" s="18" t="n">
-        <v>3.5</v>
+        <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D33" s="24" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E33" s="18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F33" s="15" t="n">
         <f aca="false">D33*E33</f>
-        <v>100</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D34" s="24" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E34" s="18" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F34" s="15" t="n">
         <f aca="false">D34*E34</f>
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E35" s="28" t="n">
-        <v>1.14</v>
+      <c r="D35" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" s="18" t="n">
+        <v>2</v>
       </c>
       <c r="F35" s="15" t="n">
         <f aca="false">D35*E35</f>
-        <v>28.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2598,83 +2664,81 @@
         <v>55</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D36" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="E36" s="18" t="n">
-        <v>8.5</v>
       </c>
       <c r="F36" s="15" t="n">
         <f aca="false">D36*E36</f>
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="A37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18" t="n">
-        <v>27.44</v>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E37" s="28" t="n">
+        <v>1.14</v>
       </c>
       <c r="F37" s="15" t="n">
         <f aca="false">D37*E37</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D38" s="24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" s="18" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="F38" s="15" t="n">
         <f aca="false">D38*E38</f>
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="C39" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" s="24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="n">
-        <v>7.9</v>
+        <v>27.44</v>
       </c>
       <c r="F39" s="15" t="n">
         <f aca="false">D39*E39</f>
-        <v>23.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2682,41 +2746,41 @@
         <v>61</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="24" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E40" s="18" t="n">
-        <v>2.76</v>
+        <v>17</v>
       </c>
       <c r="F40" s="15" t="n">
         <f aca="false">D40*E40</f>
-        <v>55.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="D41" s="24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="18" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="F41" s="15" t="n">
         <f aca="false">D41*E41</f>
-        <v>0</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2724,37 +2788,37 @@
         <v>63</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D42" s="24" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E42" s="18" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="F42" s="15" t="n">
         <f aca="false">D42*E42</f>
-        <v>130</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="12" t="n">
-        <v>3.68</v>
+        <v>12</v>
+      </c>
+      <c r="D43" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18" t="n">
+        <v>9.75</v>
       </c>
       <c r="F43" s="15" t="n">
         <f aca="false">D43*E43</f>
@@ -2763,40 +2827,40 @@
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="13" t="n">
-        <v>6</v>
+      <c r="D44" s="24" t="n">
+        <v>50</v>
       </c>
       <c r="E44" s="18" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="F44" s="15" t="n">
         <f aca="false">D44*E44</f>
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E45" s="18" t="n">
-        <v>0.25</v>
+      <c r="E45" s="12" t="n">
+        <v>3.68</v>
       </c>
       <c r="F45" s="15" t="n">
         <f aca="false">D45*E45</f>
@@ -2808,56 +2872,60 @@
         <v>69</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>576</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="E46" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="F46" s="15" t="n">
         <f aca="false">D46*E46</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C47" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="24" t="n">
-        <v>170</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="E47" s="18" t="n">
-        <v>1.18</v>
+        <v>0.25</v>
       </c>
       <c r="F47" s="15" t="n">
         <f aca="false">D47*E47</f>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="C48" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="24" t="n">
-        <v>143</v>
-      </c>
-      <c r="E48" s="18" t="n">
-        <v>0.35</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D48" s="13" t="n">
+        <v>576</v>
+      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="15" t="n">
         <f aca="false">D48*E48</f>
-        <v>50.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2866,57 +2934,53 @@
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="30" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D49" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="E49" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="E49" s="18" t="n">
+        <v>1.18</v>
+      </c>
       <c r="F49" s="15" t="n">
         <f aca="false">D49*E49</f>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50" s="24" t="n">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="E50" s="18" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="F50" s="15" t="n">
         <f aca="false">D50*E50</f>
-        <v>9</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="30" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D51" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="E51" s="18" t="n">
-        <v>1.75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E51" s="18"/>
       <c r="F51" s="15" t="n">
         <f aca="false">D51*E51</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2924,20 +2988,20 @@
         <v>75</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D52" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" s="18" t="n">
         <v>1</v>
-      </c>
-      <c r="E52" s="18" t="n">
-        <v>0.72</v>
       </c>
       <c r="F52" s="15" t="n">
         <f aca="false">D52*E52</f>
-        <v>0.72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2945,184 +3009,184 @@
         <v>76</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D53" s="24" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E53" s="18" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="F53" s="15" t="n">
         <f aca="false">D53*E53</f>
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="D54" s="24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E54" s="18" t="n">
-        <v>1.8</v>
+        <v>0.72</v>
       </c>
       <c r="F54" s="15" t="n">
         <f aca="false">D54*E54</f>
-        <v>36</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E55" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="15" t="n">
         <f aca="false">D55*E55</f>
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>47</v>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="D56" s="24" t="n">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="E56" s="18" t="n">
-        <v>0.15</v>
+        <v>1.8</v>
       </c>
       <c r="F56" s="15" t="n">
         <f aca="false">D56*E56</f>
-        <v>52.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>47</v>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="D57" s="24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" s="18" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="F57" s="15" t="n">
         <f aca="false">D57*E57</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D58" s="24" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="E58" s="18" t="n">
-        <v>2.13</v>
+        <v>0.15</v>
       </c>
       <c r="F58" s="15" t="n">
         <f aca="false">D58*E58</f>
-        <v>0</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D59" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="18" t="n">
-        <v>5.95</v>
+        <v>0.22</v>
       </c>
       <c r="F59" s="15" t="n">
         <f aca="false">D59*E59</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D60" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60" s="18" t="n">
-        <v>0.7</v>
+        <v>2.13</v>
       </c>
       <c r="F60" s="15" t="n">
         <f aca="false">D60*E60</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D61" s="24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E61" s="18" t="n">
-        <v>1.5</v>
+        <v>5.95</v>
       </c>
       <c r="F61" s="15" t="n">
         <f aca="false">D61*E61</f>
-        <v>9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3130,20 +3194,20 @@
         <v>86</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D62" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" s="18" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="F62" s="15" t="n">
         <f aca="false">D62*E62</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3151,102 +3215,102 @@
         <v>87</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" s="24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E63" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F63" s="15" t="n">
         <f aca="false">D63*E63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D64" s="24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E64" s="18" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F64" s="15" t="n">
         <f aca="false">D64*E64</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C65" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D65" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" s="18" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="F65" s="15" t="n">
         <f aca="false">D65*E65</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="C66" s="12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D66" s="24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E66" s="18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="B67" s="23"/>
       <c r="C67" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D67" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="18" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="F67" s="15" t="n">
         <f aca="false">D67*E67</f>
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3254,20 +3318,20 @@
         <v>93</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D68" s="24" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E68" s="18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="F68" s="15" t="n">
         <f aca="false">D68*E68</f>
-        <v>43.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3275,20 +3339,20 @@
         <v>94</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D69" s="24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="18" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="15" t="n">
         <f aca="false">D69*E69</f>
-        <v>19.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3296,197 +3360,201 @@
         <v>95</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D70" s="24" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E70" s="18" t="n">
-        <v>0.44</v>
+        <v>1.98</v>
       </c>
       <c r="F70" s="15" t="n">
         <f aca="false">D70*E70</f>
-        <v>2.2</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="27" t="n">
-        <v>11</v>
-      </c>
-      <c r="E71" s="28" t="n">
-        <v>4.85</v>
+        <v>23</v>
+      </c>
+      <c r="D71" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" s="18" t="n">
+        <v>4.9</v>
       </c>
       <c r="F71" s="15" t="n">
         <f aca="false">D71*E71</f>
-        <v>53.35</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C72" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="27" t="n">
-        <v>30</v>
-      </c>
-      <c r="E72" s="28" t="n">
-        <v>5.04</v>
+        <v>49</v>
+      </c>
+      <c r="D72" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="18" t="n">
+        <v>0.44</v>
       </c>
       <c r="F72" s="15" t="n">
         <f aca="false">D72*E72</f>
-        <v>151.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E73" s="18" t="n">
-        <v>8.3</v>
+      <c r="D73" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E73" s="28" t="n">
+        <v>4.85</v>
       </c>
       <c r="F73" s="15" t="n">
         <f aca="false">D73*E73</f>
-        <v>83</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E74" s="18" t="n">
-        <v>0.75</v>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E74" s="28" t="n">
+        <v>5.04</v>
       </c>
       <c r="F74" s="15" t="n">
         <f aca="false">D74*E74</f>
-        <v>9</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>47</v>
+      <c r="B75" s="23"/>
+      <c r="C75" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D75" s="24" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E75" s="18" t="n">
-        <v>3</v>
+        <v>8.3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>204</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="B76" s="23"/>
       <c r="C76" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D76" s="24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E76" s="18" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="F76" s="15" t="n">
         <f aca="false">D76*E76</f>
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D77" s="24" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E77" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="n">
         <f aca="false">D77*E77</f>
-        <v>21</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="24" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E78" s="18" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="F78" s="15" t="n">
         <f aca="false">D78*E78</f>
-        <v>210.7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="C79" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E79" s="18" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="F79" s="15" t="n">
         <f aca="false">D79*E79</f>
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3498,14 +3566,14 @@
         <v>15</v>
       </c>
       <c r="D80" s="24" t="n">
-        <v>49.3</v>
+        <v>43</v>
       </c>
       <c r="E80" s="18" t="n">
         <v>4.9</v>
       </c>
       <c r="F80" s="15" t="n">
         <f aca="false">D80*E80</f>
-        <v>241.57</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,17 +3582,17 @@
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D81" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E81" s="18" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="F81" s="15" t="n">
         <f aca="false">D81*E81</f>
-        <v>33.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3533,17 +3601,17 @@
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D82" s="24" t="n">
-        <v>17</v>
+        <v>49.3</v>
       </c>
       <c r="E82" s="18" t="n">
-        <v>33.5</v>
+        <v>4.9</v>
       </c>
       <c r="F82" s="15" t="n">
         <f aca="false">D82*E82</f>
-        <v>569.5</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3552,80 +3620,76 @@
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E83" s="18" t="n">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>81.7</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>111</v>
-      </c>
+      <c r="B84" s="23"/>
       <c r="C84" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D84" s="24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E84" s="18" t="n">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="F84" s="15" t="n">
         <f aca="false">D84*E84</f>
-        <v>204</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="23" t="s">
         <v>111</v>
       </c>
+      <c r="B85" s="23"/>
       <c r="C85" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D85" s="24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E85" s="18" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="F85" s="15" t="n">
         <f aca="false">D85*E85</f>
-        <v>102</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="24" t="n">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="E86" s="18" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="F86" s="15" t="n">
         <f aca="false">D86*E86</f>
-        <v>7.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3633,20 +3697,20 @@
         <v>114</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E87" s="18" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="F87" s="15" t="n">
         <f aca="false">D87*E87</f>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3654,20 +3718,20 @@
         <v>115</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E88" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F88" s="15" t="n">
         <f aca="false">D88*E88</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3675,20 +3739,20 @@
         <v>116</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D89" s="24" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E89" s="18" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="F89" s="15" t="n">
         <f aca="false">D89*E89</f>
-        <v>22.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3696,20 +3760,20 @@
         <v>117</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D90" s="24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E90" s="18" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="F90" s="15" t="n">
         <f aca="false">D90*E90</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3717,20 +3781,20 @@
         <v>118</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="24" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E91" s="18" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>2.9</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3738,20 +3802,20 @@
         <v>119</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D92" s="24" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E92" s="18" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="F92" s="15" t="n">
         <f aca="false">D92*E92</f>
-        <v>20.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3759,20 +3823,20 @@
         <v>120</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D93" s="24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E93" s="18" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="F93" s="15" t="n">
         <f aca="false">D93*E93</f>
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3780,20 +3844,20 @@
         <v>121</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D94" s="24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E94" s="18" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F94" s="15" t="n">
         <f aca="false">D94*E94</f>
-        <v>0</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3801,20 +3865,20 @@
         <v>122</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D95" s="24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E95" s="18" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F95" s="15" t="n">
         <f aca="false">D95*E95</f>
-        <v>22.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3822,20 +3886,20 @@
         <v>123</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D96" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="F96" s="15" t="n">
         <f aca="false">D96*E96</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3843,20 +3907,20 @@
         <v>124</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D97" s="24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E97" s="18" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F97" s="15" t="n">
         <f aca="false">D97*E97</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3864,20 +3928,20 @@
         <v>125</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D98" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="18" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="F98" s="15" t="n">
         <f aca="false">D98*E98</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3885,16 +3949,16 @@
         <v>126</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D99" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="18" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F99" s="15" t="n">
         <f aca="false">D99*E99</f>
@@ -3906,20 +3970,20 @@
         <v>127</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D100" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E100" s="31" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F100" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="15" t="n">
         <f aca="false">D100*E100</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3927,20 +3991,20 @@
         <v>128</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="E101" s="34" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F101" s="35" t="n">
+        <v>49</v>
+      </c>
+      <c r="D101" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="15" t="n">
         <f aca="false">D101*E101</f>
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3948,20 +4012,20 @@
         <v>129</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D102" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E102" s="18" t="n">
-        <v>0.2</v>
+        <v>50</v>
+      </c>
+      <c r="E102" s="31" t="n">
+        <v>0.19</v>
       </c>
       <c r="F102" s="32" t="n">
         <f aca="false">D102*E102</f>
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3969,86 +4033,84 @@
         <v>130</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D103" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E103" s="36" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D103" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" s="34" t="n">
+        <v>0.19</v>
       </c>
       <c r="F103" s="35" t="n">
         <f aca="false">D103*E103</f>
-        <v>3</v>
-      </c>
-      <c r="G103" s="37"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D104" s="24" t="n">
-        <v>72</v>
-      </c>
-      <c r="E104" s="36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F104" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="E104" s="18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F104" s="32" t="n">
         <f aca="false">D104*E104</f>
-        <v>248.4</v>
-      </c>
-      <c r="G104" s="38"/>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D105" s="24" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E105" s="36" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="F105" s="35" t="n">
         <f aca="false">D105*E105</f>
-        <v>162.4</v>
-      </c>
-      <c r="G105" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="G105" s="37"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="C106" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D106" s="24" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E106" s="36" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="F106" s="35" t="n">
         <f aca="false">D106*E106</f>
-        <v>91.2</v>
+        <v>248.4</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -4057,20 +4119,20 @@
         <v>135</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D107" s="24" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E107" s="36" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="F107" s="35" t="n">
         <f aca="false">D107*E107</f>
-        <v>0</v>
+        <v>162.4</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -4079,20 +4141,20 @@
         <v>136</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D108" s="24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E108" s="36" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="F108" s="35" t="n">
         <f aca="false">D108*E108</f>
-        <v>127.5</v>
+        <v>91.2</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -4101,16 +4163,16 @@
         <v>137</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D109" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E109" s="36" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="F109" s="35" t="n">
         <f aca="false">D109*E109</f>
@@ -4123,20 +4185,20 @@
         <v>138</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D110" s="24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E110" s="36" t="n">
-        <v>0.8</v>
+        <v>3.75</v>
       </c>
       <c r="F110" s="35" t="n">
         <f aca="false">D110*E110</f>
-        <v>0</v>
+        <v>127.5</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -4145,20 +4207,20 @@
         <v>139</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D111" s="24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E111" s="36" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="F111" s="35" t="n">
         <f aca="false">D111*E111</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -4167,62 +4229,64 @@
         <v>140</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D112" s="24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E112" s="36" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="F112" s="35" t="n">
         <f aca="false">D112*E112</f>
-        <v>222.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G112" s="38"/>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D113" s="24" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E113" s="36" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="F113" s="35" t="n">
         <f aca="false">D113*E113</f>
-        <v>241.8</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G113" s="38"/>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="C114" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="E114" s="18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F114" s="39" t="n">
+        <v>19</v>
+      </c>
+      <c r="E114" s="36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F114" s="35" t="n">
         <f aca="false">D114*E114</f>
-        <v>24.9</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4230,20 +4294,20 @@
         <v>144</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D115" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E115" s="18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F115" s="15" t="n">
+        <v>78</v>
+      </c>
+      <c r="E115" s="36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F115" s="35" t="n">
         <f aca="false">D115*E115</f>
-        <v>18.8</v>
+        <v>241.8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4251,190 +4315,190 @@
         <v>145</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D116" s="24" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E116" s="18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F116" s="15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F116" s="39" t="n">
         <f aca="false">D116*E116</f>
-        <v>207.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E117" s="18" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>50</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>148</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D118" s="24" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E118" s="18" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F118" s="15" t="n">
         <f aca="false">D118*E118</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="41" t="s">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="42" t="s">
-        <v>64</v>
-      </c>
       <c r="C119" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D119" s="24" t="n">
-        <v>157.8</v>
+        <v>25</v>
       </c>
       <c r="E119" s="18" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F119" s="15" t="n">
         <f aca="false">D119*E119</f>
-        <v>378.72</v>
-      </c>
-      <c r="AMI119" s="0"/>
-      <c r="AMJ119" s="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="23" t="s">
-        <v>64</v>
+      <c r="B120" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D120" s="24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E120" s="18" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F120" s="15" t="n">
         <f aca="false">D120*E120</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E121" s="15" t="n">
-        <v>6</v>
+      <c r="B121" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="24" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="E121" s="18" t="n">
+        <v>2.4</v>
       </c>
       <c r="F121" s="15" t="n">
         <f aca="false">D121*E121</f>
-        <v>18</v>
-      </c>
+        <v>378.72</v>
+      </c>
+      <c r="AMI121" s="0"/>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D122" s="24" t="n">
-        <v>493</v>
+        <v>60</v>
       </c>
       <c r="E122" s="18" t="n">
-        <v>0.66</v>
+        <v>2.4</v>
       </c>
       <c r="F122" s="15" t="n">
         <f aca="false">D122*E122</f>
-        <v>325.38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D123" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="E123" s="18" t="n">
-        <v>2.85</v>
+      <c r="A123" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" s="15" t="n">
+        <v>6</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>37.05</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="C124" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D124" s="24" t="n">
-        <v>3</v>
+        <v>493</v>
       </c>
       <c r="E124" s="18" t="n">
-        <v>1.72</v>
+        <v>0.66</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>5.16</v>
+        <v>325.38</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4442,20 +4506,20 @@
         <v>159</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D125" s="24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E125" s="18" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="F125" s="15" t="n">
         <f aca="false">D125*E125</f>
-        <v>55.1</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4463,20 +4527,20 @@
         <v>160</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D126" s="24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" s="18" t="n">
         <v>1.72</v>
       </c>
       <c r="F126" s="15" t="n">
         <f aca="false">D126*E126</f>
-        <v>3.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4484,20 +4548,20 @@
         <v>161</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D127" s="24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E127" s="18" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>0</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4505,20 +4569,20 @@
         <v>162</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D128" s="24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E128" s="18" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="F128" s="15" t="n">
         <f aca="false">D128*E128</f>
-        <v>27</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4526,16 +4590,16 @@
         <v>163</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D129" s="24" t="n">
         <v>0</v>
       </c>
       <c r="E129" s="18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F129" s="15" t="n">
         <f aca="false">D129*E129</f>
@@ -4547,20 +4611,20 @@
         <v>164</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D130" s="24" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E130" s="18" t="n">
-        <v>2.69</v>
+        <v>3</v>
       </c>
       <c r="F130" s="15" t="n">
         <f aca="false">D130*E130</f>
-        <v>215.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4568,39 +4632,41 @@
         <v>165</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D131" s="24" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="F131" s="15" t="n">
         <f aca="false">D131*E131</f>
-        <v>247.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="B132" s="23"/>
+      <c r="B132" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C132" s="23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D132" s="24" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E132" s="18" t="n">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="F132" s="15" t="n">
         <f aca="false">D132*E132</f>
-        <v>17.22</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4608,302 +4674,304 @@
         <v>167</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="D133" s="24" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E133" s="18" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="F133" s="15" t="n">
         <f aca="false">D133*E133</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B134" s="23"/>
       <c r="C134" s="23" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>425</v>
+        <v>6</v>
       </c>
       <c r="E134" s="18" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>1275</v>
-      </c>
-      <c r="AMI134" s="0"/>
-      <c r="AMJ134" s="0"/>
-    </row>
-    <row r="135" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B135" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="C135" s="23" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="D135" s="24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135" s="18" t="n">
-        <v>1.96</v>
+        <v>7</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>1.96</v>
-      </c>
-      <c r="AMI135" s="0"/>
-      <c r="AMJ135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" s="28" t="n">
-        <v>1.97</v>
+      <c r="C136" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="24" t="n">
+        <v>425</v>
+      </c>
+      <c r="E136" s="18" t="n">
+        <v>3</v>
       </c>
       <c r="F136" s="15" t="n">
         <f aca="false">D136*E136</f>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1275</v>
+      </c>
+      <c r="AMI136" s="0"/>
+      <c r="AMJ136" s="0"/>
+    </row>
+    <row r="137" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="B137" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>15</v>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D137" s="24" t="n">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="E137" s="18" t="n">
-        <v>7</v>
+        <v>1.96</v>
       </c>
       <c r="F137" s="15" t="n">
         <f aca="false">D137*E137</f>
-        <v>1365</v>
-      </c>
+        <v>1.96</v>
+      </c>
+      <c r="AMI137" s="0"/>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="A138" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="12"/>
       <c r="C138" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="24" t="n">
-        <v>250</v>
-      </c>
-      <c r="E138" s="18" t="n">
-        <v>2.69</v>
+      <c r="D138" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E138" s="28" t="n">
+        <v>1.97</v>
       </c>
       <c r="F138" s="15" t="n">
         <f aca="false">D138*E138</f>
-        <v>672.5</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="24" t="n">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E139" s="18" t="n">
-        <v>2.21</v>
+        <v>7</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>331.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C140" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E140" s="28" t="n">
-        <v>1.43</v>
+      <c r="D140" s="24" t="n">
+        <v>250</v>
+      </c>
+      <c r="E140" s="18" t="n">
+        <v>2.69</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>143</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B141" s="23"/>
+      <c r="B141" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C141" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="24" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E141" s="18" t="n">
-        <v>8.5</v>
+        <v>2.21</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>34</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B142" s="23"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="E142" s="18" t="n">
-        <v>5</v>
+      <c r="D142" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E142" s="28" t="n">
+        <v>1.43</v>
       </c>
       <c r="F142" s="15" t="n">
         <f aca="false">D142*E142</f>
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="23" t="s">
-        <v>181</v>
-      </c>
+      <c r="B143" s="23"/>
       <c r="C143" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="24" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E143" s="18" t="n">
-        <v>47</v>
+        <v>8.5</v>
       </c>
       <c r="F143" s="15" t="n">
         <f aca="false">D143*E143</f>
-        <v>564</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="12"/>
+      <c r="A144" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="23"/>
       <c r="C144" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="27" t="n">
-        <v>22</v>
-      </c>
-      <c r="E144" s="28" t="n">
-        <v>2.97</v>
+      <c r="D144" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E144" s="18" t="n">
+        <v>5</v>
       </c>
       <c r="F144" s="15" t="n">
         <f aca="false">D144*E144</f>
-        <v>65.34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B145" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E145" s="18" t="n">
         <v>47</v>
-      </c>
-      <c r="D145" s="24" t="n">
-        <v>180</v>
-      </c>
-      <c r="E145" s="18" t="n">
-        <v>1.36</v>
       </c>
       <c r="F145" s="15" t="n">
         <f aca="false">D145*E145</f>
-        <v>244.8</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E146" s="28" t="n">
-        <v>5</v>
+        <v>2.97</v>
       </c>
       <c r="F146" s="15" t="n">
         <f aca="false">D146*E146</f>
-        <v>0</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="26" t="s">
+      <c r="A147" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D147" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" s="28" t="n">
-        <v>12</v>
+      <c r="C147" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="24" t="n">
+        <v>180</v>
+      </c>
+      <c r="E147" s="18" t="n">
+        <v>1.36</v>
       </c>
       <c r="F147" s="15" t="n">
         <f aca="false">D147*E147</f>
-        <v>12</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4912,17 +4980,17 @@
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D148" s="27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E148" s="28" t="n">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="F148" s="15" t="n">
         <f aca="false">D148*E148</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4931,17 +4999,17 @@
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D149" s="27" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E149" s="28" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="F149" s="15" t="n">
         <f aca="false">D149*E149</f>
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4950,17 +5018,17 @@
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D150" s="27" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E150" s="28" t="n">
-        <v>5.5</v>
+        <v>1.36</v>
       </c>
       <c r="F150" s="15" t="n">
         <f aca="false">D150*E150</f>
-        <v>170.5</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4969,17 +5037,17 @@
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D151" s="27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E151" s="28" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>20.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4988,17 +5056,17 @@
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D152" s="27" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E152" s="28" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="F152" s="15" t="n">
         <f aca="false">D152*E152</f>
-        <v>16.5</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5007,17 +5075,17 @@
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D153" s="27" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E153" s="28" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>58.3</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5026,17 +5094,17 @@
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D154" s="27" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E154" s="28" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F154" s="15" t="n">
         <f aca="false">D154*E154</f>
-        <v>45.9</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5045,17 +5113,17 @@
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D155" s="27" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E155" s="28" t="n">
-        <v>2.85</v>
+        <v>1.1</v>
       </c>
       <c r="F155" s="15" t="n">
         <f aca="false">D155*E155</f>
-        <v>119.7</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5064,17 +5132,17 @@
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D156" s="27" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E156" s="28" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="F156" s="15" t="n">
         <f aca="false">D156*E156</f>
-        <v>108.8</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5082,16 +5150,18 @@
         <v>196</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
+      <c r="C157" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D157" s="27" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E157" s="28" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="F157" s="15" t="n">
         <f aca="false">D157*E157</f>
-        <v>68</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5100,126 +5170,161 @@
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D158" s="27" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E158" s="28" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F158" s="15" t="n">
         <f aca="false">D158*E158</f>
-        <v>138</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E159" s="28" t="n">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="F159" s="15" t="n">
         <f aca="false">D159*E159</f>
-        <v>357</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>201</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B160" s="12"/>
       <c r="C160" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D160" s="27" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E160" s="28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F160" s="15" t="n">
         <f aca="false">D160*E160</f>
-        <v>970</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D161" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E161" s="28" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F161" s="15" t="n">
         <f aca="false">D161*E161</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F162" s="44" t="n">
-        <f aca="false">SUM(F3:F161)</f>
-        <v>15856.284</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="27" t="n">
+        <v>97</v>
+      </c>
+      <c r="E162" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F162" s="15" t="n">
+        <f aca="false">D162*E162</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F163" s="15" t="n">
+        <f aca="false">D163*E163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F164" s="44" t="n">
+        <f aca="false">SUM(F3:F163)</f>
+        <v>16378.784</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="D104">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
+  <conditionalFormatting sqref="D44">
     <cfRule type="cellIs" priority="4" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
+  <conditionalFormatting sqref="D50:D51">
     <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
+  <conditionalFormatting sqref="D103">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D107">
+  <conditionalFormatting sqref="D106:D109">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D119">
+  <conditionalFormatting sqref="D118:D121">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1687,14 +1687,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E13" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">D13*E13</f>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1783,14 +1783,14 @@
         <v>23</v>
       </c>
       <c r="D15" s="17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">D15*E15</f>
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3284,14 +3284,14 @@
         <v>23</v>
       </c>
       <c r="D66" s="24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E66" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4147,14 +4147,14 @@
         <v>49</v>
       </c>
       <c r="D108" s="24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E108" s="36" t="n">
         <v>4.8</v>
       </c>
       <c r="F108" s="35" t="n">
         <f aca="false">D108*E108</f>
-        <v>91.2</v>
+        <v>57.6</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -4191,14 +4191,14 @@
         <v>49</v>
       </c>
       <c r="D110" s="24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110" s="36" t="n">
         <v>3.75</v>
       </c>
       <c r="F110" s="35" t="n">
         <f aca="false">D110*E110</f>
-        <v>127.5</v>
+        <v>123.75</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -5040,14 +5040,14 @@
         <v>49</v>
       </c>
       <c r="D151" s="27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E151" s="28" t="n">
         <v>2.2</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>110</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5078,14 +5078,14 @@
         <v>49</v>
       </c>
       <c r="D153" s="27" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E153" s="28" t="n">
         <v>0.4</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>20.4</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5285,7 +5285,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="44" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16378.784</v>
+        <v>16306.634</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3284,14 +3284,14 @@
         <v>23</v>
       </c>
       <c r="D66" s="24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4825,14 +4825,14 @@
         <v>15</v>
       </c>
       <c r="D140" s="24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E140" s="18" t="n">
         <v>2.69</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>672.5</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4846,14 +4846,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E141" s="18" t="n">
         <v>2.21</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>221</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5285,7 +5285,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="44" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16306.634</v>
+        <v>16279.634</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1687,14 +1687,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="15" t="n">
         <f aca="false">D13*E13</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1783,14 +1783,14 @@
         <v>23</v>
       </c>
       <c r="D15" s="17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="F15" s="15" t="n">
         <f aca="false">D15*E15</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4846,14 +4846,14 @@
         <v>15</v>
       </c>
       <c r="D141" s="24" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E141" s="18" t="n">
         <v>2.21</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>331.5</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5285,7 +5285,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="44" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16279.634</v>
+        <v>16066.234</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1126,8 +1126,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1831,14 +1831,14 @@
         <v>23</v>
       </c>
       <c r="D16" s="17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="14" t="n">
         <v>0.6</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">D16*E16</f>
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3505,14 +3505,14 @@
         <v>49</v>
       </c>
       <c r="D77" s="24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="n">
         <f aca="false">D77*E77</f>
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4491,14 +4491,14 @@
         <v>49</v>
       </c>
       <c r="D124" s="24" t="n">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E124" s="18" t="n">
         <v>0.66</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>325.38</v>
+        <v>324.72</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4741,14 +4741,14 @@
         <v>49</v>
       </c>
       <c r="D136" s="24" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E136" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F136" s="15" t="n">
         <f aca="false">D136*E136</f>
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AMI136" s="0"/>
       <c r="AMJ136" s="0"/>
@@ -5285,7 +5285,7 @@
     <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F164" s="44" t="n">
         <f aca="false">SUM(F3:F163)</f>
-        <v>16066.234</v>
+        <v>16058.974</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$163</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$146</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$F$160</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Excel_BuiltIn_Print_Area" vbProcedure="false">Sheet1!$A$1:$F$143</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="202">
   <si>
     <t xml:space="preserve">MAGAZZINO 2019</t>
   </si>
@@ -266,12 +266,6 @@
     <t xml:space="preserve">Comerina</t>
   </si>
   <si>
-    <t xml:space="preserve">Cotone camicia(6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotone tipo boxer(7)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Custodie libretti certificazione</t>
   </si>
   <si>
@@ -384,9 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lampo cm 22 invisibile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levapunti</t>
   </si>
   <si>
     <t xml:space="preserve">Mine 0,5</t>
@@ -1124,10 +1115,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ166"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3071,84 +3062,88 @@
       <c r="A56" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23" t="s">
-        <v>15</v>
+      <c r="B56" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D56" s="24" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E56" s="18" t="n">
-        <v>1.8</v>
+        <v>0.15</v>
       </c>
       <c r="F56" s="15" t="n">
         <f aca="false">D56*E56</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23" t="s">
-        <v>15</v>
+      <c r="B57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D57" s="24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E57" s="18" t="n">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="F57" s="15" t="n">
         <f aca="false">D57*E57</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="24" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="E58" s="18" t="n">
-        <v>0.15</v>
+        <v>2.13</v>
       </c>
       <c r="F58" s="15" t="n">
         <f aca="false">D58*E58</f>
-        <v>52.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D59" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="18" t="n">
-        <v>0.22</v>
+        <v>5.95</v>
       </c>
       <c r="F59" s="15" t="n">
         <f aca="false">D59*E59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -3158,17 +3153,17 @@
         <v>49</v>
       </c>
       <c r="D60" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60" s="18" t="n">
-        <v>2.13</v>
+        <v>0.7</v>
       </c>
       <c r="F60" s="15" t="n">
         <f aca="false">D60*E60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
         <v>85</v>
       </c>
@@ -3176,17 +3171,17 @@
         <v>48</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D61" s="24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E61" s="18" t="n">
-        <v>5.95</v>
+        <v>1.5</v>
       </c>
       <c r="F61" s="15" t="n">
         <f aca="false">D61*E61</f>
-        <v>11.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3200,14 +3195,14 @@
         <v>49</v>
       </c>
       <c r="D62" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62" s="18" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="F62" s="15" t="n">
         <f aca="false">D62*E62</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3221,96 +3216,96 @@
         <v>49</v>
       </c>
       <c r="D63" s="24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E63" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="F63" s="15" t="n">
         <f aca="false">D63*E63</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D64" s="24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" s="18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="15" t="n">
         <f aca="false">D64*E64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>48</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B65" s="23"/>
       <c r="C65" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="18" t="n">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="F65" s="15" t="n">
         <f aca="false">D65*E65</f>
-        <v>0</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D66" s="24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66" s="18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="23" t="s">
+        <v>48</v>
+      </c>
       <c r="C67" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="18" t="n">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="F67" s="15" t="n">
         <f aca="false">D67*E67</f>
-        <v>10.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3318,20 +3313,20 @@
         <v>93</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D68" s="24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E68" s="18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="F68" s="15" t="n">
         <f aca="false">D68*E68</f>
-        <v>0</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3342,17 +3337,17 @@
         <v>48</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D69" s="24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="18" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="F69" s="15" t="n">
         <f aca="false">D69*E69</f>
-        <v>1.5</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3360,201 +3355,197 @@
         <v>95</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D70" s="24" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E70" s="18" t="n">
-        <v>1.98</v>
+        <v>0.44</v>
       </c>
       <c r="F70" s="15" t="n">
         <f aca="false">D70*E70</f>
-        <v>43.56</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E71" s="18" t="n">
-        <v>4.9</v>
+        <v>15</v>
+      </c>
+      <c r="D71" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="E71" s="28" t="n">
+        <v>4.85</v>
       </c>
       <c r="F71" s="15" t="n">
         <f aca="false">D71*E71</f>
-        <v>19.6</v>
+        <v>53.35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="B72" s="12"/>
       <c r="C72" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E72" s="18" t="n">
-        <v>0.44</v>
+        <v>15</v>
+      </c>
+      <c r="D72" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E72" s="28" t="n">
+        <v>5.04</v>
       </c>
       <c r="F72" s="15" t="n">
         <f aca="false">D72*E72</f>
-        <v>2.2</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="27" t="n">
-        <v>11</v>
-      </c>
-      <c r="E73" s="28" t="n">
-        <v>4.85</v>
+      <c r="D73" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" s="18" t="n">
+        <v>8.3</v>
       </c>
       <c r="F73" s="15" t="n">
         <f aca="false">D73*E73</f>
-        <v>53.35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="27" t="n">
-        <v>30</v>
-      </c>
-      <c r="E74" s="28" t="n">
-        <v>5.04</v>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E74" s="18" t="n">
+        <v>0.75</v>
       </c>
       <c r="F74" s="15" t="n">
         <f aca="false">D74*E74</f>
-        <v>151.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="12" t="s">
-        <v>15</v>
+      <c r="B75" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D75" s="24" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E75" s="18" t="n">
-        <v>8.3</v>
+        <v>3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>83</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="C76" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D76" s="24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E76" s="18" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F76" s="15" t="n">
         <f aca="false">D76*E76</f>
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="C77" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D77" s="24" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E77" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="n">
         <f aca="false">D77*E77</f>
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="23" t="s">
         <v>104</v>
       </c>
+      <c r="B78" s="23"/>
       <c r="C78" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="24" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E78" s="18" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="F78" s="15" t="n">
         <f aca="false">D78*E78</f>
-        <v>54</v>
+        <v>210.7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79" s="18" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="F79" s="15" t="n">
         <f aca="false">D79*E79</f>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3566,14 +3557,14 @@
         <v>15</v>
       </c>
       <c r="D80" s="24" t="n">
-        <v>43</v>
+        <v>49.3</v>
       </c>
       <c r="E80" s="18" t="n">
         <v>4.9</v>
       </c>
       <c r="F80" s="15" t="n">
         <f aca="false">D80*E80</f>
-        <v>210.7</v>
+        <v>241.57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3582,17 +3573,17 @@
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D81" s="24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E81" s="18" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="F81" s="15" t="n">
         <f aca="false">D81*E81</f>
-        <v>49</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3601,17 +3592,17 @@
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D82" s="24" t="n">
-        <v>49.3</v>
+        <v>17</v>
       </c>
       <c r="E82" s="18" t="n">
-        <v>4.9</v>
+        <v>33.5</v>
       </c>
       <c r="F82" s="15" t="n">
         <f aca="false">D82*E82</f>
-        <v>241.57</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3623,73 +3614,77 @@
         <v>49</v>
       </c>
       <c r="D83" s="24" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E83" s="18" t="n">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="F83" s="15" t="n">
         <f aca="false">D83*E83</f>
-        <v>33.5</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="C84" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D84" s="24" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E84" s="18" t="n">
-        <v>33.5</v>
+        <v>8.5</v>
       </c>
       <c r="F84" s="15" t="n">
         <f aca="false">D84*E84</f>
-        <v>569.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="23"/>
       <c r="C85" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D85" s="24" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E85" s="18" t="n">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="F85" s="15" t="n">
         <f aca="false">D85*E85</f>
-        <v>81.7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="24" t="n">
-        <v>24</v>
+        <v>1.5</v>
       </c>
       <c r="E86" s="18" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="F86" s="15" t="n">
         <f aca="false">D86*E86</f>
-        <v>204</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3697,20 +3692,20 @@
         <v>114</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="24" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E87" s="18" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="F87" s="15" t="n">
         <f aca="false">D87*E87</f>
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3718,20 +3713,20 @@
         <v>115</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E88" s="18" t="n">
         <v>5</v>
       </c>
       <c r="F88" s="15" t="n">
         <f aca="false">D88*E88</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3739,20 +3734,20 @@
         <v>116</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D89" s="24" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E89" s="18" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="F89" s="15" t="n">
         <f aca="false">D89*E89</f>
-        <v>100</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3760,20 +3755,20 @@
         <v>117</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D90" s="24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E90" s="18" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="F90" s="15" t="n">
         <f aca="false">D90*E90</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3781,20 +3776,20 @@
         <v>118</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D91" s="24" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E91" s="18" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>22.5</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3802,20 +3797,20 @@
         <v>119</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D92" s="24" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E92" s="18" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F92" s="15" t="n">
         <f aca="false">D92*E92</f>
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3826,17 +3821,17 @@
         <v>48</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D93" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="18" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="F93" s="15" t="n">
         <f aca="false">D93*E93</f>
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3850,14 +3845,14 @@
         <v>49</v>
       </c>
       <c r="D94" s="24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E94" s="18" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="F94" s="15" t="n">
         <f aca="false">D94*E94</f>
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3868,17 +3863,17 @@
         <v>48</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D95" s="24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E95" s="18" t="n">
-        <v>0.9</v>
+        <v>12.5</v>
       </c>
       <c r="F95" s="15" t="n">
         <f aca="false">D95*E95</f>
-        <v>3.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3895,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F96" s="15" t="n">
         <f aca="false">D96*E96</f>
@@ -3913,14 +3908,14 @@
         <v>49</v>
       </c>
       <c r="D97" s="24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F97" s="15" t="n">
         <f aca="false">D97*E97</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3931,17 +3926,17 @@
         <v>48</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D98" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="18" t="n">
         <v>1</v>
-      </c>
-      <c r="E98" s="18" t="n">
-        <v>12.5</v>
       </c>
       <c r="F98" s="15" t="n">
         <f aca="false">D98*E98</f>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3955,14 +3950,14 @@
         <v>49</v>
       </c>
       <c r="D99" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F99" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E99" s="31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F99" s="32" t="n">
         <f aca="false">D99*E99</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3975,15 +3970,15 @@
       <c r="C100" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="15" t="n">
+      <c r="D100" s="33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E100" s="34" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F100" s="35" t="n">
         <f aca="false">D100*E100</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3997,14 +3992,14 @@
         <v>49</v>
       </c>
       <c r="D101" s="24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E101" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F101" s="32" t="n">
         <f aca="false">D101*E101</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4018,99 +4013,102 @@
         <v>49</v>
       </c>
       <c r="D102" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E102" s="31" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F102" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="35" t="n">
         <f aca="false">D102*E102</f>
-        <v>9.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G102" s="37"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D103" s="33" t="n">
-        <v>50</v>
-      </c>
-      <c r="E103" s="34" t="n">
-        <v>0.19</v>
+      <c r="D103" s="24" t="n">
+        <v>71</v>
+      </c>
+      <c r="E103" s="36" t="n">
+        <v>3.45</v>
       </c>
       <c r="F103" s="35" t="n">
         <f aca="false">D103*E103</f>
-        <v>9.5</v>
-      </c>
+        <v>244.95</v>
+      </c>
+      <c r="G103" s="38"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="C104" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E104" s="18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F104" s="32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E104" s="36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F104" s="35" t="n">
         <f aca="false">D104*E104</f>
-        <v>2.4</v>
-      </c>
+        <v>162.4</v>
+      </c>
+      <c r="G104" s="38"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E105" s="36" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="F105" s="35" t="n">
         <f aca="false">D105*E105</f>
-        <v>3</v>
-      </c>
-      <c r="G105" s="37"/>
+        <v>57.6</v>
+      </c>
+      <c r="G105" s="38"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="24" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E106" s="36" t="n">
         <v>3.45</v>
       </c>
       <c r="F106" s="35" t="n">
         <f aca="false">D106*E106</f>
-        <v>248.4</v>
+        <v>0</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -4119,20 +4117,20 @@
         <v>135</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="24" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E107" s="36" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="F107" s="35" t="n">
         <f aca="false">D107*E107</f>
-        <v>162.4</v>
+        <v>123.75</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -4141,20 +4139,20 @@
         <v>136</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E108" s="36" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="F108" s="35" t="n">
         <f aca="false">D108*E108</f>
-        <v>57.6</v>
+        <v>0</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -4163,7 +4161,7 @@
         <v>137</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>49</v>
@@ -4172,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="36" t="n">
-        <v>3.45</v>
+        <v>0.8</v>
       </c>
       <c r="F109" s="35" t="n">
         <f aca="false">D109*E109</f>
@@ -4185,20 +4183,20 @@
         <v>138</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="24" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E110" s="36" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="F110" s="35" t="n">
         <f aca="false">D110*E110</f>
-        <v>123.75</v>
+        <v>90</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -4207,48 +4205,46 @@
         <v>139</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C111" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="24" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E111" s="36" t="n">
-        <v>4</v>
+        <v>11.7</v>
       </c>
       <c r="F111" s="35" t="n">
         <f aca="false">D111*E111</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="38"/>
+        <v>222.3</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C112" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="24" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E112" s="36" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="F112" s="35" t="n">
         <f aca="false">D112*E112</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="38"/>
+        <v>241.8</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>48</v>
@@ -4257,36 +4253,35 @@
         <v>49</v>
       </c>
       <c r="D113" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E113" s="36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F113" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="E113" s="18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F113" s="39" t="n">
         <f aca="false">D113*E113</f>
-        <v>90</v>
-      </c>
-      <c r="G113" s="38"/>
+        <v>24.9</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C114" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="E114" s="36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F114" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E114" s="18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F114" s="15" t="n">
         <f aca="false">D114*E114</f>
-        <v>222.3</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4294,211 +4289,211 @@
         <v>144</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C115" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="24" t="n">
-        <v>78</v>
-      </c>
-      <c r="E115" s="36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F115" s="35" t="n">
+        <v>83</v>
+      </c>
+      <c r="E115" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F115" s="15" t="n">
         <f aca="false">D115*E115</f>
-        <v>241.8</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="C116" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E116" s="18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F116" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" s="15" t="n">
         <f aca="false">D116*E116</f>
-        <v>24.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>41</v>
+        <v>148</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="24" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E117" s="18" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="F117" s="15" t="n">
         <f aca="false">D117*E117</f>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>148</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D118" s="24" t="n">
-        <v>83</v>
+        <v>157.8</v>
       </c>
       <c r="E118" s="18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F118" s="15" t="n">
         <f aca="false">D118*E118</f>
-        <v>207.5</v>
-      </c>
+        <v>378.72</v>
+      </c>
+      <c r="AMI118" s="0"/>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" s="40" t="s">
         <v>150</v>
       </c>
+      <c r="B119" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="C119" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D119" s="24" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E119" s="18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F119" s="15" t="n">
         <f aca="false">D119*E119</f>
-        <v>50</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E120" s="18" t="n">
-        <v>2</v>
+      <c r="B120" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D120" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" s="15" t="n">
+        <v>6</v>
       </c>
       <c r="F120" s="15" t="n">
         <f aca="false">D120*E120</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B121" s="42" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D121" s="24" t="n">
-        <v>157.8</v>
+        <v>492</v>
       </c>
       <c r="E121" s="18" t="n">
-        <v>2.4</v>
+        <v>0.66</v>
       </c>
       <c r="F121" s="15" t="n">
         <f aca="false">D121*E121</f>
-        <v>378.72</v>
-      </c>
-      <c r="AMI121" s="0"/>
-      <c r="AMJ121" s="0"/>
+        <v>324.72</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D122" s="24" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E122" s="18" t="n">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="F122" s="15" t="n">
         <f aca="false">D122*E122</f>
-        <v>144</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D123" s="13" t="n">
+      <c r="A123" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E123" s="15" t="n">
-        <v>6</v>
+      <c r="E123" s="18" t="n">
+        <v>1.72</v>
       </c>
       <c r="F123" s="15" t="n">
         <f aca="false">D123*E123</f>
-        <v>18</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="C124" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="24" t="n">
-        <v>492</v>
+        <v>19</v>
       </c>
       <c r="E124" s="18" t="n">
-        <v>0.66</v>
+        <v>2.9</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>324.72</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4512,14 +4507,14 @@
         <v>49</v>
       </c>
       <c r="D125" s="24" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E125" s="18" t="n">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="F125" s="15" t="n">
         <f aca="false">D125*E125</f>
-        <v>37.05</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4533,14 +4528,14 @@
         <v>49</v>
       </c>
       <c r="D126" s="24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E126" s="18" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="F126" s="15" t="n">
         <f aca="false">D126*E126</f>
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4554,14 +4549,14 @@
         <v>49</v>
       </c>
       <c r="D127" s="24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E127" s="18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F127" s="15" t="n">
         <f aca="false">D127*E127</f>
-        <v>55.1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4575,14 +4570,14 @@
         <v>49</v>
       </c>
       <c r="D128" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="18" t="n">
         <v>2</v>
-      </c>
-      <c r="E128" s="18" t="n">
-        <v>1.72</v>
       </c>
       <c r="F128" s="15" t="n">
         <f aca="false">D128*E128</f>
-        <v>3.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4590,20 +4585,20 @@
         <v>163</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D129" s="24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E129" s="18" t="n">
-        <v>5</v>
+        <v>2.69</v>
       </c>
       <c r="F129" s="15" t="n">
         <f aca="false">D129*E129</f>
-        <v>0</v>
+        <v>215.2</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4611,41 +4606,39 @@
         <v>164</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D130" s="24" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E130" s="18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F130" s="15" t="n">
         <f aca="false">D130*E130</f>
-        <v>27</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="B131" s="23"/>
       <c r="C131" s="23" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D131" s="24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E131" s="18" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="F131" s="15" t="n">
         <f aca="false">D131*E131</f>
-        <v>0</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4653,325 +4646,321 @@
         <v>166</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="D132" s="24" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E132" s="18" t="n">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="F132" s="15" t="n">
         <f aca="false">D132*E132</f>
-        <v>215.2</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D133" s="24" t="n">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="E133" s="18" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="F133" s="15" t="n">
         <f aca="false">D133*E133</f>
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1272</v>
+      </c>
+      <c r="AMI133" s="0"/>
+      <c r="AMJ133" s="0"/>
+    </row>
+    <row r="134" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B134" s="23"/>
       <c r="C134" s="23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D134" s="24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E134" s="18" t="n">
-        <v>2.87</v>
+        <v>1.96</v>
       </c>
       <c r="F134" s="15" t="n">
         <f aca="false">D134*E134</f>
-        <v>17.22</v>
-      </c>
+        <v>1.96</v>
+      </c>
+      <c r="AMI134" s="0"/>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D135" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E135" s="18" t="n">
+      <c r="A135" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="27" t="n">
         <v>7</v>
+      </c>
+      <c r="E135" s="28" t="n">
+        <v>1.97</v>
       </c>
       <c r="F135" s="15" t="n">
         <f aca="false">D135*E135</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>49</v>
+        <v>173</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D136" s="24" t="n">
-        <v>424</v>
+        <v>195</v>
       </c>
       <c r="E136" s="18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F136" s="15" t="n">
         <f aca="false">D136*E136</f>
-        <v>1272</v>
-      </c>
-      <c r="AMI136" s="0"/>
-      <c r="AMJ136" s="0"/>
-    </row>
-    <row r="137" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23" t="s">
-        <v>49</v>
+        <v>174</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D137" s="24" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E137" s="18" t="n">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="F137" s="15" t="n">
         <f aca="false">D137*E137</f>
-        <v>1.96</v>
-      </c>
-      <c r="AMI137" s="0"/>
-      <c r="AMJ137" s="0"/>
+        <v>538</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="12"/>
+      <c r="A138" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="C138" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E138" s="28" t="n">
-        <v>1.97</v>
+      <c r="D138" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E138" s="18" t="n">
+        <v>2.21</v>
       </c>
       <c r="F138" s="15" t="n">
         <f aca="false">D138*E138</f>
-        <v>13.79</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B139" s="23" t="s">
+      <c r="A139" s="26" t="s">
         <v>176</v>
       </c>
+      <c r="B139" s="12"/>
       <c r="C139" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="24" t="n">
-        <v>195</v>
-      </c>
-      <c r="E139" s="18" t="n">
-        <v>7</v>
+      <c r="D139" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" s="28" t="n">
+        <v>1.43</v>
       </c>
       <c r="F139" s="15" t="n">
         <f aca="false">D139*E139</f>
-        <v>1365</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B140" s="23"/>
       <c r="C140" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="24" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="E140" s="18" t="n">
-        <v>2.69</v>
+        <v>8.5</v>
       </c>
       <c r="F140" s="15" t="n">
         <f aca="false">D140*E140</f>
-        <v>538</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B141" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B141" s="23"/>
       <c r="C141" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="24" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E141" s="18" t="n">
-        <v>2.21</v>
+        <v>5</v>
       </c>
       <c r="F141" s="15" t="n">
         <f aca="false">D141*E141</f>
-        <v>110.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="26" t="s">
+      <c r="A142" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="C142" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E142" s="28" t="n">
-        <v>1.43</v>
+      <c r="D142" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E142" s="18" t="n">
+        <v>47</v>
       </c>
       <c r="F142" s="15" t="n">
         <f aca="false">D142*E142</f>
-        <v>143</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B143" s="23"/>
+      <c r="A143" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="12"/>
       <c r="C143" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E143" s="18" t="n">
-        <v>8.5</v>
+      <c r="D143" s="27" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" s="28" t="n">
+        <v>2.97</v>
       </c>
       <c r="F143" s="15" t="n">
         <f aca="false">D143*E143</f>
-        <v>34</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="12" t="s">
-        <v>15</v>
+        <v>182</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="D144" s="24" t="n">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E144" s="18" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="F144" s="15" t="n">
         <f aca="false">D144*E144</f>
-        <v>85</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>183</v>
-      </c>
+      <c r="A145" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B145" s="12"/>
       <c r="C145" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E145" s="18" t="n">
-        <v>47</v>
+      <c r="D145" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="28" t="n">
+        <v>5</v>
       </c>
       <c r="F145" s="15" t="n">
         <f aca="false">D145*E145</f>
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D146" s="27" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E146" s="28" t="n">
-        <v>2.97</v>
+        <v>12</v>
       </c>
       <c r="F146" s="15" t="n">
         <f aca="false">D146*E146</f>
-        <v>65.34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B147" s="23" t="s">
+      <c r="A147" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C147" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="24" t="n">
-        <v>180</v>
-      </c>
-      <c r="E147" s="18" t="n">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" s="28" t="n">
         <v>1.36</v>
       </c>
       <c r="F147" s="15" t="n">
         <f aca="false">D147*E147</f>
-        <v>244.8</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4980,17 +4969,17 @@
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D148" s="27" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E148" s="28" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="F148" s="15" t="n">
         <f aca="false">D148*E148</f>
-        <v>0</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5002,14 +4991,14 @@
         <v>49</v>
       </c>
       <c r="D149" s="27" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E149" s="28" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="F149" s="15" t="n">
         <f aca="false">D149*E149</f>
-        <v>12</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5021,14 +5010,14 @@
         <v>49</v>
       </c>
       <c r="D150" s="27" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E150" s="28" t="n">
-        <v>1.36</v>
+        <v>0.4</v>
       </c>
       <c r="F150" s="15" t="n">
         <f aca="false">D150*E150</f>
-        <v>10.88</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5040,14 +5029,14 @@
         <v>49</v>
       </c>
       <c r="D151" s="27" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E151" s="28" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>107.8</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5059,14 +5048,14 @@
         <v>49</v>
       </c>
       <c r="D152" s="27" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E152" s="28" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="F152" s="15" t="n">
         <f aca="false">D152*E152</f>
-        <v>170.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5078,14 +5067,14 @@
         <v>49</v>
       </c>
       <c r="D153" s="27" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E153" s="28" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="F153" s="15" t="n">
         <f aca="false">D153*E153</f>
-        <v>19.6</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5097,14 +5086,14 @@
         <v>49</v>
       </c>
       <c r="D154" s="27" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E154" s="28" t="n">
-        <v>0.5</v>
+        <v>2.85</v>
       </c>
       <c r="F154" s="15" t="n">
         <f aca="false">D154*E154</f>
-        <v>16.5</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5116,14 +5105,14 @@
         <v>49</v>
       </c>
       <c r="D155" s="27" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E155" s="28" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="F155" s="15" t="n">
         <f aca="false">D155*E155</f>
-        <v>58.3</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5131,18 +5120,16 @@
         <v>195</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="C156" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="C156" s="12"/>
       <c r="D156" s="27" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E156" s="28" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="F156" s="15" t="n">
         <f aca="false">D156*E156</f>
-        <v>45.9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5154,142 +5141,90 @@
         <v>49</v>
       </c>
       <c r="D157" s="27" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E157" s="28" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="F157" s="15" t="n">
         <f aca="false">D157*E157</f>
-        <v>119.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="C158" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D158" s="27" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E158" s="28" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="F158" s="15" t="n">
         <f aca="false">D158*E158</f>
-        <v>108.8</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
+        <v>199</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D159" s="27" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E159" s="28" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="F159" s="15" t="n">
         <f aca="false">D159*E159</f>
-        <v>68</v>
+        <v>970</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B160" s="12"/>
+        <v>201</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="C160" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D160" s="27" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E160" s="28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F160" s="15" t="n">
         <f aca="false">D160*E160</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="27" t="n">
-        <v>21</v>
-      </c>
-      <c r="E161" s="28" t="n">
-        <v>17</v>
-      </c>
-      <c r="F161" s="15" t="n">
-        <f aca="false">D161*E161</f>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" s="27" t="n">
-        <v>97</v>
-      </c>
-      <c r="E162" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F162" s="15" t="n">
-        <f aca="false">D162*E162</f>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D163" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F163" s="15" t="n">
-        <f aca="false">D163*E163</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F164" s="44" t="n">
-        <f aca="false">SUM(F3:F163)</f>
-        <v>16058.974</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F161" s="44" t="n">
+        <f aca="false">SUM(F3:F160)</f>
+        <v>15984.424</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -5299,7 +5234,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="D101">
     <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>4</formula>
     </cfRule>
@@ -5314,17 +5249,17 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
+  <conditionalFormatting sqref="D100">
     <cfRule type="cellIs" priority="6" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106:D109">
+  <conditionalFormatting sqref="D103:D106">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D118:D121">
+  <conditionalFormatting sqref="D115:D118">
     <cfRule type="cellIs" priority="8" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>3</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -826,7 +826,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,6 +896,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1681,7 @@
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="18" t="n">
         <v>59</v>
       </c>
       <c r="E13" s="14" t="n">
@@ -2110,14 +2114,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">D22*E22</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2158,14 +2162,14 @@
         <v>38</v>
       </c>
       <c r="D23" s="17" t="n">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E23" s="14" t="n">
         <v>1.828</v>
       </c>
       <c r="F23" s="15" t="n">
         <f aca="false">D23*E23</f>
-        <v>453.344</v>
+        <v>411.3</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2195,7 +2199,7 @@
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
     </row>
-    <row r="24" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -2206,46 +2210,46 @@
         <v>12</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="n">
         <f aca="false">D24*E24</f>
-        <v>8</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
@@ -2258,44 +2262,44 @@
       <c r="D25" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="19" t="n">
         <v>0.8</v>
       </c>
       <c r="F25" s="15" t="n">
         <f aca="false">D25*E25</f>
         <v>320</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -2308,44 +2312,44 @@
       <c r="D26" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E26" s="18" t="n">
+      <c r="E26" s="19" t="n">
         <v>0.8</v>
       </c>
       <c r="F26" s="15" t="n">
         <f aca="false">D26*E26</f>
         <v>320</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -2358,42 +2362,42 @@
       <c r="D27" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="15" t="n">
         <f aca="false">D27*E27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
@@ -2406,42 +2410,42 @@
       <c r="D28" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="15" t="n">
         <f aca="false">D28*E28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -2454,42 +2458,42 @@
       <c r="D29" s="13" t="n">
         <v>500</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="15" t="n">
         <f aca="false">D29*E29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
@@ -2502,57 +2506,57 @@
       <c r="D30" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="E30" s="18" t="n">
+      <c r="E30" s="19" t="n">
         <v>0.5</v>
       </c>
       <c r="F30" s="15" t="n">
         <f aca="false">D30*E30</f>
         <v>30</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+    <row r="31" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="24" t="n">
+      <c r="C31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="18" t="n">
+      <c r="E31" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F31" s="15" t="n">
@@ -2562,20 +2566,20 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+    <row r="32" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="24" t="n">
+      <c r="D32" s="25" t="n">
         <v>250</v>
       </c>
-      <c r="E32" s="18" t="n">
+      <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
@@ -2585,20 +2589,20 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="25" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+    <row r="33" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="24" t="n">
+      <c r="C33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="18" t="n">
+      <c r="E33" s="19" t="n">
         <v>6</v>
       </c>
       <c r="F33" s="15" t="n">
@@ -2609,19 +2613,19 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="24" t="n">
+      <c r="C34" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="18" t="n">
+      <c r="E34" s="19" t="n">
         <v>3.5</v>
       </c>
       <c r="F34" s="15" t="n">
@@ -2630,19 +2634,19 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="24" t="n">
+      <c r="D35" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="E35" s="18" t="n">
+      <c r="E35" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F35" s="15" t="n">
@@ -2651,19 +2655,19 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="24" t="n">
+      <c r="D36" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="E36" s="18" t="n">
+      <c r="E36" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="15" t="n">
@@ -2672,17 +2676,17 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="27" t="n">
+      <c r="D37" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="E37" s="28" t="n">
+      <c r="E37" s="29" t="n">
         <v>1.14</v>
       </c>
       <c r="F37" s="15" t="n">
@@ -2691,19 +2695,19 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="24" t="n">
+      <c r="D38" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="18" t="n">
+      <c r="E38" s="19" t="n">
         <v>8.5</v>
       </c>
       <c r="F38" s="15" t="n">
@@ -2712,19 +2716,19 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="24" t="n">
+      <c r="D39" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="18" t="n">
+      <c r="E39" s="19" t="n">
         <v>27.44</v>
       </c>
       <c r="F39" s="15" t="n">
@@ -2733,19 +2737,19 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="24" t="n">
+      <c r="D40" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E40" s="18" t="n">
+      <c r="E40" s="19" t="n">
         <v>17</v>
       </c>
       <c r="F40" s="15" t="n">
@@ -2754,19 +2758,19 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="24" t="n">
+      <c r="D41" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="18" t="n">
+      <c r="E41" s="19" t="n">
         <v>7.9</v>
       </c>
       <c r="F41" s="15" t="n">
@@ -2775,19 +2779,19 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="24" t="n">
+      <c r="D42" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="E42" s="18" t="n">
+      <c r="E42" s="19" t="n">
         <v>2.76</v>
       </c>
       <c r="F42" s="15" t="n">
@@ -2796,19 +2800,19 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="24" t="n">
+      <c r="D43" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E43" s="18" t="n">
+      <c r="E43" s="19" t="n">
         <v>9.75</v>
       </c>
       <c r="F43" s="15" t="n">
@@ -2817,19 +2821,19 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="24" t="n">
+      <c r="D44" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="E44" s="18" t="n">
+      <c r="E44" s="19" t="n">
         <v>2.6</v>
       </c>
       <c r="F44" s="15" t="n">
@@ -2838,13 +2842,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="13" t="n">
@@ -2859,19 +2863,19 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E46" s="18" t="n">
+      <c r="E46" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F46" s="15" t="n">
@@ -2880,19 +2884,19 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="E47" s="18" t="n">
+      <c r="E47" s="19" t="n">
         <v>0.25</v>
       </c>
       <c r="F47" s="15" t="n">
@@ -2901,36 +2905,36 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="13" t="n">
-        <v>576</v>
-      </c>
-      <c r="E48" s="18"/>
+        <v>525</v>
+      </c>
+      <c r="E48" s="19"/>
       <c r="F48" s="15" t="n">
         <f aca="false">D48*E48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="24" t="n">
+      <c r="B49" s="24"/>
+      <c r="C49" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="E49" s="18" t="n">
+      <c r="E49" s="19" t="n">
         <v>1.18</v>
       </c>
       <c r="F49" s="15" t="n">
@@ -2939,17 +2943,17 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="24" t="n">
+      <c r="B50" s="24"/>
+      <c r="C50" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="25" t="n">
         <v>143</v>
       </c>
-      <c r="E50" s="18" t="n">
+      <c r="E50" s="19" t="n">
         <v>0.35</v>
       </c>
       <c r="F50" s="15" t="n">
@@ -2958,78 +2962,78 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="30" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="24" t="n">
+      <c r="D51" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="15" t="n">
         <f aca="false">D51*E51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="E52" s="18" t="n">
+      <c r="C52" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="15" t="n">
         <f aca="false">D52*E52</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="E53" s="18" t="n">
+      <c r="C53" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="19" t="n">
         <v>1.75</v>
       </c>
       <c r="F53" s="15" t="n">
         <f aca="false">D53*E53</f>
-        <v>14</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="24" t="n">
+      <c r="C54" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="18" t="n">
+      <c r="E54" s="19" t="n">
         <v>0.72</v>
       </c>
       <c r="F54" s="15" t="n">
@@ -3038,19 +3042,19 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="24" t="n">
+      <c r="D55" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="E55" s="18" t="n">
+      <c r="E55" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F55" s="15" t="n">
@@ -3059,19 +3063,19 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="24" t="n">
+      <c r="D56" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="E56" s="18" t="n">
+      <c r="E56" s="19" t="n">
         <v>0.15</v>
       </c>
       <c r="F56" s="15" t="n">
@@ -3083,16 +3087,16 @@
       <c r="A57" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="24" t="n">
+      <c r="D57" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E57" s="18" t="n">
+      <c r="E57" s="19" t="n">
         <v>0.22</v>
       </c>
       <c r="F57" s="15" t="n">
@@ -3104,16 +3108,16 @@
       <c r="A58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="24" t="n">
+      <c r="D58" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E58" s="18" t="n">
+      <c r="E58" s="19" t="n">
         <v>2.13</v>
       </c>
       <c r="F58" s="15" t="n">
@@ -3122,19 +3126,19 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="24" t="n">
+      <c r="D59" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E59" s="18" t="n">
+      <c r="E59" s="19" t="n">
         <v>5.95</v>
       </c>
       <c r="F59" s="15" t="n">
@@ -3143,19 +3147,19 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="24" t="n">
+      <c r="D60" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="18" t="n">
+      <c r="E60" s="19" t="n">
         <v>0.7</v>
       </c>
       <c r="F60" s="15" t="n">
@@ -3164,19 +3168,19 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="24" t="n">
+      <c r="D61" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E61" s="18" t="n">
+      <c r="E61" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F61" s="15" t="n">
@@ -3185,19 +3189,19 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="24" t="n">
+      <c r="D62" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E62" s="18" t="n">
+      <c r="E62" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F62" s="15" t="n">
@@ -3206,19 +3210,19 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="24" t="n">
+      <c r="D63" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E63" s="18" t="n">
+      <c r="E63" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F63" s="15" t="n">
@@ -3227,19 +3231,19 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="24" t="n">
+      <c r="D64" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="18" t="n">
+      <c r="E64" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F64" s="15" t="n">
@@ -3248,17 +3252,17 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="24" t="n">
+      <c r="D65" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="18" t="n">
+      <c r="E65" s="19" t="n">
         <v>5.35</v>
       </c>
       <c r="F65" s="15" t="n">
@@ -3267,19 +3271,19 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="24" t="n">
+      <c r="D66" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E66" s="18" t="n">
+      <c r="E66" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F66" s="15" t="n">
@@ -3288,19 +3292,19 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="24" t="n">
+      <c r="D67" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="18" t="n">
+      <c r="E67" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F67" s="15" t="n">
@@ -3309,19 +3313,19 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="24" t="n">
+      <c r="D68" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="E68" s="18" t="n">
+      <c r="E68" s="19" t="n">
         <v>1.98</v>
       </c>
       <c r="F68" s="15" t="n">
@@ -3330,19 +3334,19 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="24" t="n">
+      <c r="D69" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E69" s="18" t="n">
+      <c r="E69" s="19" t="n">
         <v>4.9</v>
       </c>
       <c r="F69" s="15" t="n">
@@ -3351,19 +3355,19 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="24" t="n">
+      <c r="D70" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E70" s="18" t="n">
+      <c r="E70" s="19" t="n">
         <v>0.44</v>
       </c>
       <c r="F70" s="15" t="n">
@@ -3372,17 +3376,17 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="27" t="n">
+      <c r="D71" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="E71" s="28" t="n">
+      <c r="E71" s="29" t="n">
         <v>4.85</v>
       </c>
       <c r="F71" s="15" t="n">
@@ -3391,17 +3395,17 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="27" t="n">
+      <c r="D72" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="E72" s="28" t="n">
+      <c r="E72" s="29" t="n">
         <v>5.04</v>
       </c>
       <c r="F72" s="15" t="n">
@@ -3410,17 +3414,17 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="24" t="n">
+      <c r="D73" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E73" s="18" t="n">
+      <c r="E73" s="19" t="n">
         <v>8.3</v>
       </c>
       <c r="F73" s="15" t="n">
@@ -3429,17 +3433,17 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="24" t="n">
+      <c r="B74" s="24"/>
+      <c r="C74" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="E74" s="18" t="n">
+      <c r="E74" s="19" t="n">
         <v>0.75</v>
       </c>
       <c r="F74" s="15" t="n">
@@ -3448,40 +3452,40 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E75" s="18" t="n">
+      <c r="C75" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E75" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F75" s="15" t="n">
         <f aca="false">D75*E75</f>
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="24" t="n">
+      <c r="D76" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="E76" s="18" t="n">
+      <c r="E76" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F76" s="15" t="n">
@@ -3490,19 +3494,19 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="24" t="n">
+      <c r="D77" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="E77" s="18" t="n">
+      <c r="E77" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="15" t="n">
@@ -3511,17 +3515,17 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="24" t="n">
+      <c r="D78" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="E78" s="18" t="n">
+      <c r="E78" s="19" t="n">
         <v>4.9</v>
       </c>
       <c r="F78" s="15" t="n">
@@ -3530,17 +3534,17 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="24" t="n">
+      <c r="D79" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E79" s="18" t="n">
+      <c r="E79" s="19" t="n">
         <v>4.9</v>
       </c>
       <c r="F79" s="15" t="n">
@@ -3549,17 +3553,17 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="24" t="n">
+      <c r="D80" s="25" t="n">
         <v>49.3</v>
       </c>
-      <c r="E80" s="18" t="n">
+      <c r="E80" s="19" t="n">
         <v>4.9</v>
       </c>
       <c r="F80" s="15" t="n">
@@ -3568,17 +3572,17 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="24" t="n">
+      <c r="B81" s="24"/>
+      <c r="C81" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E81" s="18" t="n">
+      <c r="E81" s="19" t="n">
         <v>33.5</v>
       </c>
       <c r="F81" s="15" t="n">
@@ -3587,17 +3591,17 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="24" t="n">
+      <c r="B82" s="24"/>
+      <c r="C82" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="E82" s="18" t="n">
+      <c r="E82" s="19" t="n">
         <v>33.5</v>
       </c>
       <c r="F82" s="15" t="n">
@@ -3606,17 +3610,17 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="24" t="n">
+      <c r="B83" s="24"/>
+      <c r="C83" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="E83" s="18" t="n">
+      <c r="E83" s="19" t="n">
         <v>4.3</v>
       </c>
       <c r="F83" s="15" t="n">
@@ -3625,19 +3629,19 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="24" t="n">
+      <c r="D84" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="E84" s="18" t="n">
+      <c r="E84" s="19" t="n">
         <v>8.5</v>
       </c>
       <c r="F84" s="15" t="n">
@@ -3646,19 +3650,19 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="24" t="n">
+      <c r="D85" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="E85" s="18" t="n">
+      <c r="E85" s="19" t="n">
         <v>8.5</v>
       </c>
       <c r="F85" s="15" t="n">
@@ -3667,19 +3671,19 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="24" t="n">
+      <c r="D86" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="E86" s="18" t="n">
+      <c r="E86" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F86" s="15" t="n">
@@ -3688,19 +3692,19 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="24" t="n">
+      <c r="D87" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="E87" s="18" t="n">
+      <c r="E87" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="15" t="n">
@@ -3709,19 +3713,19 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="24" t="n">
+      <c r="D88" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="18" t="n">
+      <c r="E88" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F88" s="15" t="n">
@@ -3730,19 +3734,19 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="24" t="n">
+      <c r="D89" s="25" t="n">
         <v>75</v>
       </c>
-      <c r="E89" s="18" t="n">
+      <c r="E89" s="19" t="n">
         <v>0.3</v>
       </c>
       <c r="F89" s="15" t="n">
@@ -3751,19 +3755,19 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="24" t="n">
+      <c r="D90" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="E90" s="18" t="n">
+      <c r="E90" s="19" t="n">
         <v>0.3</v>
       </c>
       <c r="F90" s="15" t="n">
@@ -3772,40 +3776,40 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="E91" s="18" t="n">
+      <c r="C91" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E91" s="19" t="n">
         <v>1.1</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="24" t="n">
+      <c r="C92" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E92" s="18" t="n">
+      <c r="E92" s="19" t="n">
         <v>0.9</v>
       </c>
       <c r="F92" s="15" t="n">
@@ -3814,19 +3818,19 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="24" t="n">
+      <c r="C93" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E93" s="18" t="n">
+      <c r="E93" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F93" s="15" t="n">
@@ -3835,40 +3839,40 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="E94" s="18" t="n">
+      <c r="C94" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="E94" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F94" s="15" t="n">
         <f aca="false">D94*E94</f>
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="24" t="n">
+      <c r="D95" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E95" s="18" t="n">
+      <c r="E95" s="19" t="n">
         <v>12.5</v>
       </c>
       <c r="F95" s="15" t="n">
@@ -3877,19 +3881,19 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="24" t="n">
+      <c r="C96" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E96" s="18" t="n">
+      <c r="E96" s="19" t="n">
         <v>2.5</v>
       </c>
       <c r="F96" s="15" t="n">
@@ -3898,19 +3902,19 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="24" t="n">
+      <c r="C97" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E97" s="18" t="n">
+      <c r="E97" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="15" t="n">
@@ -3919,19 +3923,19 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C98" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="24" t="n">
+      <c r="C98" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E98" s="18" t="n">
+      <c r="E98" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="15" t="n">
@@ -3940,343 +3944,341 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="24" t="n">
+      <c r="C99" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="E99" s="31" t="n">
+      <c r="E99" s="32" t="n">
         <v>0.19</v>
       </c>
-      <c r="F99" s="32" t="n">
+      <c r="F99" s="33" t="n">
         <f aca="false">D99*E99</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="33" t="n">
+      <c r="C100" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="E100" s="34" t="n">
+      <c r="E100" s="35" t="n">
         <v>0.19</v>
       </c>
-      <c r="F100" s="35" t="n">
+      <c r="F100" s="36" t="n">
         <f aca="false">D100*E100</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="24" t="n">
+      <c r="C101" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="E101" s="18" t="n">
+      <c r="E101" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="F101" s="32" t="n">
+      <c r="F101" s="33" t="n">
         <f aca="false">D101*E101</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="24" t="n">
+      <c r="C102" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="E102" s="36" t="n">
+      <c r="E102" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F102" s="35" t="n">
+      <c r="F102" s="36" t="n">
         <f aca="false">D102*E102</f>
         <v>3</v>
       </c>
-      <c r="G102" s="37"/>
+      <c r="G102" s="38"/>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="24" t="n">
-        <v>71</v>
-      </c>
-      <c r="E103" s="36" t="n">
+      <c r="C103" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="25" t="n">
+        <v>70</v>
+      </c>
+      <c r="E103" s="37" t="n">
         <v>3.45</v>
       </c>
-      <c r="F103" s="35" t="n">
+      <c r="F103" s="36" t="n">
         <f aca="false">D103*E103</f>
-        <v>244.95</v>
-      </c>
-      <c r="G103" s="38"/>
+        <v>241.5</v>
+      </c>
+      <c r="G103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="24" t="n">
-        <v>56</v>
-      </c>
-      <c r="E104" s="36" t="n">
+      <c r="C104" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="E104" s="37" t="n">
         <v>2.9</v>
       </c>
-      <c r="F104" s="35" t="n">
+      <c r="F104" s="36" t="n">
         <f aca="false">D104*E104</f>
-        <v>162.4</v>
-      </c>
-      <c r="G104" s="38"/>
+        <v>127.6</v>
+      </c>
+      <c r="G104" s="39"/>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="E105" s="36" t="n">
+      <c r="C105" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="E105" s="37" t="n">
         <v>4.8</v>
       </c>
-      <c r="F105" s="35" t="n">
+      <c r="F105" s="36" t="n">
         <f aca="false">D105*E105</f>
-        <v>57.6</v>
-      </c>
-      <c r="G105" s="38"/>
+        <v>52.8</v>
+      </c>
+      <c r="G105" s="39"/>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="24" t="n">
+      <c r="C106" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E106" s="36" t="n">
+      <c r="E106" s="37" t="n">
         <v>3.45</v>
       </c>
-      <c r="F106" s="35" t="n">
+      <c r="F106" s="36" t="n">
         <f aca="false">D106*E106</f>
         <v>0</v>
       </c>
-      <c r="G106" s="38"/>
+      <c r="G106" s="39"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="24" t="n">
+      <c r="C107" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="E107" s="36" t="n">
+      <c r="E107" s="37" t="n">
         <v>3.75</v>
       </c>
-      <c r="F107" s="35" t="n">
+      <c r="F107" s="36" t="n">
         <f aca="false">D107*E107</f>
         <v>123.75</v>
       </c>
-      <c r="G107" s="38"/>
+      <c r="G107" s="39"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="36" t="n">
+      <c r="C108" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E108" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="F108" s="35" t="n">
+      <c r="F108" s="36" t="n">
         <f aca="false">D108*E108</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="G108" s="39"/>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="36" t="n">
+      <c r="C109" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="25"/>
+      <c r="E109" s="37" t="n">
         <v>0.8</v>
       </c>
-      <c r="F109" s="35" t="n">
+      <c r="F109" s="36" t="n">
         <f aca="false">D109*E109</f>
         <v>0</v>
       </c>
-      <c r="G109" s="38"/>
+      <c r="G109" s="39"/>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="E110" s="36" t="n">
+      <c r="C110" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="25" t="n">
+        <v>38</v>
+      </c>
+      <c r="E110" s="37" t="n">
         <v>1.8</v>
       </c>
-      <c r="F110" s="35" t="n">
+      <c r="F110" s="36" t="n">
         <f aca="false">D110*E110</f>
-        <v>90</v>
-      </c>
-      <c r="G110" s="38"/>
+        <v>68.4</v>
+      </c>
+      <c r="G110" s="39"/>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C111" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="24" t="n">
+      <c r="C111" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="E111" s="36" t="n">
+      <c r="E111" s="37" t="n">
         <v>11.7</v>
       </c>
-      <c r="F111" s="35" t="n">
+      <c r="F111" s="36" t="n">
         <f aca="false">D111*E111</f>
         <v>222.3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="24" t="n">
-        <v>78</v>
-      </c>
-      <c r="E112" s="36" t="n">
+      <c r="C112" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="25" t="n">
+        <v>77</v>
+      </c>
+      <c r="E112" s="37" t="n">
         <v>3.1</v>
       </c>
-      <c r="F112" s="35" t="n">
+      <c r="F112" s="36" t="n">
         <f aca="false">D112*E112</f>
-        <v>241.8</v>
+        <v>238.7</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="E113" s="18" t="n">
+      <c r="C113" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="E113" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="F113" s="39" t="n">
+      <c r="F113" s="40" t="n">
         <f aca="false">D113*E113</f>
-        <v>24.9</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="24" t="n">
+      <c r="C114" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E114" s="18" t="n">
+      <c r="E114" s="19" t="n">
         <v>4.7</v>
       </c>
       <c r="F114" s="15" t="n">
@@ -4285,40 +4287,40 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="24" t="n">
-        <v>83</v>
-      </c>
-      <c r="E115" s="18" t="n">
+      <c r="C115" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="25" t="n">
+        <v>82</v>
+      </c>
+      <c r="E115" s="19" t="n">
         <v>2.5</v>
       </c>
       <c r="F115" s="15" t="n">
         <f aca="false">D115*E115</f>
-        <v>207.5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="40" t="s">
+      <c r="B116" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="24" t="n">
+      <c r="C116" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="E116" s="18" t="n">
+      <c r="E116" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F116" s="15" t="n">
@@ -4327,19 +4329,19 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="40" t="s">
+      <c r="B117" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C117" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="24" t="n">
+      <c r="C117" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E117" s="18" t="n">
+      <c r="E117" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="15" t="n">
@@ -4347,20 +4349,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" s="20" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="41" t="s">
+    <row r="118" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="24" t="n">
+      <c r="D118" s="25" t="n">
         <v>157.8</v>
       </c>
-      <c r="E118" s="18" t="n">
+      <c r="E118" s="19" t="n">
         <v>2.4</v>
       </c>
       <c r="F118" s="15" t="n">
@@ -4371,19 +4373,19 @@
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="24" t="n">
+      <c r="D119" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="E119" s="18" t="n">
+      <c r="E119" s="19" t="n">
         <v>2.4</v>
       </c>
       <c r="F119" s="15" t="n">
@@ -4392,7 +4394,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -4413,19 +4415,19 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C121" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="24" t="n">
+      <c r="C121" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="25" t="n">
         <v>492</v>
       </c>
-      <c r="E121" s="18" t="n">
+      <c r="E121" s="19" t="n">
         <v>0.66</v>
       </c>
       <c r="F121" s="15" t="n">
@@ -4434,19 +4436,19 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="24" t="n">
+      <c r="C122" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="E122" s="18" t="n">
+      <c r="E122" s="19" t="n">
         <v>2.85</v>
       </c>
       <c r="F122" s="15" t="n">
@@ -4455,19 +4457,19 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C123" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="24" t="n">
+      <c r="C123" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="E123" s="18" t="n">
+      <c r="E123" s="19" t="n">
         <v>1.72</v>
       </c>
       <c r="F123" s="15" t="n">
@@ -4476,40 +4478,40 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="E124" s="18" t="n">
+      <c r="C124" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E124" s="19" t="n">
         <v>2.9</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>55.1</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="24" t="n">
+      <c r="C125" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="18" t="n">
+      <c r="E125" s="19" t="n">
         <v>1.72</v>
       </c>
       <c r="F125" s="15" t="n">
@@ -4518,19 +4520,19 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="24" t="n">
+      <c r="C126" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E126" s="18" t="n">
+      <c r="E126" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F126" s="15" t="n">
@@ -4539,19 +4541,19 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="24" t="n">
+      <c r="C127" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="E127" s="18" t="n">
+      <c r="E127" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F127" s="15" t="n">
@@ -4560,19 +4562,19 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C128" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="24" t="n">
+      <c r="C128" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E128" s="18" t="n">
+      <c r="E128" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F128" s="15" t="n">
@@ -4581,19 +4583,19 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="24" t="n">
+      <c r="D129" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="E129" s="18" t="n">
+      <c r="E129" s="19" t="n">
         <v>2.69</v>
       </c>
       <c r="F129" s="15" t="n">
@@ -4602,19 +4604,19 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="B130" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="24" t="n">
+      <c r="D130" s="25" t="n">
         <v>75</v>
       </c>
-      <c r="E130" s="18" t="n">
+      <c r="E130" s="19" t="n">
         <v>3.3</v>
       </c>
       <c r="F130" s="15" t="n">
@@ -4623,17 +4625,17 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23" t="s">
+      <c r="B131" s="24"/>
+      <c r="C131" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="24" t="n">
+      <c r="D131" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="E131" s="18" t="n">
+      <c r="E131" s="19" t="n">
         <v>2.87</v>
       </c>
       <c r="F131" s="15" t="n">
@@ -4642,19 +4644,19 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D132" s="24" t="n">
+      <c r="D132" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E132" s="18" t="n">
+      <c r="E132" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F132" s="15" t="n">
@@ -4662,20 +4664,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="22" t="s">
+    <row r="133" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="24" t="n">
+      <c r="C133" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="25" t="n">
         <v>424</v>
       </c>
-      <c r="E133" s="18" t="n">
+      <c r="E133" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F133" s="15" t="n">
@@ -4685,18 +4687,18 @@
       <c r="AMI133" s="0"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="43" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="22" t="s">
+    <row r="134" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="24" t="n">
+      <c r="B134" s="24"/>
+      <c r="C134" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E134" s="18" t="n">
+      <c r="E134" s="19" t="n">
         <v>1.96</v>
       </c>
       <c r="F134" s="15" t="n">
@@ -4707,17 +4709,17 @@
       <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="27" t="s">
         <v>171</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D135" s="27" t="n">
+      <c r="D135" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="E135" s="28" t="n">
+      <c r="E135" s="29" t="n">
         <v>1.97</v>
       </c>
       <c r="F135" s="15" t="n">
@@ -4726,19 +4728,19 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="24" t="n">
+      <c r="D136" s="25" t="n">
         <v>195</v>
       </c>
-      <c r="E136" s="18" t="n">
+      <c r="E136" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F136" s="15" t="n">
@@ -4747,19 +4749,19 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="24" t="n">
+      <c r="D137" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="E137" s="18" t="n">
+      <c r="E137" s="19" t="n">
         <v>2.69</v>
       </c>
       <c r="F137" s="15" t="n">
@@ -4768,19 +4770,19 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="24" t="n">
+      <c r="D138" s="25" t="n">
         <v>50</v>
       </c>
-      <c r="E138" s="18" t="n">
+      <c r="E138" s="19" t="n">
         <v>2.21</v>
       </c>
       <c r="F138" s="15" t="n">
@@ -4789,17 +4791,17 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="26" t="s">
+      <c r="A139" s="27" t="s">
         <v>176</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="27" t="n">
+      <c r="D139" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="E139" s="28" t="n">
+      <c r="E139" s="29" t="n">
         <v>1.43</v>
       </c>
       <c r="F139" s="15" t="n">
@@ -4808,17 +4810,17 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="23"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="24" t="n">
+      <c r="D140" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E140" s="18" t="n">
+      <c r="E140" s="19" t="n">
         <v>8.5</v>
       </c>
       <c r="F140" s="15" t="n">
@@ -4827,17 +4829,17 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B141" s="23"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="24" t="n">
+      <c r="D141" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="E141" s="18" t="n">
+      <c r="E141" s="19" t="n">
         <v>5</v>
       </c>
       <c r="F141" s="15" t="n">
@@ -4846,19 +4848,19 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="24" t="n">
+      <c r="D142" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="E142" s="18" t="n">
+      <c r="E142" s="19" t="n">
         <v>47</v>
       </c>
       <c r="F142" s="15" t="n">
@@ -4867,17 +4869,17 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="27" t="s">
         <v>181</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="27" t="n">
+      <c r="D143" s="28" t="n">
         <v>22</v>
       </c>
-      <c r="E143" s="28" t="n">
+      <c r="E143" s="29" t="n">
         <v>2.97</v>
       </c>
       <c r="F143" s="15" t="n">
@@ -4886,19 +4888,19 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="22" t="s">
+      <c r="A144" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C144" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="24" t="n">
+      <c r="C144" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E144" s="18" t="n">
+      <c r="E144" s="19" t="n">
         <v>1.36</v>
       </c>
       <c r="F144" s="15" t="n">
@@ -4907,17 +4909,17 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="27" t="s">
         <v>184</v>
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="27" t="n">
+      <c r="D145" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="E145" s="28" t="n">
+      <c r="E145" s="29" t="n">
         <v>5</v>
       </c>
       <c r="F145" s="15" t="n">
@@ -4926,17 +4928,17 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="26" t="s">
+      <c r="A146" s="27" t="s">
         <v>185</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="27" t="n">
+      <c r="D146" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E146" s="28" t="n">
+      <c r="E146" s="29" t="n">
         <v>12</v>
       </c>
       <c r="F146" s="15" t="n">
@@ -4945,17 +4947,17 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="26" t="s">
+      <c r="A147" s="27" t="s">
         <v>186</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D147" s="27" t="n">
+      <c r="D147" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="E147" s="28" t="n">
+      <c r="E147" s="29" t="n">
         <v>1.36</v>
       </c>
       <c r="F147" s="15" t="n">
@@ -4964,17 +4966,17 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="27" t="s">
         <v>187</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="27" t="n">
-        <v>49</v>
-      </c>
-      <c r="E148" s="28" t="n">
+      <c r="D148" s="28" t="n">
+        <v>49</v>
+      </c>
+      <c r="E148" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="F148" s="15" t="n">
@@ -4983,36 +4985,36 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="26" t="s">
+      <c r="A149" s="27" t="s">
         <v>188</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D149" s="27" t="n">
-        <v>31</v>
-      </c>
-      <c r="E149" s="28" t="n">
+      <c r="D149" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E149" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="F149" s="15" t="n">
         <f aca="false">D149*E149</f>
-        <v>170.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="26" t="s">
+      <c r="A150" s="27" t="s">
         <v>189</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D150" s="27" t="n">
-        <v>49</v>
-      </c>
-      <c r="E150" s="28" t="n">
+      <c r="D150" s="28" t="n">
+        <v>49</v>
+      </c>
+      <c r="E150" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="F150" s="15" t="n">
@@ -5021,17 +5023,17 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="26" t="s">
+      <c r="A151" s="27" t="s">
         <v>190</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D151" s="27" t="n">
+      <c r="D151" s="28" t="n">
         <v>33</v>
       </c>
-      <c r="E151" s="28" t="n">
+      <c r="E151" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="F151" s="15" t="n">
@@ -5040,17 +5042,17 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="26" t="s">
+      <c r="A152" s="27" t="s">
         <v>191</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="27" t="n">
+      <c r="D152" s="28" t="n">
         <v>53</v>
       </c>
-      <c r="E152" s="28" t="n">
+      <c r="E152" s="29" t="n">
         <v>1.1</v>
       </c>
       <c r="F152" s="15" t="n">
@@ -5059,17 +5061,17 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="26" t="s">
+      <c r="A153" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="27" t="n">
+      <c r="D153" s="28" t="n">
         <v>51</v>
       </c>
-      <c r="E153" s="28" t="n">
+      <c r="E153" s="29" t="n">
         <v>0.9</v>
       </c>
       <c r="F153" s="15" t="n">
@@ -5078,17 +5080,17 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="26" t="s">
+      <c r="A154" s="27" t="s">
         <v>193</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="27" t="n">
+      <c r="D154" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="E154" s="28" t="n">
+      <c r="E154" s="29" t="n">
         <v>2.85</v>
       </c>
       <c r="F154" s="15" t="n">
@@ -5097,17 +5099,17 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="26" t="s">
+      <c r="A155" s="27" t="s">
         <v>194</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="27" t="n">
+      <c r="D155" s="28" t="n">
         <v>32</v>
       </c>
-      <c r="E155" s="28" t="n">
+      <c r="E155" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="F155" s="15" t="n">
@@ -5116,15 +5118,15 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="26" t="s">
+      <c r="A156" s="27" t="s">
         <v>195</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
-      <c r="D156" s="27" t="n">
+      <c r="D156" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="E156" s="28" t="n">
+      <c r="E156" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="F156" s="15" t="n">
@@ -5133,26 +5135,26 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="26" t="s">
+      <c r="A157" s="27" t="s">
         <v>196</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D157" s="27" t="n">
-        <v>46</v>
-      </c>
-      <c r="E157" s="28" t="n">
+      <c r="D157" s="28" t="n">
+        <v>45</v>
+      </c>
+      <c r="E157" s="29" t="n">
         <v>3</v>
       </c>
       <c r="F157" s="15" t="n">
         <f aca="false">D157*E157</f>
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="26" t="s">
+      <c r="A158" s="27" t="s">
         <v>197</v>
       </c>
       <c r="B158" s="12" t="s">
@@ -5161,10 +5163,10 @@
       <c r="C158" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="27" t="n">
+      <c r="D158" s="28" t="n">
         <v>21</v>
       </c>
-      <c r="E158" s="28" t="n">
+      <c r="E158" s="29" t="n">
         <v>17</v>
       </c>
       <c r="F158" s="15" t="n">
@@ -5173,7 +5175,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="27" t="s">
         <v>199</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -5182,10 +5184,10 @@
       <c r="C159" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D159" s="27" t="n">
+      <c r="D159" s="28" t="n">
         <v>97</v>
       </c>
-      <c r="E159" s="28" t="n">
+      <c r="E159" s="29" t="n">
         <v>10</v>
       </c>
       <c r="F159" s="15" t="n">
@@ -5194,7 +5196,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="26" t="s">
+      <c r="A160" s="27" t="s">
         <v>201</v>
       </c>
       <c r="B160" s="12" t="s">
@@ -5203,10 +5205,10 @@
       <c r="C160" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D160" s="27" t="n">
+      <c r="D160" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="E160" s="28" t="n">
+      <c r="E160" s="29" t="n">
         <v>10</v>
       </c>
       <c r="F160" s="15" t="n">
@@ -5215,9 +5217,9 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F161" s="44" t="n">
+      <c r="F161" s="45" t="n">
         <f aca="false">SUM(F3:F160)</f>
-        <v>15984.424</v>
+        <v>15908.88</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -826,7 +826,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,6 +987,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1121,14 +1125,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="35"/>
@@ -1298,14 +1303,14 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="14" t="n">
         <v>16.5</v>
       </c>
       <c r="F5" s="15" t="n">
         <f aca="false">D5*E5</f>
-        <v>165</v>
+        <v>148.5</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1346,14 +1351,14 @@
         <v>12</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="14" t="n">
         <v>16.5</v>
       </c>
       <c r="F6" s="15" t="n">
         <f aca="false">D6*E6</f>
-        <v>297</v>
+        <v>280.5</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1826,14 +1831,14 @@
         <v>23</v>
       </c>
       <c r="D16" s="17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="14" t="n">
         <v>0.6</v>
       </c>
       <c r="F16" s="15" t="n">
         <f aca="false">D16*E16</f>
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2114,14 +2119,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">D22*E22</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2210,14 +2215,14 @@
         <v>12</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="15" t="n">
         <f aca="false">D24*E24</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -3010,14 +3015,14 @@
         <v>49</v>
       </c>
       <c r="D53" s="25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E53" s="19" t="n">
         <v>1.75</v>
       </c>
       <c r="F53" s="15" t="n">
         <f aca="false">D53*E53</f>
-        <v>5.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3849,14 +3854,14 @@
         <v>49</v>
       </c>
       <c r="D94" s="25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E94" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F94" s="15" t="n">
         <f aca="false">D94*E94</f>
-        <v>19.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4017,14 +4022,14 @@
         <v>49</v>
       </c>
       <c r="D102" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E102" s="37" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="36" t="n">
         <f aca="false">D102*E102</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G102" s="38"/>
     </row>
@@ -4039,14 +4044,14 @@
         <v>49</v>
       </c>
       <c r="D103" s="25" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E103" s="37" t="n">
         <v>3.45</v>
       </c>
       <c r="F103" s="36" t="n">
         <f aca="false">D103*E103</f>
-        <v>241.5</v>
+        <v>227.7</v>
       </c>
       <c r="G103" s="39"/>
     </row>
@@ -4082,15 +4087,15 @@
       <c r="C105" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="25" t="n">
-        <v>11</v>
+      <c r="D105" s="40" t="n">
+        <v>6</v>
       </c>
       <c r="E105" s="37" t="n">
         <v>4.8</v>
       </c>
       <c r="F105" s="36" t="n">
         <f aca="false">D105*E105</f>
-        <v>52.8</v>
+        <v>28.8</v>
       </c>
       <c r="G105" s="39"/>
     </row>
@@ -4127,14 +4132,14 @@
         <v>49</v>
       </c>
       <c r="D107" s="25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" s="37" t="n">
         <v>3.75</v>
       </c>
       <c r="F107" s="36" t="n">
         <f aca="false">D107*E107</f>
-        <v>123.75</v>
+        <v>120</v>
       </c>
       <c r="G107" s="39"/>
     </row>
@@ -4260,7 +4265,7 @@
       <c r="E113" s="19" t="n">
         <v>0.83</v>
       </c>
-      <c r="F113" s="40" t="n">
+      <c r="F113" s="41" t="n">
         <f aca="false">D113*E113</f>
         <v>16.6</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="A116" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C116" s="24" t="s">
@@ -4332,7 +4337,7 @@
       <c r="A117" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C117" s="24" t="s">
@@ -4350,10 +4355,10 @@
       </c>
     </row>
     <row r="118" s="21" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C118" s="24" t="s">
@@ -4654,17 +4659,17 @@
         <v>167</v>
       </c>
       <c r="D132" s="25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" s="19" t="n">
         <v>7</v>
       </c>
       <c r="F132" s="15" t="n">
         <f aca="false">D132*E132</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
         <v>168</v>
       </c>
@@ -4675,19 +4680,19 @@
         <v>49</v>
       </c>
       <c r="D133" s="25" t="n">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E133" s="19" t="n">
         <v>3</v>
       </c>
       <c r="F133" s="15" t="n">
         <f aca="false">D133*E133</f>
-        <v>1272</v>
+        <v>1230</v>
       </c>
       <c r="AMI133" s="0"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="44" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" s="45" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="23" t="s">
         <v>170</v>
       </c>
@@ -4780,14 +4785,14 @@
         <v>15</v>
       </c>
       <c r="D138" s="25" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E138" s="19" t="n">
         <v>2.21</v>
       </c>
       <c r="F138" s="15" t="n">
         <f aca="false">D138*E138</f>
-        <v>110.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4974,14 +4979,14 @@
         <v>49</v>
       </c>
       <c r="D148" s="28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E148" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="F148" s="15" t="n">
         <f aca="false">D148*E148</f>
-        <v>107.8</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4993,14 +4998,14 @@
         <v>49</v>
       </c>
       <c r="D149" s="28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E149" s="29" t="n">
         <v>5.5</v>
       </c>
       <c r="F149" s="15" t="n">
         <f aca="false">D149*E149</f>
-        <v>165</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5012,14 +5017,14 @@
         <v>49</v>
       </c>
       <c r="D150" s="28" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E150" s="29" t="n">
         <v>0.4</v>
       </c>
       <c r="F150" s="15" t="n">
         <f aca="false">D150*E150</f>
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5031,14 +5036,14 @@
         <v>49</v>
       </c>
       <c r="D151" s="28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E151" s="29" t="n">
         <v>0.5</v>
       </c>
       <c r="F151" s="15" t="n">
         <f aca="false">D151*E151</f>
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5107,14 +5112,14 @@
         <v>49</v>
       </c>
       <c r="D155" s="28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E155" s="29" t="n">
         <v>3.4</v>
       </c>
       <c r="F155" s="15" t="n">
         <f aca="false">D155*E155</f>
-        <v>108.8</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5217,9 +5222,9 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F161" s="45" t="n">
+      <c r="F161" s="46" t="n">
         <f aca="false">SUM(F3:F160)</f>
-        <v>15908.88</v>
+        <v>15998.18</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5256,7 +5261,7 @@
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D106">
+  <conditionalFormatting sqref="D106 D103:D104">
     <cfRule type="cellIs" priority="7" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,14 +2582,14 @@
         <v>51</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
@@ -3370,14 +3370,14 @@
         <v>49</v>
       </c>
       <c r="D70" s="25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" s="19" t="n">
         <v>0.44</v>
       </c>
       <c r="F70" s="15" t="n">
         <f aca="false">D70*E70</f>
-        <v>2.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4066,14 +4066,14 @@
         <v>49</v>
       </c>
       <c r="D104" s="25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E104" s="37" t="n">
         <v>2.9</v>
       </c>
       <c r="F104" s="36" t="n">
         <f aca="false">D104*E104</f>
-        <v>127.6</v>
+        <v>121.8</v>
       </c>
       <c r="G104" s="39"/>
     </row>
@@ -4088,14 +4088,14 @@
         <v>49</v>
       </c>
       <c r="D105" s="40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E105" s="37" t="n">
         <v>4.8</v>
       </c>
       <c r="F105" s="36" t="n">
         <f aca="false">D105*E105</f>
-        <v>28.8</v>
+        <v>33.6</v>
       </c>
       <c r="G105" s="39"/>
     </row>
@@ -4196,14 +4196,14 @@
         <v>49</v>
       </c>
       <c r="D110" s="25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E110" s="37" t="n">
         <v>1.8</v>
       </c>
       <c r="F110" s="36" t="n">
         <f aca="false">D110*E110</f>
-        <v>68.4</v>
+        <v>64.8</v>
       </c>
       <c r="G110" s="39"/>
     </row>
@@ -4430,14 +4430,14 @@
         <v>49</v>
       </c>
       <c r="D121" s="25" t="n">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="E121" s="19" t="n">
         <v>0.66</v>
       </c>
       <c r="F121" s="15" t="n">
         <f aca="false">D121*E121</f>
-        <v>324.72</v>
+        <v>310.86</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4493,14 +4493,14 @@
         <v>49</v>
       </c>
       <c r="D124" s="25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E124" s="19" t="n">
         <v>2.9</v>
       </c>
       <c r="F124" s="15" t="n">
         <f aca="false">D124*E124</f>
-        <v>43.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5224,7 +5224,7 @@
     <row r="161" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F161" s="46" t="n">
         <f aca="false">SUM(F3:F160)</f>
-        <v>15998.18</v>
+        <v>15816.46</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2019.xlsx
+++ b/magazzino2019.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,14 +2582,14 @@
         <v>51</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E32" s="19" t="n">
         <v>0.98</v>
       </c>
       <c r="F32" s="15" t="n">
         <f aca="false">D32*E32</f>
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
@@ -3015,14 +3015,14 @@
         <v>49</v>
       </c>
       <c r="D53" s="25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" s="19" t="n">
         <v>1.75</v>
       </c>
       <c r="F53" s="15" t="n">
         <f aca="false">D53*E53</f>
-        <v>14</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3286,14 +3286,14 @@
         <v>49</v>
       </c>
       <c r="D66" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="19" t="n">
         <v>2</v>
       </c>
       <c r="F66" s="15" t="n">
         <f aca="false">D66*E66</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3307,14 +3307,14 @@
         <v>49</v>
       </c>
       <c r="D67" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="19" t="n">
         <v>1.5</v>
       </c>
       <c r="F67" s="15" t="n">
         <f aca="false">D67*E67</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3370,14 +3370,14 @@
         <v>49</v>
       </c>
       <c r="D70" s="25" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E70" s="19" t="n">
         <v>0.44</v>
       </c>
       <c r="F70" s="15" t="n">
         <f aca="false">D70*E70</f>
-        <v>0.44</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3791,14 +3791,14 @@
         <v>49</v>
       </c>
       <c r="D91" s="25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91" s="19" t="n">
         <v>1.1</v>
       </c>
       <c r="F91" s="15" t="n">
         <f aca="false">D91*E91</f>
-        <v>19.8</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4066,14 +4066,14 @@
         <v>49</v>
       </c>
       <c r="D104" s="25" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E104" s="37" t="n">
         <v>2.9</v>
       </c>
       <c r="F104" s="36" t="n">
         <f aca="false">D104*E104</f>
-        <v>121.8</v>
+        <v>113.1</v>
       </c>
       <c r="G104" s="39"/>
     </row>
@@ -4088,14 +4088,14 @@
         <v>49</v>
       </c>
       <c r="D105" s="40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="37"